--- a/filtered-files/filterByPatternDatas.xlsx
+++ b/filtered-files/filterByPatternDatas.xlsx
@@ -33,16 +33,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
   <numFmts count="10">
-    <numFmt numFmtId="5" formatCode="&quot;$&quot;#,##0_);\(&quot;$&quot;#,##0\)"/>
-    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
-    <numFmt numFmtId="7" formatCode="&quot;$&quot;#,##0.00_);\(&quot;$&quot;#,##0.00\)"/>
-    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="5" formatCode="&quot;$&quot;#,##0_);(&quot;$&quot;#,##0)"/>
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red](&quot;$&quot;#,##0)"/>
+    <numFmt numFmtId="7" formatCode="&quot;$&quot;#,##0.00_);(&quot;$&quot;#,##0.00)"/>
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red](&quot;$&quot;#,##0.00)"/>
+    <numFmt numFmtId="41" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* (#,##0);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(* #,##0_);_(* (#,##0);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* (#,##0.00);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* (#,##0.00);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -406,503 +406,2503 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:M61"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>용역 발주계획목록</v>
+        <v>용역 발주계획목록 번호</v>
       </c>
       <c r="B1" t="str">
         <v>업무</v>
       </c>
       <c r="C1" t="str">
+        <v>유형</v>
+      </c>
+      <c r="D1" t="str">
         <v>발주기관</v>
       </c>
-      <c r="D1" t="str">
+      <c r="E1" t="str">
         <v>발주시기</v>
       </c>
-      <c r="E1" t="str">
+      <c r="F1" t="str">
         <v>조달방식</v>
       </c>
-      <c r="F1" t="str">
+      <c r="G1" t="str">
         <v>계약방법</v>
       </c>
-      <c r="G1" t="str">
+      <c r="H1" t="str">
         <v>용역명</v>
       </c>
-      <c r="H1" t="str">
+      <c r="I1" t="str">
         <v>용역구분</v>
       </c>
-      <c r="I1" t="str">
+      <c r="J1" t="str">
         <v>예산액(원)</v>
       </c>
-      <c r="J1" t="str">
+      <c r="K1" t="str">
         <v>담당부서</v>
       </c>
-      <c r="K1" t="str">
+      <c r="L1" t="str">
         <v>담당자</v>
       </c>
-      <c r="L1" t="str">
+      <c r="M1" t="str">
         <v>연락처</v>
-      </c>
-      <c r="M1" t="str">
-        <v>유형</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>1012</v>
+        <v>3002</v>
       </c>
       <c r="B2" t="str">
         <v>용역</v>
       </c>
       <c r="C2" t="str">
-        <v>한국수자원공사</v>
+        <v>신규</v>
       </c>
       <c r="D2" t="str">
-        <v>2024년 05월</v>
+        <v>연암대학교 산학협력단</v>
       </c>
       <c r="E2" t="str">
-        <v>자체조달</v>
+        <v>2024년 05월</v>
       </c>
       <c r="F2" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="G2" t="str">
         <v>일반경쟁</v>
       </c>
-      <c r="G2" t="str">
-        <v>해외 투자사업 기준수익률 산정방식 개선 용역</v>
-      </c>
       <c r="H2" t="str">
-        <v>일반용역</v>
-      </c>
-      <c r="I2">
-        <v>51139000</v>
-      </c>
-      <c r="J2" t="str">
-        <v>기획조정실</v>
+        <v>연암대학교 LINC3.0사업 글로벌 챌린저스 해외탐방 프로그램 위탁 운영업체 선정</v>
+      </c>
+      <c r="I2" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="J2">
+        <v>210000000</v>
       </c>
       <c r="K2" t="str">
-        <v>엄태웅</v>
+        <v>사무처</v>
       </c>
       <c r="L2" t="str">
-        <v>042-629-2336</v>
+        <v>김진영</v>
+      </c>
+      <c r="M2" t="str">
+        <v>041-580-1117</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>1156</v>
+        <v>3036</v>
       </c>
       <c r="B3" t="str">
         <v>용역</v>
       </c>
       <c r="C3" t="str">
-        <v>전북특별자치도교육청 전북특별자치도전주교육지원청 전주우림중학교</v>
+        <v>신규</v>
       </c>
       <c r="D3" t="str">
-        <v>2024년 06월</v>
+        <v>경상남도교육청 경상남도하동교육지원청</v>
       </c>
       <c r="E3" t="str">
-        <v>자체조달</v>
+        <v>2024년 05월</v>
       </c>
       <c r="F3" t="str">
-        <v>제한경쟁</v>
+        <v>자체조달</v>
       </c>
       <c r="G3" t="str">
-        <v>2024학년도 전주우림중학교 국제교류수업 및 해외현장체험학습 위탁 용역</v>
+        <v>제한경쟁</v>
       </c>
       <c r="H3" t="str">
-        <v>일반용역</v>
-      </c>
-      <c r="I3">
-        <v>89980000</v>
-      </c>
-      <c r="J3" t="str">
-        <v>행정실</v>
+        <v>2024년 하동영재교육원 해외체험학습 위탁 용역 2단계입찰(규격-가격동시입찰)</v>
+      </c>
+      <c r="I3" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="J3">
+        <v>81900000</v>
       </c>
       <c r="K3" t="str">
-        <v>박유하</v>
+        <v>경상남도하동교육지원청 행정지원과</v>
       </c>
       <c r="L3" t="str">
-        <v>063-220-4904</v>
+        <v>문성심</v>
       </c>
       <c r="M3" t="str">
-        <v>신규</v>
+        <v>055-880-1972</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>1190</v>
+        <v>3088</v>
       </c>
       <c r="B4" t="str">
         <v>용역</v>
       </c>
       <c r="C4" t="str">
-        <v>재단법인 서울관광재단</v>
+        <v>신규</v>
       </c>
       <c r="D4" t="str">
-        <v>2024년 06월</v>
+        <v>인천광역시교육청 인천광역시교육청동아시아국제교육원</v>
       </c>
       <c r="E4" t="str">
-        <v>자체조달</v>
+        <v>2024년 05월</v>
       </c>
       <c r="F4" t="str">
-        <v>제한경쟁</v>
+        <v>자체조달</v>
       </c>
       <c r="G4" t="str">
-        <v>2024 해외관광박람회 서울 단독 홍보관 설치 및 운영</v>
+        <v>제한경쟁</v>
       </c>
       <c r="H4" t="str">
-        <v>일반용역</v>
-      </c>
-      <c r="I4">
-        <v>314000000</v>
-      </c>
-      <c r="J4" t="str">
-        <v>글로벌관광산업팀</v>
+        <v>인천세계로배움학교 2024 학생,교원 학기교환제 해외연수 위탁운영</v>
+      </c>
+      <c r="I4" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="J4">
+        <v>72779000</v>
       </c>
       <c r="K4" t="str">
-        <v>김윤영</v>
+        <v>동아시아교육협력과</v>
       </c>
       <c r="L4" t="str">
-        <v>02-3788-0890</v>
+        <v>이영혜</v>
       </c>
       <c r="M4" t="str">
-        <v>신규</v>
+        <v>032-745-0208</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>1301</v>
+        <v>3195</v>
       </c>
       <c r="B5" t="str">
         <v>용역</v>
       </c>
       <c r="C5" t="str">
-        <v>배화여자대학교</v>
+        <v>신규</v>
       </c>
       <c r="D5" t="str">
-        <v>2024년 05월</v>
+        <v>사단법인 해외자원개발협회</v>
       </c>
       <c r="E5" t="str">
-        <v>자체조달</v>
+        <v>2024년 05월</v>
       </c>
       <c r="F5" t="str">
-        <v>제한경쟁</v>
+        <v>자체조달</v>
       </c>
       <c r="G5" t="str">
-        <v>배화여자대학교 해외취업지원프로그램 운영기관 선정</v>
+        <v>일반경쟁</v>
       </c>
       <c r="H5" t="str">
-        <v>일반용역</v>
-      </c>
-      <c r="I5">
-        <v>48000000</v>
-      </c>
-      <c r="J5" t="str">
-        <v>총무처</v>
+        <v>2024 해외자원개발 심포지엄 대행</v>
+      </c>
+      <c r="I5" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="J5">
+        <v>90000000</v>
       </c>
       <c r="K5" t="str">
-        <v>박병서</v>
+        <v>회원서비스팀</v>
       </c>
       <c r="L5" t="str">
-        <v>02-399-0893</v>
+        <v>육승규</v>
       </c>
       <c r="M5" t="str">
-        <v>신규</v>
+        <v>02-3453-4249</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>1483</v>
+        <v>3336</v>
       </c>
       <c r="B6" t="str">
         <v>용역</v>
       </c>
       <c r="C6" t="str">
-        <v>국회 국회예산정책처</v>
+        <v>신규</v>
       </c>
       <c r="D6" t="str">
-        <v>2024년 05월</v>
+        <v>충청북도교육청 충청북도청주교육지원청 청주대성초등학교</v>
       </c>
       <c r="E6" t="str">
-        <v>자체조달</v>
+        <v>2024년 05월</v>
       </c>
       <c r="F6" t="str">
-        <v>수의계약</v>
+        <v>자체조달</v>
       </c>
       <c r="G6" t="str">
-        <v>해외 사례 분석을 통한 국내 공공주택공급 정책의 개선방안 연구</v>
+        <v>제한경쟁</v>
       </c>
       <c r="H6" t="str">
-        <v>일반용역</v>
-      </c>
-      <c r="I6">
-        <v>30000000</v>
-      </c>
-      <c r="J6" t="str">
-        <v>국회예산정책처 총무담당관실</v>
+        <v>청주대성초등학교 6학년 수학여행(해외문화탐방) 용역 입찰 공고(긴급) [2단계(규격가격동시)]</v>
+      </c>
+      <c r="I6" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="J6">
+        <v>204700000</v>
       </c>
       <c r="K6" t="str">
-        <v>장아련</v>
+        <v>행정실</v>
       </c>
       <c r="L6" t="str">
-        <v>02-6788-4615</v>
+        <v>윤수정</v>
       </c>
       <c r="M6" t="str">
-        <v>신규</v>
+        <v>043-215-5261</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>1516</v>
+        <v>3343</v>
       </c>
       <c r="B7" t="str">
         <v>용역</v>
       </c>
       <c r="C7" t="str">
-        <v>재단법인안양산업진흥원</v>
+        <v>신규</v>
       </c>
       <c r="D7" t="str">
-        <v>2024년 05월</v>
+        <v>분당서울대학교병원</v>
       </c>
       <c r="E7" t="str">
-        <v>자체조달</v>
+        <v>2024년 05월</v>
       </c>
       <c r="F7" t="str">
-        <v>제한경쟁</v>
+        <v>자체조달</v>
       </c>
       <c r="G7" t="str">
-        <v>2024년 해외시장개척단 파견 운영 용역</v>
+        <v>제한경쟁</v>
       </c>
       <c r="H7" t="str">
-        <v>일반용역</v>
-      </c>
-      <c r="I7">
-        <v>140000000</v>
-      </c>
-      <c r="J7" t="str">
-        <v>기업육성부</v>
+        <v>2024년도 글로벌 선진경영 벤치마킹 해외연수 위탁</v>
+      </c>
+      <c r="I7" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
       </c>
       <c r="K7" t="str">
-        <v>안재민</v>
+        <v>구매계약팀</v>
       </c>
       <c r="L7" t="str">
-        <v>031-8045-6725</v>
+        <v>남수정</v>
       </c>
       <c r="M7" t="str">
-        <v>신규</v>
+        <v>031-787-1392</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>1759</v>
+        <v>3382</v>
       </c>
       <c r="B8" t="str">
         <v>용역</v>
       </c>
       <c r="C8" t="str">
-        <v>대전광역시교육청 대전도시과학고등학교</v>
+        <v>신규</v>
       </c>
       <c r="D8" t="str">
-        <v>2024년 05월</v>
+        <v>충청북도교육청 단양고등학교</v>
       </c>
       <c r="E8" t="str">
-        <v>자체조달</v>
+        <v>2024년 05월</v>
       </c>
       <c r="F8" t="str">
-        <v>제한경쟁</v>
+        <v>자체조달</v>
       </c>
       <c r="G8" t="str">
-        <v>대전도시과학고등학교 해외 직무역량향상 캠프 위탁용역 입찰 재공고</v>
+        <v>제한경쟁</v>
       </c>
       <c r="H8" t="str">
-        <v>일반용역</v>
-      </c>
-      <c r="I8">
-        <v>36399780</v>
-      </c>
-      <c r="J8" t="str">
-        <v>산학협력부</v>
+        <v>단양고 2024학년도 2학년 해외 선진문화 체험학습[일본] 위탁용역</v>
+      </c>
+      <c r="I8" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="J8">
+        <v>201894000</v>
       </c>
       <c r="K8" t="str">
-        <v>윤경훈</v>
+        <v>단양고등학교 행정실</v>
       </c>
       <c r="L8" t="str">
-        <v>042-540-2137</v>
+        <v>조대형</v>
       </c>
       <c r="M8" t="str">
-        <v>신규</v>
+        <v>043-422-3521</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>1786</v>
+        <v>3404</v>
       </c>
       <c r="B9" t="str">
         <v>용역</v>
       </c>
       <c r="C9" t="str">
-        <v>광복회</v>
+        <v>신규</v>
       </c>
       <c r="D9" t="str">
-        <v>2024년 05월</v>
+        <v>서울특별시교육청 한성과학고등학교</v>
       </c>
       <c r="E9" t="str">
-        <v>자체조달</v>
+        <v>2024년 05월</v>
       </c>
       <c r="F9" t="str">
-        <v>제한경쟁</v>
+        <v>자체조달</v>
       </c>
       <c r="G9" t="str">
-        <v>광복회 해외 독립운동 역사교육 (독일)</v>
+        <v>제한경쟁</v>
       </c>
       <c r="H9" t="str">
-        <v>일반용역</v>
-      </c>
-      <c r="I9">
-        <v>70000000</v>
-      </c>
-      <c r="J9" t="str">
-        <v>대외협력국</v>
+        <v>2024학년도 한성과학고등학교 해외이공계체험학습 위탁용역</v>
+      </c>
+      <c r="I9" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="J9">
+        <v>803622000</v>
       </c>
       <c r="K9" t="str">
-        <v>임소희</v>
+        <v>행정실</v>
       </c>
       <c r="L9" t="str">
-        <v>02-780-0816</v>
+        <v>최윤미</v>
       </c>
       <c r="M9" t="str">
-        <v>신규</v>
+        <v>02-6917-0086</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>1790</v>
+        <v>3409</v>
       </c>
       <c r="B10" t="str">
         <v>용역</v>
       </c>
       <c r="C10" t="str">
-        <v>군산간호대학교산학협력단</v>
+        <v>신규</v>
       </c>
       <c r="D10" t="str">
-        <v>2024년 05월</v>
+        <v>국제방송교류재단</v>
       </c>
       <c r="E10" t="str">
-        <v>자체조달</v>
+        <v>2024년 05월</v>
       </c>
       <c r="F10" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="G10" t="str">
         <v>일반경쟁</v>
       </c>
-      <c r="G10" t="str">
-        <v>2024년 해외 현장학습 및 전공 연수</v>
-      </c>
       <c r="H10" t="str">
-        <v>일반용역</v>
-      </c>
-      <c r="I10">
-        <v>62000000</v>
-      </c>
-      <c r="J10" t="str">
-        <v>기획처</v>
+        <v>2024년 하반기 온라인 정부 광고 협력업체 선정(해외)</v>
+      </c>
+      <c r="I10" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="J10">
+        <v>3000000000</v>
       </c>
       <c r="K10" t="str">
-        <v>김영진</v>
+        <v>인재경영센터</v>
       </c>
       <c r="L10" t="str">
-        <v>063-450-3922</v>
+        <v>박경민</v>
       </c>
       <c r="M10" t="str">
-        <v>신규</v>
+        <v>02-3475-5052</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>1847</v>
+        <v>3437</v>
       </c>
       <c r="B11" t="str">
         <v>용역</v>
       </c>
       <c r="C11" t="str">
-        <v>충청남도교육청 금산하이텍고등학교</v>
+        <v>신규</v>
       </c>
       <c r="D11" t="str">
-        <v>2024년 05월</v>
+        <v>전라남도나주교육청 노안중학교</v>
       </c>
       <c r="E11" t="str">
-        <v>자체조달</v>
+        <v>2024년 06월</v>
       </c>
       <c r="F11" t="str">
-        <v>제한경쟁</v>
+        <v>자체조달</v>
       </c>
       <c r="G11" t="str">
-        <v>2024학년도 금산하이텍고등학교 세계문화유산 해외탐방(수학여행) 위탁용역</v>
+        <v>제한경쟁</v>
       </c>
       <c r="H11" t="str">
-        <v>일반용역</v>
-      </c>
-      <c r="I11">
-        <v>87718000</v>
-      </c>
-      <c r="J11" t="str">
-        <v>금산하이텍고등학</v>
+        <v>노안중학교 2024. 글로벌 미래교육 해외프로젝트 위탁 용역</v>
+      </c>
+      <c r="I11" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="J11">
+        <v>87639840</v>
       </c>
       <c r="K11" t="str">
-        <v>이은숙</v>
+        <v>행정실</v>
       </c>
       <c r="L11" t="str">
-        <v>041-752-4376</v>
+        <v>박미경</v>
       </c>
       <c r="M11" t="str">
-        <v>신규</v>
+        <v>061-335-2851</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
+        <v>3654</v>
+      </c>
+      <c r="B12" t="str">
+        <v>용역</v>
+      </c>
+      <c r="D12" t="str">
+        <v>한국수자원공사</v>
+      </c>
+      <c r="E12" t="str">
+        <v>2024년 06월</v>
+      </c>
+      <c r="F12" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="G12" t="str">
+        <v>제한경쟁</v>
+      </c>
+      <c r="H12" t="str">
+        <v>합천댐주변지역 청소년 해외탐방 위탁 용역</v>
+      </c>
+      <c r="I12" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="J12">
+        <v>150000000</v>
+      </c>
+      <c r="K12" t="str">
+        <v>합천댐지사</v>
+      </c>
+      <c r="L12" t="str">
+        <v>지성훈</v>
+      </c>
+      <c r="M12" t="str">
+        <v>055-930-5205</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>3673</v>
+      </c>
+      <c r="B13" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C13" t="str">
+        <v>신규</v>
+      </c>
+      <c r="D13" t="str">
+        <v>조선대학교</v>
+      </c>
+      <c r="E13" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="F13" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="G13" t="str">
+        <v>제한경쟁</v>
+      </c>
+      <c r="H13" t="str">
+        <v>해외 수산업 선진지역 및 우수기업 탐방 위탁 용역</v>
+      </c>
+      <c r="I13" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="J13">
+        <v>44000000</v>
+      </c>
+      <c r="K13" t="str">
+        <v>산학협력단 해양생물연구교육센터</v>
+      </c>
+      <c r="L13" t="str">
+        <v>진희정</v>
+      </c>
+      <c r="M13" t="str">
+        <v>062-608-5922</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>3747</v>
+      </c>
+      <c r="B14" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C14" t="str">
+        <v>신규</v>
+      </c>
+      <c r="D14" t="str">
+        <v>재단법인충청남도일자리경제진흥원</v>
+      </c>
+      <c r="E14" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="F14" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="G14" t="str">
+        <v>일반경쟁</v>
+      </c>
+      <c r="H14" t="str">
+        <v>2024년 충남 해외시장개척단(동유럽) 운영 용역</v>
+      </c>
+      <c r="I14" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="J14">
+        <v>250000000</v>
+      </c>
+      <c r="K14" t="str">
+        <v>마케팅지원팀</v>
+      </c>
+      <c r="L14" t="str">
+        <v>정연하</v>
+      </c>
+      <c r="M14" t="str">
+        <v>041-404-1352</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>3823</v>
+      </c>
+      <c r="B15" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C15" t="str">
+        <v>신규</v>
+      </c>
+      <c r="D15" t="str">
+        <v>울산대학교</v>
+      </c>
+      <c r="E15" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="F15" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="G15" t="str">
+        <v>일반경쟁</v>
+      </c>
+      <c r="H15" t="str">
+        <v>2024년 이차전지 융합전공 재학생 하계 해외 현장학습</v>
+      </c>
+      <c r="I15" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="J15">
+        <v>90000000</v>
+      </c>
+      <c r="K15" t="str">
+        <v>이차전지인력양성센터</v>
+      </c>
+      <c r="L15" t="str">
+        <v>이동운</v>
+      </c>
+      <c r="M15" t="str">
+        <v>052-712-8475</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>3873</v>
+      </c>
+      <c r="B16" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C16" t="str">
+        <v>신규</v>
+      </c>
+      <c r="D16" t="str">
+        <v>대전과학기술대학교 산학협력단</v>
+      </c>
+      <c r="E16" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="F16" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="G16" t="str">
+        <v>제한경쟁</v>
+      </c>
+      <c r="H16" t="str">
+        <v>(국고-전문대학혁신지원사업)2024년 해외 단기 인턴십(어학연수 및 현장실습)프로그램 외부 위탁업체 선정 입찰</v>
+      </c>
+      <c r="I16" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="J16">
+        <v>105000000</v>
+      </c>
+      <c r="K16" t="str">
+        <v>총무팀</v>
+      </c>
+      <c r="L16" t="str">
+        <v>김민정</v>
+      </c>
+      <c r="M16" t="str">
+        <v>042-580-6153</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>3895</v>
+      </c>
+      <c r="B17" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C17" t="str">
+        <v>신규</v>
+      </c>
+      <c r="D17" t="str">
+        <v>축산물품질평가원</v>
+      </c>
+      <c r="E17" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="F17" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="G17" t="str">
+        <v>일반경쟁</v>
+      </c>
+      <c r="H17" t="str">
+        <v>해외 축산유통정보조사 용역</v>
+      </c>
+      <c r="I17" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="J17">
+        <v>49000000</v>
+      </c>
+      <c r="K17" t="str">
+        <v>유통정보처</v>
+      </c>
+      <c r="L17" t="str">
+        <v>김지영</v>
+      </c>
+      <c r="M17" t="str">
+        <v>044-410-7085</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>3940</v>
+      </c>
+      <c r="B18" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C18" t="str">
+        <v>신규</v>
+      </c>
+      <c r="D18" t="str">
+        <v>강원특별자치도교육청 강원특별자치도정선교육지원청 함백중학교</v>
+      </c>
+      <c r="E18" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="F18" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="G18" t="str">
+        <v>제한경쟁</v>
+      </c>
+      <c r="H18" t="str">
+        <v>2024학년도 정선 함백중학교 3학년 해외문화체험학습 위탁용역</v>
+      </c>
+      <c r="I18" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="J18">
+        <v>78406000</v>
+      </c>
+      <c r="K18" t="str">
+        <v>교육행정실</v>
+      </c>
+      <c r="L18" t="str">
+        <v>허병석</v>
+      </c>
+      <c r="M18" t="str">
+        <v>033-370-0101</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>2039</v>
+      </c>
+      <c r="B19" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C19" t="str">
+        <v>신규</v>
+      </c>
+      <c r="D19" t="str">
+        <v>재단법인 경상북도경제진흥원</v>
+      </c>
+      <c r="E19" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="F19" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="G19" t="str">
+        <v>일반경쟁</v>
+      </c>
+      <c r="H19" t="str">
+        <v>「2024년 경북PRIDE기업 해외 무역사절단 파견」운영 용역</v>
+      </c>
+      <c r="I19" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="J19">
+        <v>90000000</v>
+      </c>
+      <c r="K19" t="str">
+        <v>강소기업육성팀</v>
+      </c>
+      <c r="L19" t="str">
+        <v>최유진</v>
+      </c>
+      <c r="M19" t="str">
+        <v>054-470-8565</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>2103</v>
+      </c>
+      <c r="B20" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C20" t="str">
+        <v>신규</v>
+      </c>
+      <c r="D20" t="str">
+        <v>전북특별자치도교육청 전북특별자치도남원교육지원청</v>
+      </c>
+      <c r="E20" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="F20" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="G20" t="str">
+        <v>제한경쟁</v>
+      </c>
+      <c r="H20" t="str">
+        <v>2024. 중학생 해외영어캠프 용역 소액수의 견적제출 공고</v>
+      </c>
+      <c r="I20" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="J20">
+        <v>89240000</v>
+      </c>
+      <c r="K20" t="str">
+        <v>교육지원과</v>
+      </c>
+      <c r="L20" t="str">
+        <v>강현정</v>
+      </c>
+      <c r="M20" t="str">
+        <v>063-620-7826</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>2218</v>
+      </c>
+      <c r="B21" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C21" t="str">
+        <v>신규</v>
+      </c>
+      <c r="D21" t="str">
+        <v>국토교통부</v>
+      </c>
+      <c r="E21" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="F21" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="G21" t="str">
+        <v>제한경쟁</v>
+      </c>
+      <c r="H21" t="str">
+        <v>물류기업 해외진출 활성화 방안 마련 연구</v>
+      </c>
+      <c r="I21" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="J21">
+        <v>40000000</v>
+      </c>
+      <c r="K21" t="str">
+        <v>물류정책과</v>
+      </c>
+      <c r="L21" t="str">
+        <v>윤덕웅</v>
+      </c>
+      <c r="M21" t="str">
+        <v>044-201-4005</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>2276</v>
+      </c>
+      <c r="B22" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C22" t="str">
+        <v>신규</v>
+      </c>
+      <c r="D22" t="str">
+        <v>전라남도강진교육청 강진중학교</v>
+      </c>
+      <c r="E22" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="F22" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="G22" t="str">
+        <v>제한경쟁</v>
+      </c>
+      <c r="H22" t="str">
+        <v>2024년 강진중학교 해외역사문화탐방 위탁용역 입찰 공고</v>
+      </c>
+      <c r="I22" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="J22">
+        <v>138773980</v>
+      </c>
+      <c r="K22" t="str">
+        <v>강진중학교 행정실</v>
+      </c>
+      <c r="L22" t="str">
+        <v>황현숙</v>
+      </c>
+      <c r="M22" t="str">
+        <v>061-433-3976</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>2278</v>
+      </c>
+      <c r="B23" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C23" t="str">
+        <v>신규</v>
+      </c>
+      <c r="D23" t="str">
+        <v>울산시설공단</v>
+      </c>
+      <c r="E23" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="F23" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="G23" t="str">
+        <v>제한경쟁</v>
+      </c>
+      <c r="H23" t="str">
+        <v>울산시설공단 2024년 해외선진지 벤치마킹 용역</v>
+      </c>
+      <c r="I23" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="J23">
+        <v>78504300</v>
+      </c>
+      <c r="K23" t="str">
+        <v>총무인사팀</v>
+      </c>
+      <c r="L23" t="str">
+        <v>최다미</v>
+      </c>
+      <c r="M23" t="str">
+        <v>052-290-7334</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>2281</v>
+      </c>
+      <c r="B24" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C24" t="str">
+        <v>신규</v>
+      </c>
+      <c r="D24" t="str">
+        <v>충청남도교육청 금산고등학교</v>
+      </c>
+      <c r="E24" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="F24" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="G24" t="str">
+        <v>제한경쟁</v>
+      </c>
+      <c r="H24" t="str">
+        <v>2024학년도 금산고등학교 2학년 해외현장체험학습 위탁 용역</v>
+      </c>
+      <c r="I24" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="J24">
+        <v>205834000</v>
+      </c>
+      <c r="K24" t="str">
+        <v>금산고등학교</v>
+      </c>
+      <c r="L24" t="str">
+        <v>김은송</v>
+      </c>
+      <c r="M24" t="str">
+        <v>041-450-7204</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>2310</v>
+      </c>
+      <c r="B25" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C25" t="str">
+        <v>신규</v>
+      </c>
+      <c r="D25" t="str">
+        <v>충청북도교육청 제천디지털전자고등학교</v>
+      </c>
+      <c r="E25" t="str">
+        <v>2024년 06월</v>
+      </c>
+      <c r="F25" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="G25" t="str">
+        <v>제한경쟁</v>
+      </c>
+      <c r="H25" t="str">
+        <v>2024학년도 제천디지털전자고등학교 해외체험학습 위탁 용역</v>
+      </c>
+      <c r="I25" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="J25">
+        <v>128180000</v>
+      </c>
+      <c r="K25" t="str">
+        <v>행정실</v>
+      </c>
+      <c r="L25" t="str">
+        <v>전홍주</v>
+      </c>
+      <c r="M25" t="str">
+        <v>070-4333-5126</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>2346</v>
+      </c>
+      <c r="B26" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C26" t="str">
+        <v>신규</v>
+      </c>
+      <c r="D26" t="str">
+        <v>농림축산식품부 한국농수산대학교</v>
+      </c>
+      <c r="E26" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="F26" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="G26" t="str">
+        <v>제한경쟁</v>
+      </c>
+      <c r="H26" t="str">
+        <v>2024학년도 한국농수산대학교 졸업생 해외연수(3개 연수과정) 진행업체 모집 공고</v>
+      </c>
+      <c r="I26" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="J26">
+        <v>350700000</v>
+      </c>
+      <c r="K26" t="str">
+        <v>교학과</v>
+      </c>
+      <c r="L26" t="str">
+        <v>이영순</v>
+      </c>
+      <c r="M26" t="str">
+        <v>063-238-9630</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>2364</v>
+      </c>
+      <c r="B27" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C27" t="str">
+        <v>신규</v>
+      </c>
+      <c r="D27" t="str">
+        <v>전북특별자치도교육청 고창북고등학교</v>
+      </c>
+      <c r="E27" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="F27" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="G27" t="str">
+        <v>제한경쟁</v>
+      </c>
+      <c r="H27" t="str">
+        <v>2024학년도 고창북고등학교 국제교류수업 연계 해외 현장체험학습 위탁 용역</v>
+      </c>
+      <c r="I27" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="J27">
+        <v>56525720</v>
+      </c>
+      <c r="K27" t="str">
+        <v>행정실</v>
+      </c>
+      <c r="L27" t="str">
+        <v>윤근효</v>
+      </c>
+      <c r="M27" t="str">
+        <v>063-562-6297</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>2466</v>
+      </c>
+      <c r="B28" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C28" t="str">
+        <v>신규</v>
+      </c>
+      <c r="D28" t="str">
+        <v>성남시청소년재단</v>
+      </c>
+      <c r="E28" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="F28" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="G28" t="str">
+        <v>제한경쟁</v>
+      </c>
+      <c r="H28" t="str">
+        <v>2024. 청년창업 아이디에이션 4.0 해외활동 코디네이팅 용역</v>
+      </c>
+      <c r="I28" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="J28">
+        <v>64840000</v>
+      </c>
+      <c r="K28" t="str">
+        <v>성남시청소년재단 경영본부</v>
+      </c>
+      <c r="L28" t="str">
+        <v>김정호</v>
+      </c>
+      <c r="M28" t="str">
+        <v>031-729-9036</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>2620</v>
+      </c>
+      <c r="B29" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C29" t="str">
+        <v>신규</v>
+      </c>
+      <c r="D29" t="str">
+        <v>(재)경기도경제과학진흥원</v>
+      </c>
+      <c r="E29" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="F29" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="G29" t="str">
+        <v>제한경쟁</v>
+      </c>
+      <c r="H29" t="str">
+        <v>경기도경제과학진흥원 해외 출장 대행 여행사 모집</v>
+      </c>
+      <c r="I29" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="J29">
+        <v>600000000</v>
+      </c>
+      <c r="K29" t="str">
+        <v>재무회계팀</v>
+      </c>
+      <c r="L29" t="str">
+        <v>이연희</v>
+      </c>
+      <c r="M29" t="str">
+        <v>031-259-6543</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>2677</v>
+      </c>
+      <c r="B30" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C30" t="str">
+        <v>신규</v>
+      </c>
+      <c r="D30" t="str">
+        <v>사단법인 저작권해외진흥협회</v>
+      </c>
+      <c r="E30" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="F30" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="G30" t="str">
+        <v>제한경쟁</v>
+      </c>
+      <c r="H30" t="str">
+        <v>2024년 국내기술활용 해외 침해대응 특화사업</v>
+      </c>
+      <c r="I30" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="J30">
+        <v>50000000</v>
+      </c>
+      <c r="K30" t="str">
+        <v>진흥사업팀</v>
+      </c>
+      <c r="L30" t="str">
+        <v>유채영</v>
+      </c>
+      <c r="M30" t="str">
+        <v>02-2038-7014</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>2710</v>
+      </c>
+      <c r="B31" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C31" t="str">
+        <v>신규</v>
+      </c>
+      <c r="D31" t="str">
+        <v>해양수산과학기술진흥원</v>
+      </c>
+      <c r="E31" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="F31" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="G31" t="str">
+        <v>제한경쟁</v>
+      </c>
+      <c r="H31" t="str">
+        <v>2024년 해양수산 수출기업 컨설팅 및 해외연계·지원 용역</v>
+      </c>
+      <c r="I31" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="J31">
+        <v>50000000</v>
+      </c>
+      <c r="K31" t="str">
+        <v>산업정책실</v>
+      </c>
+      <c r="L31" t="str">
+        <v>박선영</v>
+      </c>
+      <c r="M31" t="str">
+        <v>02-3460-0352</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>2729</v>
+      </c>
+      <c r="B32" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C32" t="str">
+        <v>신규</v>
+      </c>
+      <c r="D32" t="str">
+        <v>중앙대학교 산학협력단</v>
+      </c>
+      <c r="E32" t="str">
+        <v>2024년 06월</v>
+      </c>
+      <c r="F32" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="G32" t="str">
+        <v>일반경쟁</v>
+      </c>
+      <c r="H32" t="str">
+        <v>2024 국방AI 교육대학 군 특화 AI전문교육과정 해외 연수</v>
+      </c>
+      <c r="I32" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="J32">
+        <v>100200000</v>
+      </c>
+      <c r="K32" t="str">
+        <v>중앙대학교 산학협력단</v>
+      </c>
+      <c r="L32" t="str">
+        <v>김세영</v>
+      </c>
+      <c r="M32" t="str">
+        <v>02-820-6860</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>2771</v>
+      </c>
+      <c r="B33" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C33" t="str">
+        <v>신규</v>
+      </c>
+      <c r="D33" t="str">
+        <v>전북대학교 산학협력단</v>
+      </c>
+      <c r="E33" t="str">
+        <v>2024년 06월</v>
+      </c>
+      <c r="F33" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="G33" t="str">
+        <v>제한경쟁</v>
+      </c>
+      <c r="H33" t="str">
+        <v>2024년 이공학영재교육원 해외선진기관 견학</v>
+      </c>
+      <c r="I33" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="J33">
+        <v>207200000</v>
+      </c>
+      <c r="K33" t="str">
+        <v>전북대학교 산학협력단</v>
+      </c>
+      <c r="L33" t="str">
+        <v>한지혜</v>
+      </c>
+      <c r="M33" t="str">
+        <v>063-270-4455</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>2800</v>
+      </c>
+      <c r="B34" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C34" t="str">
+        <v>신규</v>
+      </c>
+      <c r="D34" t="str">
+        <v>한국의약품안전관리원</v>
+      </c>
+      <c r="E34" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="F34" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="G34" t="str">
+        <v>수의계약</v>
+      </c>
+      <c r="H34" t="str">
+        <v>세계 마약퇴치의 날 기념식 해외인사 초청 대행 위탁 용역</v>
+      </c>
+      <c r="I34" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="J34">
+        <v>18000000</v>
+      </c>
+      <c r="K34" t="str">
+        <v>혁신경영팀</v>
+      </c>
+      <c r="L34" t="str">
+        <v>곽민수</v>
+      </c>
+      <c r="M34" t="str">
+        <v>02-2172-6810</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>2919</v>
+      </c>
+      <c r="B35" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C35" t="str">
+        <v>신규</v>
+      </c>
+      <c r="D35" t="str">
+        <v>전북특별자치도교육청 전북특별자치도순창교육지원청 동산초등학교</v>
+      </c>
+      <c r="E35" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="F35" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="G35" t="str">
+        <v>제한경쟁</v>
+      </c>
+      <c r="H35" t="str">
+        <v>2024학년도 동산·복흥초등학교 국제교류수업 연계 해외 현장체험학습 위탁용역</v>
+      </c>
+      <c r="I35" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="J35">
+        <v>90513440</v>
+      </c>
+      <c r="K35" t="str">
+        <v>행정실</v>
+      </c>
+      <c r="L35" t="str">
+        <v>서난영</v>
+      </c>
+      <c r="M35" t="str">
+        <v>063-652-7459</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>1012</v>
+      </c>
+      <c r="B36" t="str">
+        <v>용역</v>
+      </c>
+      <c r="D36" t="str">
+        <v>한국수자원공사</v>
+      </c>
+      <c r="E36" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="F36" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="G36" t="str">
+        <v>일반경쟁</v>
+      </c>
+      <c r="H36" t="str">
+        <v>해외 투자사업 기준수익률 산정방식 개선 용역</v>
+      </c>
+      <c r="I36" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="J36">
+        <v>51139000</v>
+      </c>
+      <c r="K36" t="str">
+        <v>기획조정실</v>
+      </c>
+      <c r="L36" t="str">
+        <v>엄태웅</v>
+      </c>
+      <c r="M36" t="str">
+        <v>042-629-2336</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>1156</v>
+      </c>
+      <c r="B37" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C37" t="str">
+        <v>신규</v>
+      </c>
+      <c r="D37" t="str">
+        <v>전북특별자치도교육청 전북특별자치도전주교육지원청 전주우림중학교</v>
+      </c>
+      <c r="E37" t="str">
+        <v>2024년 06월</v>
+      </c>
+      <c r="F37" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="G37" t="str">
+        <v>제한경쟁</v>
+      </c>
+      <c r="H37" t="str">
+        <v>2024학년도 전주우림중학교 국제교류수업 및 해외현장체험학습 위탁 용역</v>
+      </c>
+      <c r="I37" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="J37">
+        <v>89980000</v>
+      </c>
+      <c r="K37" t="str">
+        <v>행정실</v>
+      </c>
+      <c r="L37" t="str">
+        <v>박유하</v>
+      </c>
+      <c r="M37" t="str">
+        <v>063-220-4904</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>1190</v>
+      </c>
+      <c r="B38" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C38" t="str">
+        <v>신규</v>
+      </c>
+      <c r="D38" t="str">
+        <v>재단법인 서울관광재단</v>
+      </c>
+      <c r="E38" t="str">
+        <v>2024년 06월</v>
+      </c>
+      <c r="F38" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="G38" t="str">
+        <v>제한경쟁</v>
+      </c>
+      <c r="H38" t="str">
+        <v>2024 해외관광박람회 서울 단독 홍보관 설치 및 운영</v>
+      </c>
+      <c r="I38" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="J38">
+        <v>314000000</v>
+      </c>
+      <c r="K38" t="str">
+        <v>글로벌관광산업팀</v>
+      </c>
+      <c r="L38" t="str">
+        <v>김윤영</v>
+      </c>
+      <c r="M38" t="str">
+        <v>02-3788-0890</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>1301</v>
+      </c>
+      <c r="B39" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C39" t="str">
+        <v>신규</v>
+      </c>
+      <c r="D39" t="str">
+        <v>배화여자대학교</v>
+      </c>
+      <c r="E39" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="F39" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="G39" t="str">
+        <v>제한경쟁</v>
+      </c>
+      <c r="H39" t="str">
+        <v>배화여자대학교 해외취업지원프로그램 운영기관 선정</v>
+      </c>
+      <c r="I39" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="J39">
+        <v>48000000</v>
+      </c>
+      <c r="K39" t="str">
+        <v>총무처</v>
+      </c>
+      <c r="L39" t="str">
+        <v>박병서</v>
+      </c>
+      <c r="M39" t="str">
+        <v>02-399-0893</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>1483</v>
+      </c>
+      <c r="B40" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C40" t="str">
+        <v>신규</v>
+      </c>
+      <c r="D40" t="str">
+        <v>국회 국회예산정책처</v>
+      </c>
+      <c r="E40" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="F40" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="G40" t="str">
+        <v>수의계약</v>
+      </c>
+      <c r="H40" t="str">
+        <v>해외 사례 분석을 통한 국내 공공주택공급 정책의 개선방안 연구</v>
+      </c>
+      <c r="I40" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="J40">
+        <v>30000000</v>
+      </c>
+      <c r="K40" t="str">
+        <v>국회예산정책처 총무담당관실</v>
+      </c>
+      <c r="L40" t="str">
+        <v>장아련</v>
+      </c>
+      <c r="M40" t="str">
+        <v>02-6788-4615</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>1516</v>
+      </c>
+      <c r="B41" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C41" t="str">
+        <v>신규</v>
+      </c>
+      <c r="D41" t="str">
+        <v>재단법인안양산업진흥원</v>
+      </c>
+      <c r="E41" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="F41" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="G41" t="str">
+        <v>제한경쟁</v>
+      </c>
+      <c r="H41" t="str">
+        <v>2024년 해외시장개척단 파견 운영 용역</v>
+      </c>
+      <c r="I41" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="J41">
+        <v>140000000</v>
+      </c>
+      <c r="K41" t="str">
+        <v>기업육성부</v>
+      </c>
+      <c r="L41" t="str">
+        <v>안재민</v>
+      </c>
+      <c r="M41" t="str">
+        <v>031-8045-6725</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>1759</v>
+      </c>
+      <c r="B42" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C42" t="str">
+        <v>신규</v>
+      </c>
+      <c r="D42" t="str">
+        <v>대전광역시교육청 대전도시과학고등학교</v>
+      </c>
+      <c r="E42" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="F42" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="G42" t="str">
+        <v>제한경쟁</v>
+      </c>
+      <c r="H42" t="str">
+        <v>대전도시과학고등학교 해외 직무역량향상 캠프 위탁용역 입찰 재공고</v>
+      </c>
+      <c r="I42" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="J42">
+        <v>36399780</v>
+      </c>
+      <c r="K42" t="str">
+        <v>산학협력부</v>
+      </c>
+      <c r="L42" t="str">
+        <v>윤경훈</v>
+      </c>
+      <c r="M42" t="str">
+        <v>042-540-2137</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>1786</v>
+      </c>
+      <c r="B43" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C43" t="str">
+        <v>신규</v>
+      </c>
+      <c r="D43" t="str">
+        <v>광복회</v>
+      </c>
+      <c r="E43" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="F43" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="G43" t="str">
+        <v>제한경쟁</v>
+      </c>
+      <c r="H43" t="str">
+        <v>광복회 해외 독립운동 역사교육 (독일)</v>
+      </c>
+      <c r="I43" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="J43">
+        <v>70000000</v>
+      </c>
+      <c r="K43" t="str">
+        <v>대외협력국</v>
+      </c>
+      <c r="L43" t="str">
+        <v>임소희</v>
+      </c>
+      <c r="M43" t="str">
+        <v>02-780-0816</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>1790</v>
+      </c>
+      <c r="B44" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C44" t="str">
+        <v>신규</v>
+      </c>
+      <c r="D44" t="str">
+        <v>군산간호대학교산학협력단</v>
+      </c>
+      <c r="E44" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="F44" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="G44" t="str">
+        <v>일반경쟁</v>
+      </c>
+      <c r="H44" t="str">
+        <v>2024년 해외 현장학습 및 전공 연수</v>
+      </c>
+      <c r="I44" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="J44">
+        <v>62000000</v>
+      </c>
+      <c r="K44" t="str">
+        <v>기획처</v>
+      </c>
+      <c r="L44" t="str">
+        <v>김영진</v>
+      </c>
+      <c r="M44" t="str">
+        <v>063-450-3922</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>1847</v>
+      </c>
+      <c r="B45" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C45" t="str">
+        <v>신규</v>
+      </c>
+      <c r="D45" t="str">
+        <v>충청남도교육청 금산하이텍고등학교</v>
+      </c>
+      <c r="E45" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="F45" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="G45" t="str">
+        <v>제한경쟁</v>
+      </c>
+      <c r="H45" t="str">
+        <v>2024학년도 금산하이텍고등학교 세계문화유산 해외탐방(수학여행) 위탁용역</v>
+      </c>
+      <c r="I45" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="J45">
+        <v>87718000</v>
+      </c>
+      <c r="K45" t="str">
+        <v>금산하이텍고등학</v>
+      </c>
+      <c r="L45" t="str">
+        <v>이은숙</v>
+      </c>
+      <c r="M45" t="str">
+        <v>041-752-4376</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
         <v>1848</v>
       </c>
-      <c r="B12" t="str">
-        <v>용역</v>
-      </c>
-      <c r="C12" t="str">
+      <c r="B46" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C46" t="str">
+        <v>신규</v>
+      </c>
+      <c r="D46" t="str">
         <v>제주대학교 산학협력단</v>
       </c>
-      <c r="D12" t="str">
-        <v>2024년 05월</v>
-      </c>
-      <c r="E12" t="str">
-        <v>자체조달</v>
-      </c>
-      <c r="F12" t="str">
-        <v>제한경쟁</v>
-      </c>
-      <c r="G12" t="str">
+      <c r="E46" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="F46" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="G46" t="str">
+        <v>제한경쟁</v>
+      </c>
+      <c r="H46" t="str">
         <v>큐브위성 및 위성임무운영 교육 프로그램 해외연수 위탁대행 용역</v>
       </c>
-      <c r="H12" t="str">
-        <v>일반용역</v>
-      </c>
-      <c r="I12">
+      <c r="I46" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="J46">
         <v>99000000</v>
       </c>
-      <c r="J12" t="str">
+      <c r="K46" t="str">
         <v>제주대학교 산학협력단</v>
       </c>
-      <c r="K12" t="str">
+      <c r="L46" t="str">
         <v>현성준</v>
       </c>
-      <c r="L12" t="str">
+      <c r="M46" t="str">
         <v>064-754-2417</v>
       </c>
-      <c r="M12" t="str">
-        <v>신규</v>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>31</v>
+      </c>
+      <c r="B47" t="str">
+        <v>용역</v>
+      </c>
+      <c r="D47" t="str">
+        <v>한국수력원자력주식회사</v>
+      </c>
+      <c r="E47" t="str">
+        <v>2024년 06월</v>
+      </c>
+      <c r="F47" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="G47" t="str">
+        <v>일반경쟁</v>
+      </c>
+      <c r="H47" t="str">
+        <v>해외사업 동력 강화를 위한 해외지사(사무소) 운영 개선 용역</v>
+      </c>
+      <c r="I47" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="J47">
+        <v>350690000</v>
+      </c>
+      <c r="L47" t="str">
+        <v>하은주</v>
+      </c>
+      <c r="M47" t="str">
+        <v>054-704-7612</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>124</v>
+      </c>
+      <c r="B48" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C48" t="str">
+        <v>신규</v>
+      </c>
+      <c r="D48" t="str">
+        <v>서울신용보증재단</v>
+      </c>
+      <c r="E48" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="F48" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="G48" t="str">
+        <v>제한경쟁</v>
+      </c>
+      <c r="H48" t="str">
+        <v>2024년 재단 주관 해외연수 용역</v>
+      </c>
+      <c r="I48" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="J48">
+        <v>138123000</v>
+      </c>
+      <c r="K48" t="str">
+        <v>인사부 인재양성팀</v>
+      </c>
+      <c r="L48" t="str">
+        <v>김준엽</v>
+      </c>
+      <c r="M48" t="str">
+        <v>02-2174-5130</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>148</v>
+      </c>
+      <c r="B49" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C49" t="str">
+        <v>신규</v>
+      </c>
+      <c r="D49" t="str">
+        <v>한국항공우주연구원</v>
+      </c>
+      <c r="E49" t="str">
+        <v>2024년 06월</v>
+      </c>
+      <c r="F49" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="G49" t="str">
+        <v>제한경쟁</v>
+      </c>
+      <c r="H49" t="str">
+        <v>해외 구매물품 국내외 운송 및 수출입 통관 대행 용역</v>
+      </c>
+      <c r="I49" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="J49">
+        <v>7030292</v>
+      </c>
+      <c r="K49" t="str">
+        <v>해외계약실</v>
+      </c>
+      <c r="L49" t="str">
+        <v>서유민</v>
+      </c>
+      <c r="M49" t="str">
+        <v>042-860-2615</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>242</v>
+      </c>
+      <c r="B50" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C50" t="str">
+        <v>신규</v>
+      </c>
+      <c r="D50" t="str">
+        <v>전북특별자치도교육청 전북특별자치도진안교육지원청 장승초등학교</v>
+      </c>
+      <c r="E50" t="str">
+        <v>2024년 06월</v>
+      </c>
+      <c r="F50" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="G50" t="str">
+        <v>제한경쟁</v>
+      </c>
+      <c r="H50" t="str">
+        <v>2024학년도 장승초등학교 국제교류수업 해외현장체험학습 위탁 용역</v>
+      </c>
+      <c r="I50" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="J50">
+        <v>90000000</v>
+      </c>
+      <c r="K50" t="str">
+        <v>행정실</v>
+      </c>
+      <c r="L50" t="str">
+        <v>박정연</v>
+      </c>
+      <c r="M50" t="str">
+        <v>063-433-2048</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>278</v>
+      </c>
+      <c r="B51" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C51" t="str">
+        <v>신규</v>
+      </c>
+      <c r="D51" t="str">
+        <v>충청북도교육청 충주중산고등학교</v>
+      </c>
+      <c r="E51" t="str">
+        <v>2024년 06월</v>
+      </c>
+      <c r="F51" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="G51" t="str">
+        <v>제한경쟁</v>
+      </c>
+      <c r="H51" t="str">
+        <v>2024학년도 충주중산고등학교 글로벌 인재육성 해외연수 위탁용역 입찰 공고</v>
+      </c>
+      <c r="I51" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="J51">
+        <v>305700000</v>
+      </c>
+      <c r="K51" t="str">
+        <v>충주중산고등학교 행정실</v>
+      </c>
+      <c r="L51" t="str">
+        <v>김선희</v>
+      </c>
+      <c r="M51" t="str">
+        <v>043-851-2783</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>297</v>
+      </c>
+      <c r="B52" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C52" t="str">
+        <v>신규</v>
+      </c>
+      <c r="D52" t="str">
+        <v>충청남도교육청 건양대학교병설건양고등학교</v>
+      </c>
+      <c r="E52" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="F52" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="G52" t="str">
+        <v>제한경쟁</v>
+      </c>
+      <c r="H52" t="str">
+        <v>2024학년도 건양고 미래인재 해외체험 2단계(가격규격동시) 입찰공고건</v>
+      </c>
+      <c r="I52" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="J52">
+        <v>161000000</v>
+      </c>
+      <c r="K52" t="str">
+        <v>행정실</v>
+      </c>
+      <c r="L52" t="str">
+        <v>서득수</v>
+      </c>
+      <c r="M52" t="str">
+        <v>041-741-8872</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>305</v>
+      </c>
+      <c r="B53" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C53" t="str">
+        <v>신규</v>
+      </c>
+      <c r="D53" t="str">
+        <v>충청남도교육청 건양대학교병설건양고등학교</v>
+      </c>
+      <c r="E53" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="F53" t="str">
+        <v>중앙조달</v>
+      </c>
+      <c r="G53" t="str">
+        <v>제한경쟁</v>
+      </c>
+      <c r="H53" t="str">
+        <v>2024학년도 건양고 미래인재 해외체험 2단계(가격규격동시) 입찰공고건</v>
+      </c>
+      <c r="I53" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="J53">
+        <v>161000000</v>
+      </c>
+      <c r="K53" t="str">
+        <v>행정실</v>
+      </c>
+      <c r="L53" t="str">
+        <v>서득수</v>
+      </c>
+      <c r="M53" t="str">
+        <v>041-741-8872</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>322</v>
+      </c>
+      <c r="B54" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C54" t="str">
+        <v>신규</v>
+      </c>
+      <c r="D54" t="str">
+        <v>경상남도교육청 경상남도창녕교육지원청</v>
+      </c>
+      <c r="E54" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="F54" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="G54" t="str">
+        <v>제한경쟁</v>
+      </c>
+      <c r="H54" t="str">
+        <v>2024. 창녕영재교육원 해외체험학습 용역</v>
+      </c>
+      <c r="I54" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="J54">
+        <v>91581900</v>
+      </c>
+      <c r="K54" t="str">
+        <v>평생체육담당</v>
+      </c>
+      <c r="L54" t="str">
+        <v>노화성</v>
+      </c>
+      <c r="M54" t="str">
+        <v>055-530-3541</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>355</v>
+      </c>
+      <c r="B55" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C55" t="str">
+        <v>신규</v>
+      </c>
+      <c r="D55" t="str">
+        <v>사단법인 한국사회복지사협회</v>
+      </c>
+      <c r="E55" t="str">
+        <v>2024년 06월</v>
+      </c>
+      <c r="F55" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="G55" t="str">
+        <v>제한경쟁</v>
+      </c>
+      <c r="H55" t="str">
+        <v>2024년 한국사회복지사협회 임원 해외연수</v>
+      </c>
+      <c r="I55" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="J55">
+        <v>62500000</v>
+      </c>
+      <c r="K55" t="str">
+        <v>운영지원본부</v>
+      </c>
+      <c r="L55" t="str">
+        <v>전선화</v>
+      </c>
+      <c r="M55" t="str">
+        <v>02-786-0190</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>439</v>
+      </c>
+      <c r="B56" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C56" t="str">
+        <v>신규</v>
+      </c>
+      <c r="D56" t="str">
+        <v>(재)제주평생교육장학진흥원</v>
+      </c>
+      <c r="E56" t="str">
+        <v>2024년 06월</v>
+      </c>
+      <c r="F56" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="G56" t="str">
+        <v>제한경쟁</v>
+      </c>
+      <c r="H56" t="str">
+        <v>2024년「제주청년해외연수」용역</v>
+      </c>
+      <c r="I56" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="J56">
+        <v>120000000</v>
+      </c>
+      <c r="K56" t="str">
+        <v>경영기획부</v>
+      </c>
+      <c r="L56" t="str">
+        <v>고성준</v>
+      </c>
+      <c r="M56" t="str">
+        <v>064-726-9972</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>650</v>
+      </c>
+      <c r="B57" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C57" t="str">
+        <v>신규</v>
+      </c>
+      <c r="D57" t="str">
+        <v>한국무역협회</v>
+      </c>
+      <c r="E57" t="str">
+        <v>2024년 06월</v>
+      </c>
+      <c r="F57" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="G57" t="str">
+        <v>일반경쟁</v>
+      </c>
+      <c r="H57" t="str">
+        <v>2024 부천 해외바이어 수출상담회</v>
+      </c>
+      <c r="I57" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="J57">
+        <v>80000000</v>
+      </c>
+      <c r="K57" t="str">
+        <v>경기북부지역본부</v>
+      </c>
+      <c r="L57" t="str">
+        <v>손창우</v>
+      </c>
+      <c r="M57" t="str">
+        <v>031-995-6166</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>657</v>
+      </c>
+      <c r="B58" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C58" t="str">
+        <v>신규</v>
+      </c>
+      <c r="D58" t="str">
+        <v>대구광역시교육청 대구외국어고등학교</v>
+      </c>
+      <c r="E58" t="str">
+        <v>2024년 06월</v>
+      </c>
+      <c r="F58" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="G58" t="str">
+        <v>제한경쟁</v>
+      </c>
+      <c r="H58" t="str">
+        <v>2024학년도 해외문화탐구활동(영국,스페인) 항공권 구매 및 기타용역(긴급)</v>
+      </c>
+      <c r="I58" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="J58">
+        <v>113357600</v>
+      </c>
+      <c r="K58" t="str">
+        <v>행정실</v>
+      </c>
+      <c r="L58" t="str">
+        <v>이동규</v>
+      </c>
+      <c r="M58" t="str">
+        <v>053-231-1702</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>747</v>
+      </c>
+      <c r="B59" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C59" t="str">
+        <v>신규</v>
+      </c>
+      <c r="D59" t="str">
+        <v>국회 국회예산정책처</v>
+      </c>
+      <c r="E59" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="F59" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="G59" t="str">
+        <v>수의계약</v>
+      </c>
+      <c r="H59" t="str">
+        <v>해외 사례 분석을 통한 국내 공공주택공급 정책의 개선방안 연구</v>
+      </c>
+      <c r="I59" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="J59">
+        <v>30000000</v>
+      </c>
+      <c r="K59" t="str">
+        <v>국회예산정책처 총무담당관실</v>
+      </c>
+      <c r="L59" t="str">
+        <v>장아련</v>
+      </c>
+      <c r="M59" t="str">
+        <v>02-6788-4615</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>804</v>
+      </c>
+      <c r="B60" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C60" t="str">
+        <v>신규</v>
+      </c>
+      <c r="D60" t="str">
+        <v>한국연구재단</v>
+      </c>
+      <c r="E60" t="str">
+        <v>2024년 06월</v>
+      </c>
+      <c r="F60" t="str">
+        <v>중앙조달</v>
+      </c>
+      <c r="G60" t="str">
+        <v>일반경쟁</v>
+      </c>
+      <c r="H60" t="str">
+        <v>2024년 해외 국가 R&amp;D 투자현황 자료수집·분석 용역</v>
+      </c>
+      <c r="I60" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="J60">
+        <v>276300000</v>
+      </c>
+      <c r="K60" t="str">
+        <v>학술데이터분석팀</v>
+      </c>
+      <c r="L60" t="str">
+        <v>정종근</v>
+      </c>
+      <c r="M60" t="str">
+        <v>042-869-6682</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>974</v>
+      </c>
+      <c r="B61" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C61" t="str">
+        <v>신규</v>
+      </c>
+      <c r="D61" t="str">
+        <v>부산여자대학 산학협력단</v>
+      </c>
+      <c r="E61" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="F61" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="G61" t="str">
+        <v>제한경쟁</v>
+      </c>
+      <c r="H61" t="str">
+        <v>비대면 글로벌 교육모델 운영을 위한 해외교류 프로그램 운영 위탁</v>
+      </c>
+      <c r="I61" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="J61">
+        <v>33000000</v>
+      </c>
+      <c r="K61" t="str">
+        <v>사무처</v>
+      </c>
+      <c r="L61" t="str">
+        <v>유석호</v>
+      </c>
+      <c r="M61" t="str">
+        <v>051-850-3070</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:M12"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:M61"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/filtered-files/filterByPatternDatas.xlsx
+++ b/filtered-files/filterByPatternDatas.xlsx
@@ -406,7 +406,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M61"/>
+  <dimension ref="A1:M154"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -495,7 +495,7 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>3036</v>
+        <v>3006</v>
       </c>
       <c r="B3" t="str">
         <v>용역</v>
@@ -504,7 +504,7 @@
         <v>신규</v>
       </c>
       <c r="D3" t="str">
-        <v>경상남도교육청 경상남도하동교육지원청</v>
+        <v>경기도교육청 경기도수원교육지원청</v>
       </c>
       <c r="E3" t="str">
         <v>2024년 05월</v>
@@ -513,30 +513,30 @@
         <v>자체조달</v>
       </c>
       <c r="G3" t="str">
-        <v>제한경쟁</v>
+        <v>수의계약</v>
       </c>
       <c r="H3" t="str">
-        <v>2024년 하동영재교육원 해외체험학습 위탁 용역 2단계입찰(규격-가격동시입찰)</v>
+        <v>수원정보과학고 외벽치장벽돌 개선공사 설계용역</v>
       </c>
       <c r="I3" t="str">
-        <v>일반용역</v>
+        <v>기술용역</v>
       </c>
       <c r="J3">
-        <v>81900000</v>
+        <v>24282000</v>
       </c>
       <c r="K3" t="str">
-        <v>경상남도하동교육지원청 행정지원과</v>
+        <v>교육시설과</v>
       </c>
       <c r="L3" t="str">
-        <v>문성심</v>
+        <v>임지혜</v>
       </c>
       <c r="M3" t="str">
-        <v>055-880-1972</v>
+        <v>031-250-1443</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>3088</v>
+        <v>3036</v>
       </c>
       <c r="B4" t="str">
         <v>용역</v>
@@ -545,7 +545,7 @@
         <v>신규</v>
       </c>
       <c r="D4" t="str">
-        <v>인천광역시교육청 인천광역시교육청동아시아국제교육원</v>
+        <v>경상남도교육청 경상남도하동교육지원청</v>
       </c>
       <c r="E4" t="str">
         <v>2024년 05월</v>
@@ -557,27 +557,27 @@
         <v>제한경쟁</v>
       </c>
       <c r="H4" t="str">
-        <v>인천세계로배움학교 2024 학생,교원 학기교환제 해외연수 위탁운영</v>
+        <v>2024년 하동영재교육원 해외체험학습 위탁 용역 2단계입찰(규격-가격동시입찰)</v>
       </c>
       <c r="I4" t="str">
         <v>일반용역</v>
       </c>
       <c r="J4">
-        <v>72779000</v>
+        <v>81900000</v>
       </c>
       <c r="K4" t="str">
-        <v>동아시아교육협력과</v>
+        <v>경상남도하동교육지원청 행정지원과</v>
       </c>
       <c r="L4" t="str">
-        <v>이영혜</v>
+        <v>문성심</v>
       </c>
       <c r="M4" t="str">
-        <v>032-745-0208</v>
+        <v>055-880-1972</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>3195</v>
+        <v>3088</v>
       </c>
       <c r="B5" t="str">
         <v>용역</v>
@@ -586,7 +586,7 @@
         <v>신규</v>
       </c>
       <c r="D5" t="str">
-        <v>사단법인 해외자원개발협회</v>
+        <v>인천광역시교육청 인천광역시교육청동아시아국제교육원</v>
       </c>
       <c r="E5" t="str">
         <v>2024년 05월</v>
@@ -595,42 +595,39 @@
         <v>자체조달</v>
       </c>
       <c r="G5" t="str">
-        <v>일반경쟁</v>
+        <v>제한경쟁</v>
       </c>
       <c r="H5" t="str">
-        <v>2024 해외자원개발 심포지엄 대행</v>
+        <v>인천세계로배움학교 2024 학생,교원 학기교환제 해외연수 위탁운영</v>
       </c>
       <c r="I5" t="str">
         <v>일반용역</v>
       </c>
       <c r="J5">
-        <v>90000000</v>
+        <v>72779000</v>
       </c>
       <c r="K5" t="str">
-        <v>회원서비스팀</v>
+        <v>동아시아교육협력과</v>
       </c>
       <c r="L5" t="str">
-        <v>육승규</v>
+        <v>이영혜</v>
       </c>
       <c r="M5" t="str">
-        <v>02-3453-4249</v>
+        <v>032-745-0208</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>3336</v>
+        <v>3104</v>
       </c>
       <c r="B6" t="str">
         <v>용역</v>
       </c>
-      <c r="C6" t="str">
-        <v>신규</v>
-      </c>
       <c r="D6" t="str">
-        <v>충청북도교육청 충청북도청주교육지원청 청주대성초등학교</v>
+        <v>한국수자원공사</v>
       </c>
       <c r="E6" t="str">
-        <v>2024년 05월</v>
+        <v>2024년 06월</v>
       </c>
       <c r="F6" t="str">
         <v>자체조달</v>
@@ -639,27 +636,27 @@
         <v>제한경쟁</v>
       </c>
       <c r="H6" t="str">
-        <v>청주대성초등학교 6학년 수학여행(해외문화탐방) 용역 입찰 공고(긴급) [2단계(규격가격동시)]</v>
+        <v>유체성능시험센터 성능인증시스템 정보통신 감리용역</v>
       </c>
       <c r="I6" t="str">
-        <v>일반용역</v>
+        <v>기술용역</v>
       </c>
       <c r="J6">
-        <v>204700000</v>
+        <v>84524000</v>
       </c>
       <c r="K6" t="str">
-        <v>행정실</v>
+        <v>물종합진단처</v>
       </c>
       <c r="L6" t="str">
-        <v>윤수정</v>
+        <v>조아란</v>
       </c>
       <c r="M6" t="str">
-        <v>043-215-5261</v>
+        <v>042-629-3683</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>3343</v>
+        <v>3144</v>
       </c>
       <c r="B7" t="str">
         <v>용역</v>
@@ -668,7 +665,7 @@
         <v>신규</v>
       </c>
       <c r="D7" t="str">
-        <v>분당서울대학교병원</v>
+        <v>환경부</v>
       </c>
       <c r="E7" t="str">
         <v>2024년 05월</v>
@@ -680,27 +677,27 @@
         <v>제한경쟁</v>
       </c>
       <c r="H7" t="str">
-        <v>2024년도 글로벌 선진경영 벤치마킹 해외연수 위탁</v>
+        <v>2024년 물산업 실태조사 및 정보화시스템 운영</v>
       </c>
       <c r="I7" t="str">
         <v>일반용역</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>400000000</v>
       </c>
       <c r="K7" t="str">
-        <v>구매계약팀</v>
+        <v>물산업협력과</v>
       </c>
       <c r="L7" t="str">
-        <v>남수정</v>
+        <v>허승혜</v>
       </c>
       <c r="M7" t="str">
-        <v>031-787-1392</v>
+        <v>044-201-7637</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>3382</v>
+        <v>3170</v>
       </c>
       <c r="B8" t="str">
         <v>용역</v>
@@ -709,7 +706,7 @@
         <v>신규</v>
       </c>
       <c r="D8" t="str">
-        <v>충청북도교육청 단양고등학교</v>
+        <v>환경부 화학물질안전원</v>
       </c>
       <c r="E8" t="str">
         <v>2024년 05월</v>
@@ -721,27 +718,27 @@
         <v>제한경쟁</v>
       </c>
       <c r="H8" t="str">
-        <v>단양고 2024학년도 2학년 해외 선진문화 체험학습[일본] 위탁용역</v>
+        <v>2024 화학사고대응정보시스템(CARIS) 개선</v>
       </c>
       <c r="I8" t="str">
         <v>일반용역</v>
       </c>
       <c r="J8">
-        <v>201894000</v>
+        <v>50000000</v>
       </c>
       <c r="K8" t="str">
-        <v>단양고등학교 행정실</v>
+        <v>사고대응총괄과</v>
       </c>
       <c r="L8" t="str">
-        <v>조대형</v>
+        <v>정성경</v>
       </c>
       <c r="M8" t="str">
-        <v>043-422-3521</v>
+        <v>043-830-4132</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>3404</v>
+        <v>3176</v>
       </c>
       <c r="B9" t="str">
         <v>용역</v>
@@ -750,7 +747,7 @@
         <v>신규</v>
       </c>
       <c r="D9" t="str">
-        <v>서울특별시교육청 한성과학고등학교</v>
+        <v>한국산업안전보건공단</v>
       </c>
       <c r="E9" t="str">
         <v>2024년 05월</v>
@@ -762,27 +759,27 @@
         <v>제한경쟁</v>
       </c>
       <c r="H9" t="str">
-        <v>2024학년도 한성과학고등학교 해외이공계체험학습 위탁용역</v>
+        <v>24년 산재예방 종합포털 등 5종 개인정보 영향평가 용역</v>
       </c>
       <c r="I9" t="str">
         <v>일반용역</v>
       </c>
       <c r="J9">
-        <v>803622000</v>
+        <v>220000000</v>
       </c>
       <c r="K9" t="str">
-        <v>행정실</v>
+        <v>종합포털구축팀</v>
       </c>
       <c r="L9" t="str">
-        <v>최윤미</v>
+        <v>노성현</v>
       </c>
       <c r="M9" t="str">
-        <v>02-6917-0086</v>
+        <v>052-703-0284</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>3409</v>
+        <v>3195</v>
       </c>
       <c r="B10" t="str">
         <v>용역</v>
@@ -791,7 +788,7 @@
         <v>신규</v>
       </c>
       <c r="D10" t="str">
-        <v>국제방송교류재단</v>
+        <v>사단법인 해외자원개발협회</v>
       </c>
       <c r="E10" t="str">
         <v>2024년 05월</v>
@@ -803,27 +800,27 @@
         <v>일반경쟁</v>
       </c>
       <c r="H10" t="str">
-        <v>2024년 하반기 온라인 정부 광고 협력업체 선정(해외)</v>
+        <v>2024 해외자원개발 심포지엄 대행</v>
       </c>
       <c r="I10" t="str">
         <v>일반용역</v>
       </c>
       <c r="J10">
-        <v>3000000000</v>
+        <v>90000000</v>
       </c>
       <c r="K10" t="str">
-        <v>인재경영센터</v>
+        <v>회원서비스팀</v>
       </c>
       <c r="L10" t="str">
-        <v>박경민</v>
+        <v>육승규</v>
       </c>
       <c r="M10" t="str">
-        <v>02-3475-5052</v>
+        <v>02-3453-4249</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>3437</v>
+        <v>3213</v>
       </c>
       <c r="B11" t="str">
         <v>용역</v>
@@ -832,10 +829,10 @@
         <v>신규</v>
       </c>
       <c r="D11" t="str">
-        <v>전라남도나주교육청 노안중학교</v>
+        <v>(재)공간정보품질관리원</v>
       </c>
       <c r="E11" t="str">
-        <v>2024년 06월</v>
+        <v>2024년 05월</v>
       </c>
       <c r="F11" t="str">
         <v>자체조달</v>
@@ -844,36 +841,39 @@
         <v>제한경쟁</v>
       </c>
       <c r="H11" t="str">
-        <v>노안중학교 2024. 글로벌 미래교육 해외프로젝트 위탁 용역</v>
+        <v>고정밀 공간정보 기술 개발과 품질 향상 방안 연구</v>
       </c>
       <c r="I11" t="str">
         <v>일반용역</v>
       </c>
       <c r="J11">
-        <v>87639840</v>
+        <v>110000000</v>
       </c>
       <c r="K11" t="str">
-        <v>행정실</v>
+        <v>경영전략실</v>
       </c>
       <c r="L11" t="str">
-        <v>박미경</v>
+        <v>최영은</v>
       </c>
       <c r="M11" t="str">
-        <v>061-335-2851</v>
+        <v>02-6418-9115</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>3654</v>
+        <v>3253</v>
       </c>
       <c r="B12" t="str">
         <v>용역</v>
       </c>
+      <c r="C12" t="str">
+        <v>신규</v>
+      </c>
       <c r="D12" t="str">
-        <v>한국수자원공사</v>
+        <v>한국환경공단</v>
       </c>
       <c r="E12" t="str">
-        <v>2024년 06월</v>
+        <v>2024년 05월</v>
       </c>
       <c r="F12" t="str">
         <v>자체조달</v>
@@ -882,27 +882,27 @@
         <v>제한경쟁</v>
       </c>
       <c r="H12" t="str">
-        <v>합천댐주변지역 청소년 해외탐방 위탁 용역</v>
+        <v>유역하수도 통합정보플랫폼 브랜드 네이밍 및 BI개발</v>
       </c>
       <c r="I12" t="str">
         <v>일반용역</v>
       </c>
       <c r="J12">
-        <v>150000000</v>
+        <v>50000000</v>
       </c>
       <c r="K12" t="str">
-        <v>합천댐지사</v>
+        <v>총괄분과</v>
       </c>
       <c r="L12" t="str">
-        <v>지성훈</v>
+        <v>신승민 과장</v>
       </c>
       <c r="M12" t="str">
-        <v>055-930-5205</v>
+        <v>032-590-3713</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>3673</v>
+        <v>3315</v>
       </c>
       <c r="B13" t="str">
         <v>용역</v>
@@ -911,39 +911,39 @@
         <v>신규</v>
       </c>
       <c r="D13" t="str">
-        <v>조선대학교</v>
+        <v>한국보건복지인재원</v>
       </c>
       <c r="E13" t="str">
         <v>2024년 05월</v>
       </c>
       <c r="F13" t="str">
-        <v>자체조달</v>
+        <v>중앙조달</v>
       </c>
       <c r="G13" t="str">
         <v>제한경쟁</v>
       </c>
       <c r="H13" t="str">
-        <v>해외 수산업 선진지역 및 우수기업 탐방 위탁 용역</v>
+        <v>아동복지분야 이러닝콘텐츠 개발 및 수정보완</v>
       </c>
       <c r="I13" t="str">
         <v>일반용역</v>
       </c>
       <c r="J13">
-        <v>44000000</v>
+        <v>120000000</v>
       </c>
       <c r="K13" t="str">
-        <v>산학협력단 해양생물연구교육센터</v>
+        <v>운영지원부</v>
       </c>
       <c r="L13" t="str">
-        <v>진희정</v>
+        <v>권혜령</v>
       </c>
       <c r="M13" t="str">
-        <v>062-608-5922</v>
+        <v>043-710-9129</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>3747</v>
+        <v>3336</v>
       </c>
       <c r="B14" t="str">
         <v>용역</v>
@@ -952,7 +952,7 @@
         <v>신규</v>
       </c>
       <c r="D14" t="str">
-        <v>재단법인충청남도일자리경제진흥원</v>
+        <v>충청북도교육청 충청북도청주교육지원청 청주대성초등학교</v>
       </c>
       <c r="E14" t="str">
         <v>2024년 05월</v>
@@ -961,30 +961,30 @@
         <v>자체조달</v>
       </c>
       <c r="G14" t="str">
-        <v>일반경쟁</v>
+        <v>제한경쟁</v>
       </c>
       <c r="H14" t="str">
-        <v>2024년 충남 해외시장개척단(동유럽) 운영 용역</v>
+        <v>청주대성초등학교 6학년 수학여행(해외문화탐방) 용역 입찰 공고(긴급) [2단계(규격가격동시)]</v>
       </c>
       <c r="I14" t="str">
         <v>일반용역</v>
       </c>
       <c r="J14">
-        <v>250000000</v>
+        <v>204700000</v>
       </c>
       <c r="K14" t="str">
-        <v>마케팅지원팀</v>
+        <v>행정실</v>
       </c>
       <c r="L14" t="str">
-        <v>정연하</v>
+        <v>윤수정</v>
       </c>
       <c r="M14" t="str">
-        <v>041-404-1352</v>
+        <v>043-215-5261</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>3823</v>
+        <v>3338</v>
       </c>
       <c r="B15" t="str">
         <v>용역</v>
@@ -993,7 +993,7 @@
         <v>신규</v>
       </c>
       <c r="D15" t="str">
-        <v>울산대학교</v>
+        <v>아동권리보장원</v>
       </c>
       <c r="E15" t="str">
         <v>2024년 05월</v>
@@ -1002,30 +1002,30 @@
         <v>자체조달</v>
       </c>
       <c r="G15" t="str">
-        <v>일반경쟁</v>
+        <v>제한경쟁</v>
       </c>
       <c r="H15" t="str">
-        <v>2024년 이차전지 융합전공 재학생 하계 해외 현장학습</v>
+        <v>경영정보시스템 구축을 위한 BPR/ISP</v>
       </c>
       <c r="I15" t="str">
         <v>일반용역</v>
       </c>
       <c r="J15">
-        <v>90000000</v>
+        <v>130000000</v>
       </c>
       <c r="K15" t="str">
-        <v>이차전지인력양성센터</v>
+        <v>경영지원부</v>
       </c>
       <c r="L15" t="str">
-        <v>이동운</v>
+        <v>방그리</v>
       </c>
       <c r="M15" t="str">
-        <v>052-712-8475</v>
+        <v>02-6454-8533</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>3873</v>
+        <v>3343</v>
       </c>
       <c r="B16" t="str">
         <v>용역</v>
@@ -1034,7 +1034,7 @@
         <v>신규</v>
       </c>
       <c r="D16" t="str">
-        <v>대전과학기술대학교 산학협력단</v>
+        <v>분당서울대학교병원</v>
       </c>
       <c r="E16" t="str">
         <v>2024년 05월</v>
@@ -1046,77 +1046,71 @@
         <v>제한경쟁</v>
       </c>
       <c r="H16" t="str">
-        <v>(국고-전문대학혁신지원사업)2024년 해외 단기 인턴십(어학연수 및 현장실습)프로그램 외부 위탁업체 선정 입찰</v>
+        <v>2024년도 글로벌 선진경영 벤치마킹 해외연수 위탁</v>
       </c>
       <c r="I16" t="str">
         <v>일반용역</v>
       </c>
       <c r="J16">
-        <v>105000000</v>
+        <v>0</v>
       </c>
       <c r="K16" t="str">
-        <v>총무팀</v>
+        <v>구매계약팀</v>
       </c>
       <c r="L16" t="str">
-        <v>김민정</v>
+        <v>남수정</v>
       </c>
       <c r="M16" t="str">
-        <v>042-580-6153</v>
+        <v>031-787-1392</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>3895</v>
+        <v>3371</v>
       </c>
       <c r="B17" t="str">
         <v>용역</v>
       </c>
-      <c r="C17" t="str">
-        <v>신규</v>
-      </c>
       <c r="D17" t="str">
-        <v>축산물품질평가원</v>
+        <v>한국도로공사</v>
       </c>
       <c r="E17" t="str">
-        <v>2024년 05월</v>
+        <v>2024년 06월</v>
       </c>
       <c r="F17" t="str">
         <v>자체조달</v>
       </c>
       <c r="G17" t="str">
-        <v>일반경쟁</v>
+        <v>수의계약</v>
       </c>
       <c r="H17" t="str">
-        <v>해외 축산유통정보조사 용역</v>
+        <v>이천지사 관내 스마트 가로등 위치정보 DB구축 용역</v>
       </c>
       <c r="I17" t="str">
         <v>일반용역</v>
       </c>
       <c r="J17">
-        <v>49000000</v>
+        <v>32000000</v>
       </c>
       <c r="K17" t="str">
-        <v>유통정보처</v>
+        <v>이천지사 도로안전팀</v>
       </c>
       <c r="L17" t="str">
-        <v>김지영</v>
+        <v>김대환</v>
       </c>
       <c r="M17" t="str">
-        <v>044-410-7085</v>
+        <v>033-811-6853</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>3940</v>
+        <v>3375</v>
       </c>
       <c r="B18" t="str">
         <v>용역</v>
       </c>
-      <c r="C18" t="str">
-        <v>신규</v>
-      </c>
       <c r="D18" t="str">
-        <v>강원특별자치도교육청 강원특별자치도정선교육지원청 함백중학교</v>
+        <v>한국국토정보공사</v>
       </c>
       <c r="E18" t="str">
         <v>2024년 05월</v>
@@ -1128,27 +1122,15 @@
         <v>제한경쟁</v>
       </c>
       <c r="H18" t="str">
-        <v>2024학년도 정선 함백중학교 3학년 해외문화체험학습 위탁용역</v>
+        <v>주소기반 주차정보 구축 및 주차내비게이션 서비스 모델 실증</v>
       </c>
       <c r="I18" t="str">
-        <v>일반용역</v>
-      </c>
-      <c r="J18">
-        <v>78406000</v>
-      </c>
-      <c r="K18" t="str">
-        <v>교육행정실</v>
-      </c>
-      <c r="L18" t="str">
-        <v>허병석</v>
-      </c>
-      <c r="M18" t="str">
-        <v>033-370-0101</v>
+        <v>기술용역</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>2039</v>
+        <v>3382</v>
       </c>
       <c r="B19" t="str">
         <v>용역</v>
@@ -1157,7 +1139,7 @@
         <v>신규</v>
       </c>
       <c r="D19" t="str">
-        <v>재단법인 경상북도경제진흥원</v>
+        <v>충청북도교육청 단양고등학교</v>
       </c>
       <c r="E19" t="str">
         <v>2024년 05월</v>
@@ -1166,30 +1148,30 @@
         <v>자체조달</v>
       </c>
       <c r="G19" t="str">
-        <v>일반경쟁</v>
+        <v>제한경쟁</v>
       </c>
       <c r="H19" t="str">
-        <v>「2024년 경북PRIDE기업 해외 무역사절단 파견」운영 용역</v>
+        <v>단양고 2024학년도 2학년 해외 선진문화 체험학습[일본] 위탁용역</v>
       </c>
       <c r="I19" t="str">
         <v>일반용역</v>
       </c>
       <c r="J19">
-        <v>90000000</v>
+        <v>201894000</v>
       </c>
       <c r="K19" t="str">
-        <v>강소기업육성팀</v>
+        <v>단양고등학교 행정실</v>
       </c>
       <c r="L19" t="str">
-        <v>최유진</v>
+        <v>조대형</v>
       </c>
       <c r="M19" t="str">
-        <v>054-470-8565</v>
+        <v>043-422-3521</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>2103</v>
+        <v>3404</v>
       </c>
       <c r="B20" t="str">
         <v>용역</v>
@@ -1198,7 +1180,7 @@
         <v>신규</v>
       </c>
       <c r="D20" t="str">
-        <v>전북특별자치도교육청 전북특별자치도남원교육지원청</v>
+        <v>서울특별시교육청 한성과학고등학교</v>
       </c>
       <c r="E20" t="str">
         <v>2024년 05월</v>
@@ -1210,27 +1192,27 @@
         <v>제한경쟁</v>
       </c>
       <c r="H20" t="str">
-        <v>2024. 중학생 해외영어캠프 용역 소액수의 견적제출 공고</v>
+        <v>2024학년도 한성과학고등학교 해외이공계체험학습 위탁용역</v>
       </c>
       <c r="I20" t="str">
         <v>일반용역</v>
       </c>
       <c r="J20">
-        <v>89240000</v>
+        <v>803622000</v>
       </c>
       <c r="K20" t="str">
-        <v>교육지원과</v>
+        <v>행정실</v>
       </c>
       <c r="L20" t="str">
-        <v>강현정</v>
+        <v>최윤미</v>
       </c>
       <c r="M20" t="str">
-        <v>063-620-7826</v>
+        <v>02-6917-0086</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>2218</v>
+        <v>3407</v>
       </c>
       <c r="B21" t="str">
         <v>용역</v>
@@ -1239,7 +1221,7 @@
         <v>신규</v>
       </c>
       <c r="D21" t="str">
-        <v>국토교통부</v>
+        <v>전북특별자치도 익산시</v>
       </c>
       <c r="E21" t="str">
         <v>2024년 05월</v>
@@ -1251,27 +1233,27 @@
         <v>제한경쟁</v>
       </c>
       <c r="H21" t="str">
-        <v>물류기업 해외진출 활성화 방안 마련 연구</v>
+        <v>익산시 전산실 정보시스쳄 이전 용역</v>
       </c>
       <c r="I21" t="str">
-        <v>일반용역</v>
+        <v>기술용역</v>
       </c>
       <c r="J21">
-        <v>40000000</v>
+        <v>633696000</v>
       </c>
       <c r="K21" t="str">
-        <v>물류정책과</v>
+        <v>스마트정보과</v>
       </c>
       <c r="L21" t="str">
-        <v>윤덕웅</v>
+        <v>원태성</v>
       </c>
       <c r="M21" t="str">
-        <v>044-201-4005</v>
+        <v>063-859-5829</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>2276</v>
+        <v>3409</v>
       </c>
       <c r="B22" t="str">
         <v>용역</v>
@@ -1280,7 +1262,7 @@
         <v>신규</v>
       </c>
       <c r="D22" t="str">
-        <v>전라남도강진교육청 강진중학교</v>
+        <v>국제방송교류재단</v>
       </c>
       <c r="E22" t="str">
         <v>2024년 05월</v>
@@ -1289,30 +1271,30 @@
         <v>자체조달</v>
       </c>
       <c r="G22" t="str">
-        <v>제한경쟁</v>
+        <v>일반경쟁</v>
       </c>
       <c r="H22" t="str">
-        <v>2024년 강진중학교 해외역사문화탐방 위탁용역 입찰 공고</v>
+        <v>2024년 하반기 온라인 정부 광고 협력업체 선정(해외)</v>
       </c>
       <c r="I22" t="str">
         <v>일반용역</v>
       </c>
       <c r="J22">
-        <v>138773980</v>
+        <v>3000000000</v>
       </c>
       <c r="K22" t="str">
-        <v>강진중학교 행정실</v>
+        <v>인재경영센터</v>
       </c>
       <c r="L22" t="str">
-        <v>황현숙</v>
+        <v>박경민</v>
       </c>
       <c r="M22" t="str">
-        <v>061-433-3976</v>
+        <v>02-3475-5052</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>2278</v>
+        <v>3411</v>
       </c>
       <c r="B23" t="str">
         <v>용역</v>
@@ -1321,7 +1303,7 @@
         <v>신규</v>
       </c>
       <c r="D23" t="str">
-        <v>울산시설공단</v>
+        <v>(재)제주테크노파크</v>
       </c>
       <c r="E23" t="str">
         <v>2024년 05월</v>
@@ -1333,27 +1315,27 @@
         <v>제한경쟁</v>
       </c>
       <c r="H23" t="str">
-        <v>울산시설공단 2024년 해외선진지 벤치마킹 용역</v>
+        <v>2024년 제주산업정보서비스(JEIS) 시스템 환경 개선 및 유지보수 용역</v>
       </c>
       <c r="I23" t="str">
         <v>일반용역</v>
       </c>
       <c r="J23">
-        <v>78504300</v>
+        <v>94779000</v>
       </c>
       <c r="K23" t="str">
-        <v>총무인사팀</v>
+        <v>기업지원단</v>
       </c>
       <c r="L23" t="str">
-        <v>최다미</v>
+        <v>김경태 연구원</v>
       </c>
       <c r="M23" t="str">
-        <v>052-290-7334</v>
+        <v>064-720-3077</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>2281</v>
+        <v>3437</v>
       </c>
       <c r="B24" t="str">
         <v>용역</v>
@@ -1362,10 +1344,10 @@
         <v>신규</v>
       </c>
       <c r="D24" t="str">
-        <v>충청남도교육청 금산고등학교</v>
+        <v>전라남도나주교육청 노안중학교</v>
       </c>
       <c r="E24" t="str">
-        <v>2024년 05월</v>
+        <v>2024년 06월</v>
       </c>
       <c r="F24" t="str">
         <v>자체조달</v>
@@ -1374,27 +1356,27 @@
         <v>제한경쟁</v>
       </c>
       <c r="H24" t="str">
-        <v>2024학년도 금산고등학교 2학년 해외현장체험학습 위탁 용역</v>
+        <v>노안중학교 2024. 글로벌 미래교육 해외프로젝트 위탁 용역</v>
       </c>
       <c r="I24" t="str">
         <v>일반용역</v>
       </c>
       <c r="J24">
-        <v>205834000</v>
+        <v>87639840</v>
       </c>
       <c r="K24" t="str">
-        <v>금산고등학교</v>
+        <v>행정실</v>
       </c>
       <c r="L24" t="str">
-        <v>김은송</v>
+        <v>박미경</v>
       </c>
       <c r="M24" t="str">
-        <v>041-450-7204</v>
+        <v>061-335-2851</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>2310</v>
+        <v>3543</v>
       </c>
       <c r="B25" t="str">
         <v>용역</v>
@@ -1403,7 +1385,7 @@
         <v>신규</v>
       </c>
       <c r="D25" t="str">
-        <v>충청북도교육청 제천디지털전자고등학교</v>
+        <v>영남대학교의료원</v>
       </c>
       <c r="E25" t="str">
         <v>2024년 06월</v>
@@ -1415,27 +1397,27 @@
         <v>제한경쟁</v>
       </c>
       <c r="H25" t="str">
-        <v>2024학년도 제천디지털전자고등학교 해외체험학습 위탁 용역</v>
+        <v>영남대학교의료원 주요정보통신기반시설 보호대책 수립 및 정보보호 관리체 계(ISMS) 심사를 위한 컨설팅 용역업체 선정 입찰</v>
       </c>
       <c r="I25" t="str">
-        <v>일반용역</v>
+        <v>기술용역</v>
       </c>
       <c r="J25">
-        <v>128180000</v>
+        <v>99000000</v>
       </c>
       <c r="K25" t="str">
-        <v>행정실</v>
+        <v>구매팀</v>
       </c>
       <c r="L25" t="str">
-        <v>전홍주</v>
+        <v>구매팀</v>
       </c>
       <c r="M25" t="str">
-        <v>070-4333-5126</v>
+        <v>053-620-4481</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>2346</v>
+        <v>3587</v>
       </c>
       <c r="B26" t="str">
         <v>용역</v>
@@ -1444,7 +1426,7 @@
         <v>신규</v>
       </c>
       <c r="D26" t="str">
-        <v>농림축산식품부 한국농수산대학교</v>
+        <v>질병관리청</v>
       </c>
       <c r="E26" t="str">
         <v>2024년 05월</v>
@@ -1456,39 +1438,36 @@
         <v>제한경쟁</v>
       </c>
       <c r="H26" t="str">
-        <v>2024학년도 한국농수산대학교 졸업생 해외연수(3개 연수과정) 진행업체 모집 공고</v>
+        <v>[연구,171] 신규 변이 규명을 위한 생물정보분석법 구축 및 시각화 개발</v>
       </c>
       <c r="I26" t="str">
         <v>일반용역</v>
       </c>
       <c r="J26">
-        <v>350700000</v>
+        <v>95000000</v>
       </c>
       <c r="K26" t="str">
-        <v>교학과</v>
+        <v>신종병원체분석과</v>
       </c>
       <c r="L26" t="str">
-        <v>이영순</v>
+        <v>노진선</v>
       </c>
       <c r="M26" t="str">
-        <v>063-238-9630</v>
+        <v>043-719-8172</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>2364</v>
+        <v>3654</v>
       </c>
       <c r="B27" t="str">
         <v>용역</v>
       </c>
-      <c r="C27" t="str">
-        <v>신규</v>
-      </c>
       <c r="D27" t="str">
-        <v>전북특별자치도교육청 고창북고등학교</v>
+        <v>한국수자원공사</v>
       </c>
       <c r="E27" t="str">
-        <v>2024년 05월</v>
+        <v>2024년 06월</v>
       </c>
       <c r="F27" t="str">
         <v>자체조달</v>
@@ -1497,27 +1476,27 @@
         <v>제한경쟁</v>
       </c>
       <c r="H27" t="str">
-        <v>2024학년도 고창북고등학교 국제교류수업 연계 해외 현장체험학습 위탁 용역</v>
+        <v>합천댐주변지역 청소년 해외탐방 위탁 용역</v>
       </c>
       <c r="I27" t="str">
         <v>일반용역</v>
       </c>
       <c r="J27">
-        <v>56525720</v>
+        <v>150000000</v>
       </c>
       <c r="K27" t="str">
-        <v>행정실</v>
+        <v>합천댐지사</v>
       </c>
       <c r="L27" t="str">
-        <v>윤근효</v>
+        <v>지성훈</v>
       </c>
       <c r="M27" t="str">
-        <v>063-562-6297</v>
+        <v>055-930-5205</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>2466</v>
+        <v>3673</v>
       </c>
       <c r="B28" t="str">
         <v>용역</v>
@@ -1526,7 +1505,7 @@
         <v>신규</v>
       </c>
       <c r="D28" t="str">
-        <v>성남시청소년재단</v>
+        <v>조선대학교</v>
       </c>
       <c r="E28" t="str">
         <v>2024년 05월</v>
@@ -1538,36 +1517,36 @@
         <v>제한경쟁</v>
       </c>
       <c r="H28" t="str">
-        <v>2024. 청년창업 아이디에이션 4.0 해외활동 코디네이팅 용역</v>
+        <v>해외 수산업 선진지역 및 우수기업 탐방 위탁 용역</v>
       </c>
       <c r="I28" t="str">
         <v>일반용역</v>
       </c>
       <c r="J28">
-        <v>64840000</v>
+        <v>44000000</v>
       </c>
       <c r="K28" t="str">
-        <v>성남시청소년재단 경영본부</v>
+        <v>산학협력단 해양생물연구교육센터</v>
       </c>
       <c r="L28" t="str">
-        <v>김정호</v>
+        <v>진희정</v>
       </c>
       <c r="M28" t="str">
-        <v>031-729-9036</v>
+        <v>062-608-5922</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>2620</v>
+        <v>3708</v>
       </c>
       <c r="B29" t="str">
         <v>용역</v>
       </c>
       <c r="C29" t="str">
-        <v>신규</v>
+        <v>장기</v>
       </c>
       <c r="D29" t="str">
-        <v>(재)경기도경제과학진흥원</v>
+        <v>한국에너지기술평가원</v>
       </c>
       <c r="E29" t="str">
         <v>2024년 05월</v>
@@ -1579,27 +1558,27 @@
         <v>제한경쟁</v>
       </c>
       <c r="H29" t="str">
-        <v>경기도경제과학진흥원 해외 출장 대행 여행사 모집</v>
+        <v>정보시스템 위탁운영 및 유지보수</v>
       </c>
       <c r="I29" t="str">
         <v>일반용역</v>
       </c>
       <c r="J29">
-        <v>600000000</v>
+        <v>734000000</v>
       </c>
       <c r="K29" t="str">
-        <v>재무회계팀</v>
+        <v>디지털전략실</v>
       </c>
       <c r="L29" t="str">
-        <v>이연희</v>
+        <v>여성율 선임연구원</v>
       </c>
       <c r="M29" t="str">
-        <v>031-259-6543</v>
+        <v>02-3469-8464</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>2677</v>
+        <v>3747</v>
       </c>
       <c r="B30" t="str">
         <v>용역</v>
@@ -1608,7 +1587,7 @@
         <v>신규</v>
       </c>
       <c r="D30" t="str">
-        <v>사단법인 저작권해외진흥협회</v>
+        <v>재단법인충청남도일자리경제진흥원</v>
       </c>
       <c r="E30" t="str">
         <v>2024년 05월</v>
@@ -1617,30 +1596,30 @@
         <v>자체조달</v>
       </c>
       <c r="G30" t="str">
-        <v>제한경쟁</v>
+        <v>일반경쟁</v>
       </c>
       <c r="H30" t="str">
-        <v>2024년 국내기술활용 해외 침해대응 특화사업</v>
+        <v>2024년 충남 해외시장개척단(동유럽) 운영 용역</v>
       </c>
       <c r="I30" t="str">
         <v>일반용역</v>
       </c>
       <c r="J30">
-        <v>50000000</v>
+        <v>250000000</v>
       </c>
       <c r="K30" t="str">
-        <v>진흥사업팀</v>
+        <v>마케팅지원팀</v>
       </c>
       <c r="L30" t="str">
-        <v>유채영</v>
+        <v>정연하</v>
       </c>
       <c r="M30" t="str">
-        <v>02-2038-7014</v>
+        <v>041-404-1352</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>2710</v>
+        <v>3809</v>
       </c>
       <c r="B31" t="str">
         <v>용역</v>
@@ -1649,7 +1628,7 @@
         <v>신규</v>
       </c>
       <c r="D31" t="str">
-        <v>해양수산과학기술진흥원</v>
+        <v>사단법인 한국포도협회</v>
       </c>
       <c r="E31" t="str">
         <v>2024년 05월</v>
@@ -1658,30 +1637,30 @@
         <v>자체조달</v>
       </c>
       <c r="G31" t="str">
-        <v>제한경쟁</v>
+        <v>일반경쟁</v>
       </c>
       <c r="H31" t="str">
-        <v>2024년 해양수산 수출기업 컨설팅 및 해외연계·지원 용역</v>
+        <v>포도의무자조금 회원정보 관리 및 상담센터 운영 대행업체 선정</v>
       </c>
       <c r="I31" t="str">
         <v>일반용역</v>
       </c>
       <c r="J31">
-        <v>50000000</v>
+        <v>60000000</v>
       </c>
       <c r="K31" t="str">
-        <v>산업정책실</v>
+        <v>사업부</v>
       </c>
       <c r="L31" t="str">
-        <v>박선영</v>
+        <v>하미정</v>
       </c>
       <c r="M31" t="str">
-        <v>02-3460-0352</v>
+        <v>02-752-8853</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>2729</v>
+        <v>3823</v>
       </c>
       <c r="B32" t="str">
         <v>용역</v>
@@ -1690,10 +1669,10 @@
         <v>신규</v>
       </c>
       <c r="D32" t="str">
-        <v>중앙대학교 산학협력단</v>
+        <v>울산대학교</v>
       </c>
       <c r="E32" t="str">
-        <v>2024년 06월</v>
+        <v>2024년 05월</v>
       </c>
       <c r="F32" t="str">
         <v>자체조달</v>
@@ -1702,27 +1681,27 @@
         <v>일반경쟁</v>
       </c>
       <c r="H32" t="str">
-        <v>2024 국방AI 교육대학 군 특화 AI전문교육과정 해외 연수</v>
+        <v>2024년 이차전지 융합전공 재학생 하계 해외 현장학습</v>
       </c>
       <c r="I32" t="str">
         <v>일반용역</v>
       </c>
       <c r="J32">
-        <v>100200000</v>
+        <v>90000000</v>
       </c>
       <c r="K32" t="str">
-        <v>중앙대학교 산학협력단</v>
+        <v>이차전지인력양성센터</v>
       </c>
       <c r="L32" t="str">
-        <v>김세영</v>
+        <v>이동운</v>
       </c>
       <c r="M32" t="str">
-        <v>02-820-6860</v>
+        <v>052-712-8475</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>2771</v>
+        <v>3873</v>
       </c>
       <c r="B33" t="str">
         <v>용역</v>
@@ -1731,10 +1710,10 @@
         <v>신규</v>
       </c>
       <c r="D33" t="str">
-        <v>전북대학교 산학협력단</v>
+        <v>대전과학기술대학교 산학협력단</v>
       </c>
       <c r="E33" t="str">
-        <v>2024년 06월</v>
+        <v>2024년 05월</v>
       </c>
       <c r="F33" t="str">
         <v>자체조달</v>
@@ -1743,27 +1722,27 @@
         <v>제한경쟁</v>
       </c>
       <c r="H33" t="str">
-        <v>2024년 이공학영재교육원 해외선진기관 견학</v>
+        <v>(국고-전문대학혁신지원사업)2024년 해외 단기 인턴십(어학연수 및 현장실습)프로그램 외부 위탁업체 선정 입찰</v>
       </c>
       <c r="I33" t="str">
         <v>일반용역</v>
       </c>
       <c r="J33">
-        <v>207200000</v>
+        <v>105000000</v>
       </c>
       <c r="K33" t="str">
-        <v>전북대학교 산학협력단</v>
+        <v>총무팀</v>
       </c>
       <c r="L33" t="str">
-        <v>한지혜</v>
+        <v>김민정</v>
       </c>
       <c r="M33" t="str">
-        <v>063-270-4455</v>
+        <v>042-580-6153</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>2800</v>
+        <v>3895</v>
       </c>
       <c r="B34" t="str">
         <v>용역</v>
@@ -1772,7 +1751,7 @@
         <v>신규</v>
       </c>
       <c r="D34" t="str">
-        <v>한국의약품안전관리원</v>
+        <v>축산물품질평가원</v>
       </c>
       <c r="E34" t="str">
         <v>2024년 05월</v>
@@ -1781,30 +1760,30 @@
         <v>자체조달</v>
       </c>
       <c r="G34" t="str">
-        <v>수의계약</v>
+        <v>일반경쟁</v>
       </c>
       <c r="H34" t="str">
-        <v>세계 마약퇴치의 날 기념식 해외인사 초청 대행 위탁 용역</v>
+        <v>해외 축산유통정보조사 용역</v>
       </c>
       <c r="I34" t="str">
         <v>일반용역</v>
       </c>
       <c r="J34">
-        <v>18000000</v>
+        <v>49000000</v>
       </c>
       <c r="K34" t="str">
-        <v>혁신경영팀</v>
+        <v>유통정보처</v>
       </c>
       <c r="L34" t="str">
-        <v>곽민수</v>
+        <v>김지영</v>
       </c>
       <c r="M34" t="str">
-        <v>02-2172-6810</v>
+        <v>044-410-7085</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>2919</v>
+        <v>3931</v>
       </c>
       <c r="B35" t="str">
         <v>용역</v>
@@ -1813,7 +1792,7 @@
         <v>신규</v>
       </c>
       <c r="D35" t="str">
-        <v>전북특별자치도교육청 전북특별자치도순창교육지원청 동산초등학교</v>
+        <v>한국인터넷진흥원</v>
       </c>
       <c r="E35" t="str">
         <v>2024년 05월</v>
@@ -1825,33 +1804,36 @@
         <v>제한경쟁</v>
       </c>
       <c r="H35" t="str">
-        <v>2024학년도 동산·복흥초등학교 국제교류수업 연계 해외 현장체험학습 위탁용역</v>
+        <v>사이버 정보보안 정책연구 발표회 용역</v>
       </c>
       <c r="I35" t="str">
         <v>일반용역</v>
       </c>
       <c r="J35">
-        <v>90513440</v>
+        <v>60000000</v>
       </c>
       <c r="K35" t="str">
-        <v>행정실</v>
+        <v>정책개발팀</v>
       </c>
       <c r="L35" t="str">
-        <v>서난영</v>
+        <v>천곤웅</v>
       </c>
       <c r="M35" t="str">
-        <v>063-652-7459</v>
+        <v>061-820-1124</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>1012</v>
+        <v>3940</v>
       </c>
       <c r="B36" t="str">
         <v>용역</v>
       </c>
+      <c r="C36" t="str">
+        <v>신규</v>
+      </c>
       <c r="D36" t="str">
-        <v>한국수자원공사</v>
+        <v>강원특별자치도교육청 강원특별자치도정선교육지원청 함백중학교</v>
       </c>
       <c r="E36" t="str">
         <v>2024년 05월</v>
@@ -1860,30 +1842,30 @@
         <v>자체조달</v>
       </c>
       <c r="G36" t="str">
-        <v>일반경쟁</v>
+        <v>제한경쟁</v>
       </c>
       <c r="H36" t="str">
-        <v>해외 투자사업 기준수익률 산정방식 개선 용역</v>
+        <v>2024학년도 정선 함백중학교 3학년 해외문화체험학습 위탁용역</v>
       </c>
       <c r="I36" t="str">
         <v>일반용역</v>
       </c>
       <c r="J36">
-        <v>51139000</v>
+        <v>78406000</v>
       </c>
       <c r="K36" t="str">
-        <v>기획조정실</v>
+        <v>교육행정실</v>
       </c>
       <c r="L36" t="str">
-        <v>엄태웅</v>
+        <v>허병석</v>
       </c>
       <c r="M36" t="str">
-        <v>042-629-2336</v>
+        <v>033-370-0101</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>1156</v>
+        <v>3965</v>
       </c>
       <c r="B37" t="str">
         <v>용역</v>
@@ -1892,10 +1874,10 @@
         <v>신규</v>
       </c>
       <c r="D37" t="str">
-        <v>전북특별자치도교육청 전북특별자치도전주교육지원청 전주우림중학교</v>
+        <v>한국교통안전공단</v>
       </c>
       <c r="E37" t="str">
-        <v>2024년 06월</v>
+        <v>2024년 05월</v>
       </c>
       <c r="F37" t="str">
         <v>자체조달</v>
@@ -1904,27 +1886,27 @@
         <v>제한경쟁</v>
       </c>
       <c r="H37" t="str">
-        <v>2024학년도 전주우림중학교 국제교류수업 및 해외현장체험학습 위탁 용역</v>
+        <v>교통약자 이동편의 정보관리시스템 구축 사업 PMO 용역</v>
       </c>
       <c r="I37" t="str">
         <v>일반용역</v>
       </c>
       <c r="J37">
-        <v>89980000</v>
+        <v>221000000</v>
       </c>
       <c r="K37" t="str">
-        <v>행정실</v>
+        <v>모빌리티플랫폼처</v>
       </c>
       <c r="L37" t="str">
-        <v>박유하</v>
+        <v>노영문</v>
       </c>
       <c r="M37" t="str">
-        <v>063-220-4904</v>
+        <v>054-459-7903</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>1190</v>
+        <v>3971</v>
       </c>
       <c r="B38" t="str">
         <v>용역</v>
@@ -1933,10 +1915,10 @@
         <v>신규</v>
       </c>
       <c r="D38" t="str">
-        <v>재단법인 서울관광재단</v>
+        <v>한국교통안전공단</v>
       </c>
       <c r="E38" t="str">
-        <v>2024년 06월</v>
+        <v>2024년 05월</v>
       </c>
       <c r="F38" t="str">
         <v>자체조달</v>
@@ -1945,27 +1927,27 @@
         <v>제한경쟁</v>
       </c>
       <c r="H38" t="str">
-        <v>2024 해외관광박람회 서울 단독 홍보관 설치 및 운영</v>
+        <v>교통약자 이동편의 정보관리시스템 구축 용역</v>
       </c>
       <c r="I38" t="str">
         <v>일반용역</v>
       </c>
       <c r="J38">
-        <v>314000000</v>
+        <v>2389891762</v>
       </c>
       <c r="K38" t="str">
-        <v>글로벌관광산업팀</v>
+        <v>모빌리티플랫폼처</v>
       </c>
       <c r="L38" t="str">
-        <v>김윤영</v>
+        <v>노영문</v>
       </c>
       <c r="M38" t="str">
-        <v>02-3788-0890</v>
+        <v>054-459-7903</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>1301</v>
+        <v>2039</v>
       </c>
       <c r="B39" t="str">
         <v>용역</v>
@@ -1974,7 +1956,7 @@
         <v>신규</v>
       </c>
       <c r="D39" t="str">
-        <v>배화여자대학교</v>
+        <v>재단법인 경상북도경제진흥원</v>
       </c>
       <c r="E39" t="str">
         <v>2024년 05월</v>
@@ -1983,30 +1965,30 @@
         <v>자체조달</v>
       </c>
       <c r="G39" t="str">
-        <v>제한경쟁</v>
+        <v>일반경쟁</v>
       </c>
       <c r="H39" t="str">
-        <v>배화여자대학교 해외취업지원프로그램 운영기관 선정</v>
+        <v>「2024년 경북PRIDE기업 해외 무역사절단 파견」운영 용역</v>
       </c>
       <c r="I39" t="str">
         <v>일반용역</v>
       </c>
       <c r="J39">
-        <v>48000000</v>
+        <v>90000000</v>
       </c>
       <c r="K39" t="str">
-        <v>총무처</v>
+        <v>강소기업육성팀</v>
       </c>
       <c r="L39" t="str">
-        <v>박병서</v>
+        <v>최유진</v>
       </c>
       <c r="M39" t="str">
-        <v>02-399-0893</v>
+        <v>054-470-8565</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>1483</v>
+        <v>2085</v>
       </c>
       <c r="B40" t="str">
         <v>용역</v>
@@ -2015,7 +1997,7 @@
         <v>신규</v>
       </c>
       <c r="D40" t="str">
-        <v>국회 국회예산정책처</v>
+        <v>정보통신산업진흥원</v>
       </c>
       <c r="E40" t="str">
         <v>2024년 05월</v>
@@ -2024,30 +2006,30 @@
         <v>자체조달</v>
       </c>
       <c r="G40" t="str">
-        <v>수의계약</v>
+        <v>제한경쟁</v>
       </c>
       <c r="H40" t="str">
-        <v>해외 사례 분석을 통한 국내 공공주택공급 정책의 개선방안 연구</v>
+        <v>개도국 정보통신방송전문가 초청연수 정보시스템 유지보수용역</v>
       </c>
       <c r="I40" t="str">
         <v>일반용역</v>
       </c>
       <c r="J40">
-        <v>30000000</v>
+        <v>40000000</v>
       </c>
       <c r="K40" t="str">
-        <v>국회예산정책처 총무담당관실</v>
+        <v>글로벌협력팀</v>
       </c>
       <c r="L40" t="str">
-        <v>장아련</v>
+        <v>김서희 수석</v>
       </c>
       <c r="M40" t="str">
-        <v>02-6788-4615</v>
+        <v>043-931-5522</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>1516</v>
+        <v>2103</v>
       </c>
       <c r="B41" t="str">
         <v>용역</v>
@@ -2056,7 +2038,7 @@
         <v>신규</v>
       </c>
       <c r="D41" t="str">
-        <v>재단법인안양산업진흥원</v>
+        <v>전북특별자치도교육청 전북특별자치도남원교육지원청</v>
       </c>
       <c r="E41" t="str">
         <v>2024년 05월</v>
@@ -2068,27 +2050,27 @@
         <v>제한경쟁</v>
       </c>
       <c r="H41" t="str">
-        <v>2024년 해외시장개척단 파견 운영 용역</v>
+        <v>2024. 중학생 해외영어캠프 용역 소액수의 견적제출 공고</v>
       </c>
       <c r="I41" t="str">
         <v>일반용역</v>
       </c>
       <c r="J41">
-        <v>140000000</v>
+        <v>89240000</v>
       </c>
       <c r="K41" t="str">
-        <v>기업육성부</v>
+        <v>교육지원과</v>
       </c>
       <c r="L41" t="str">
-        <v>안재민</v>
+        <v>강현정</v>
       </c>
       <c r="M41" t="str">
-        <v>031-8045-6725</v>
+        <v>063-620-7826</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>1759</v>
+        <v>2183</v>
       </c>
       <c r="B42" t="str">
         <v>용역</v>
@@ -2097,7 +2079,7 @@
         <v>신규</v>
       </c>
       <c r="D42" t="str">
-        <v>대전광역시교육청 대전도시과학고등학교</v>
+        <v>국토교통부</v>
       </c>
       <c r="E42" t="str">
         <v>2024년 05월</v>
@@ -2109,27 +2091,27 @@
         <v>제한경쟁</v>
       </c>
       <c r="H42" t="str">
-        <v>대전도시과학고등학교 해외 직무역량향상 캠프 위탁용역 입찰 재공고</v>
+        <v>차세대 부동산종합공부시스템 구축(1차) 개인정보 영향평가</v>
       </c>
       <c r="I42" t="str">
         <v>일반용역</v>
       </c>
       <c r="J42">
-        <v>36399780</v>
+        <v>50000000</v>
       </c>
       <c r="K42" t="str">
-        <v>산학협력부</v>
+        <v>공간정보제도과</v>
       </c>
       <c r="L42" t="str">
-        <v>윤경훈</v>
+        <v>고은정</v>
       </c>
       <c r="M42" t="str">
-        <v>042-540-2137</v>
+        <v>044-201-3486</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>1786</v>
+        <v>2218</v>
       </c>
       <c r="B43" t="str">
         <v>용역</v>
@@ -2138,7 +2120,7 @@
         <v>신규</v>
       </c>
       <c r="D43" t="str">
-        <v>광복회</v>
+        <v>국토교통부</v>
       </c>
       <c r="E43" t="str">
         <v>2024년 05월</v>
@@ -2150,27 +2132,27 @@
         <v>제한경쟁</v>
       </c>
       <c r="H43" t="str">
-        <v>광복회 해외 독립운동 역사교육 (독일)</v>
+        <v>물류기업 해외진출 활성화 방안 마련 연구</v>
       </c>
       <c r="I43" t="str">
         <v>일반용역</v>
       </c>
       <c r="J43">
-        <v>70000000</v>
+        <v>40000000</v>
       </c>
       <c r="K43" t="str">
-        <v>대외협력국</v>
+        <v>물류정책과</v>
       </c>
       <c r="L43" t="str">
-        <v>임소희</v>
+        <v>윤덕웅</v>
       </c>
       <c r="M43" t="str">
-        <v>02-780-0816</v>
+        <v>044-201-4005</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>1790</v>
+        <v>2254</v>
       </c>
       <c r="B44" t="str">
         <v>용역</v>
@@ -2179,7 +2161,7 @@
         <v>신규</v>
       </c>
       <c r="D44" t="str">
-        <v>군산간호대학교산학협력단</v>
+        <v>제주특별자치도</v>
       </c>
       <c r="E44" t="str">
         <v>2024년 05월</v>
@@ -2188,30 +2170,30 @@
         <v>자체조달</v>
       </c>
       <c r="G44" t="str">
-        <v>일반경쟁</v>
+        <v>제한경쟁</v>
       </c>
       <c r="H44" t="str">
-        <v>2024년 해외 현장학습 및 전공 연수</v>
+        <v>2024년 제주지역 무장애 여행을 휘한 정보 현행화 및 POI 구축</v>
       </c>
       <c r="I44" t="str">
-        <v>일반용역</v>
+        <v>기술용역</v>
       </c>
       <c r="J44">
-        <v>62000000</v>
+        <v>100000000</v>
       </c>
       <c r="K44" t="str">
-        <v>기획처</v>
+        <v>제주특별자치도 미래성장과</v>
       </c>
       <c r="L44" t="str">
-        <v>김영진</v>
+        <v>김나현</v>
       </c>
       <c r="M44" t="str">
-        <v>063-450-3922</v>
+        <v>064-710-2585</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>1847</v>
+        <v>2255</v>
       </c>
       <c r="B45" t="str">
         <v>용역</v>
@@ -2220,7 +2202,7 @@
         <v>신규</v>
       </c>
       <c r="D45" t="str">
-        <v>충청남도교육청 금산하이텍고등학교</v>
+        <v>재단법인강원정보문화산업진흥원</v>
       </c>
       <c r="E45" t="str">
         <v>2024년 05월</v>
@@ -2232,27 +2214,27 @@
         <v>제한경쟁</v>
       </c>
       <c r="H45" t="str">
-        <v>2024학년도 금산하이텍고등학교 세계문화유산 해외탐방(수학여행) 위탁용역</v>
+        <v>강원정보문화산업진흥원 콘텐츠진흥본부 운영홈페이지 개편 용역</v>
       </c>
       <c r="I45" t="str">
         <v>일반용역</v>
       </c>
       <c r="J45">
-        <v>87718000</v>
+        <v>47000000</v>
       </c>
       <c r="K45" t="str">
-        <v>금산하이텍고등학</v>
+        <v>영상산업지원팀</v>
       </c>
       <c r="L45" t="str">
-        <v>이은숙</v>
+        <v>허진수</v>
       </c>
       <c r="M45" t="str">
-        <v>041-752-4376</v>
+        <v>033-245-6333</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>1848</v>
+        <v>2276</v>
       </c>
       <c r="B46" t="str">
         <v>용역</v>
@@ -2261,7 +2243,7 @@
         <v>신규</v>
       </c>
       <c r="D46" t="str">
-        <v>제주대학교 산학협력단</v>
+        <v>전라남도강진교육청 강진중학교</v>
       </c>
       <c r="E46" t="str">
         <v>2024년 05월</v>
@@ -2273,62 +2255,68 @@
         <v>제한경쟁</v>
       </c>
       <c r="H46" t="str">
-        <v>큐브위성 및 위성임무운영 교육 프로그램 해외연수 위탁대행 용역</v>
+        <v>2024년 강진중학교 해외역사문화탐방 위탁용역 입찰 공고</v>
       </c>
       <c r="I46" t="str">
         <v>일반용역</v>
       </c>
       <c r="J46">
-        <v>99000000</v>
+        <v>138773980</v>
       </c>
       <c r="K46" t="str">
-        <v>제주대학교 산학협력단</v>
+        <v>강진중학교 행정실</v>
       </c>
       <c r="L46" t="str">
-        <v>현성준</v>
+        <v>황현숙</v>
       </c>
       <c r="M46" t="str">
-        <v>064-754-2417</v>
+        <v>061-433-3976</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>31</v>
+        <v>2278</v>
       </c>
       <c r="B47" t="str">
         <v>용역</v>
       </c>
+      <c r="C47" t="str">
+        <v>신규</v>
+      </c>
       <c r="D47" t="str">
-        <v>한국수력원자력주식회사</v>
+        <v>울산시설공단</v>
       </c>
       <c r="E47" t="str">
-        <v>2024년 06월</v>
+        <v>2024년 05월</v>
       </c>
       <c r="F47" t="str">
         <v>자체조달</v>
       </c>
       <c r="G47" t="str">
-        <v>일반경쟁</v>
+        <v>제한경쟁</v>
       </c>
       <c r="H47" t="str">
-        <v>해외사업 동력 강화를 위한 해외지사(사무소) 운영 개선 용역</v>
+        <v>울산시설공단 2024년 해외선진지 벤치마킹 용역</v>
       </c>
       <c r="I47" t="str">
         <v>일반용역</v>
       </c>
       <c r="J47">
-        <v>350690000</v>
+        <v>78504300</v>
+      </c>
+      <c r="K47" t="str">
+        <v>총무인사팀</v>
       </c>
       <c r="L47" t="str">
-        <v>하은주</v>
+        <v>최다미</v>
       </c>
       <c r="M47" t="str">
-        <v>054-704-7612</v>
+        <v>052-290-7334</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>124</v>
+        <v>2281</v>
       </c>
       <c r="B48" t="str">
         <v>용역</v>
@@ -2337,7 +2325,7 @@
         <v>신규</v>
       </c>
       <c r="D48" t="str">
-        <v>서울신용보증재단</v>
+        <v>충청남도교육청 금산고등학교</v>
       </c>
       <c r="E48" t="str">
         <v>2024년 05월</v>
@@ -2349,27 +2337,27 @@
         <v>제한경쟁</v>
       </c>
       <c r="H48" t="str">
-        <v>2024년 재단 주관 해외연수 용역</v>
+        <v>2024학년도 금산고등학교 2학년 해외현장체험학습 위탁 용역</v>
       </c>
       <c r="I48" t="str">
         <v>일반용역</v>
       </c>
       <c r="J48">
-        <v>138123000</v>
+        <v>205834000</v>
       </c>
       <c r="K48" t="str">
-        <v>인사부 인재양성팀</v>
+        <v>금산고등학교</v>
       </c>
       <c r="L48" t="str">
-        <v>김준엽</v>
+        <v>김은송</v>
       </c>
       <c r="M48" t="str">
-        <v>02-2174-5130</v>
+        <v>041-450-7204</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>148</v>
+        <v>2310</v>
       </c>
       <c r="B49" t="str">
         <v>용역</v>
@@ -2378,7 +2366,7 @@
         <v>신규</v>
       </c>
       <c r="D49" t="str">
-        <v>한국항공우주연구원</v>
+        <v>충청북도교육청 제천디지털전자고등학교</v>
       </c>
       <c r="E49" t="str">
         <v>2024년 06월</v>
@@ -2390,27 +2378,27 @@
         <v>제한경쟁</v>
       </c>
       <c r="H49" t="str">
-        <v>해외 구매물품 국내외 운송 및 수출입 통관 대행 용역</v>
+        <v>2024학년도 제천디지털전자고등학교 해외체험학습 위탁 용역</v>
       </c>
       <c r="I49" t="str">
         <v>일반용역</v>
       </c>
       <c r="J49">
-        <v>7030292</v>
+        <v>128180000</v>
       </c>
       <c r="K49" t="str">
-        <v>해외계약실</v>
+        <v>행정실</v>
       </c>
       <c r="L49" t="str">
-        <v>서유민</v>
+        <v>전홍주</v>
       </c>
       <c r="M49" t="str">
-        <v>042-860-2615</v>
+        <v>070-4333-5126</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>242</v>
+        <v>2346</v>
       </c>
       <c r="B50" t="str">
         <v>용역</v>
@@ -2419,10 +2407,10 @@
         <v>신규</v>
       </c>
       <c r="D50" t="str">
-        <v>전북특별자치도교육청 전북특별자치도진안교육지원청 장승초등학교</v>
+        <v>농림축산식품부 한국농수산대학교</v>
       </c>
       <c r="E50" t="str">
-        <v>2024년 06월</v>
+        <v>2024년 05월</v>
       </c>
       <c r="F50" t="str">
         <v>자체조달</v>
@@ -2431,27 +2419,27 @@
         <v>제한경쟁</v>
       </c>
       <c r="H50" t="str">
-        <v>2024학년도 장승초등학교 국제교류수업 해외현장체험학습 위탁 용역</v>
+        <v>2024학년도 한국농수산대학교 졸업생 해외연수(3개 연수과정) 진행업체 모집 공고</v>
       </c>
       <c r="I50" t="str">
         <v>일반용역</v>
       </c>
       <c r="J50">
-        <v>90000000</v>
+        <v>350700000</v>
       </c>
       <c r="K50" t="str">
-        <v>행정실</v>
+        <v>교학과</v>
       </c>
       <c r="L50" t="str">
-        <v>박정연</v>
+        <v>이영순</v>
       </c>
       <c r="M50" t="str">
-        <v>063-433-2048</v>
+        <v>063-238-9630</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>278</v>
+        <v>2359</v>
       </c>
       <c r="B51" t="str">
         <v>용역</v>
@@ -2460,7 +2448,7 @@
         <v>신규</v>
       </c>
       <c r="D51" t="str">
-        <v>충청북도교육청 충주중산고등학교</v>
+        <v>한국항공우주연구원</v>
       </c>
       <c r="E51" t="str">
         <v>2024년 06월</v>
@@ -2472,27 +2460,27 @@
         <v>제한경쟁</v>
       </c>
       <c r="H51" t="str">
-        <v>2024학년도 충주중산고등학교 글로벌 인재육성 해외연수 위탁용역 입찰 공고</v>
+        <v>대응드론캅용 EO/IR기반 정보추정/탑재체 관리 기술 개발 및 시험평가 지원 용역</v>
       </c>
       <c r="I51" t="str">
         <v>일반용역</v>
       </c>
       <c r="J51">
-        <v>305700000</v>
+        <v>122000000</v>
       </c>
       <c r="K51" t="str">
-        <v>충주중산고등학교 행정실</v>
+        <v>무인기연구부</v>
       </c>
       <c r="L51" t="str">
-        <v>김선희</v>
+        <v>신희민</v>
       </c>
       <c r="M51" t="str">
-        <v>043-851-2783</v>
+        <v>042-870-3837</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>297</v>
+        <v>2364</v>
       </c>
       <c r="B52" t="str">
         <v>용역</v>
@@ -2501,7 +2489,7 @@
         <v>신규</v>
       </c>
       <c r="D52" t="str">
-        <v>충청남도교육청 건양대학교병설건양고등학교</v>
+        <v>전북특별자치도교육청 고창북고등학교</v>
       </c>
       <c r="E52" t="str">
         <v>2024년 05월</v>
@@ -2513,27 +2501,27 @@
         <v>제한경쟁</v>
       </c>
       <c r="H52" t="str">
-        <v>2024학년도 건양고 미래인재 해외체험 2단계(가격규격동시) 입찰공고건</v>
+        <v>2024학년도 고창북고등학교 국제교류수업 연계 해외 현장체험학습 위탁 용역</v>
       </c>
       <c r="I52" t="str">
         <v>일반용역</v>
       </c>
       <c r="J52">
-        <v>161000000</v>
+        <v>56525720</v>
       </c>
       <c r="K52" t="str">
         <v>행정실</v>
       </c>
       <c r="L52" t="str">
-        <v>서득수</v>
+        <v>윤근효</v>
       </c>
       <c r="M52" t="str">
-        <v>041-741-8872</v>
+        <v>063-562-6297</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>305</v>
+        <v>2466</v>
       </c>
       <c r="B53" t="str">
         <v>용역</v>
@@ -2542,39 +2530,39 @@
         <v>신규</v>
       </c>
       <c r="D53" t="str">
-        <v>충청남도교육청 건양대학교병설건양고등학교</v>
+        <v>성남시청소년재단</v>
       </c>
       <c r="E53" t="str">
         <v>2024년 05월</v>
       </c>
       <c r="F53" t="str">
-        <v>중앙조달</v>
+        <v>자체조달</v>
       </c>
       <c r="G53" t="str">
         <v>제한경쟁</v>
       </c>
       <c r="H53" t="str">
-        <v>2024학년도 건양고 미래인재 해외체험 2단계(가격규격동시) 입찰공고건</v>
+        <v>2024. 청년창업 아이디에이션 4.0 해외활동 코디네이팅 용역</v>
       </c>
       <c r="I53" t="str">
         <v>일반용역</v>
       </c>
       <c r="J53">
-        <v>161000000</v>
+        <v>64840000</v>
       </c>
       <c r="K53" t="str">
-        <v>행정실</v>
+        <v>성남시청소년재단 경영본부</v>
       </c>
       <c r="L53" t="str">
-        <v>서득수</v>
+        <v>김정호</v>
       </c>
       <c r="M53" t="str">
-        <v>041-741-8872</v>
+        <v>031-729-9036</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>322</v>
+        <v>2513</v>
       </c>
       <c r="B54" t="str">
         <v>용역</v>
@@ -2583,7 +2571,7 @@
         <v>신규</v>
       </c>
       <c r="D54" t="str">
-        <v>경상남도교육청 경상남도창녕교육지원청</v>
+        <v>한국섬유산업연합회</v>
       </c>
       <c r="E54" t="str">
         <v>2024년 05월</v>
@@ -2592,30 +2580,30 @@
         <v>자체조달</v>
       </c>
       <c r="G54" t="str">
-        <v>제한경쟁</v>
+        <v>일반경쟁</v>
       </c>
       <c r="H54" t="str">
-        <v>2024. 창녕영재교육원 해외체험학습 용역</v>
+        <v>글로벌 트렌드 정보 서비스</v>
       </c>
       <c r="I54" t="str">
         <v>일반용역</v>
       </c>
       <c r="J54">
-        <v>91581900</v>
+        <v>32000000</v>
       </c>
       <c r="K54" t="str">
-        <v>평생체육담당</v>
+        <v>한국섬유산업연합</v>
       </c>
       <c r="L54" t="str">
-        <v>노화성</v>
+        <v>안가영</v>
       </c>
       <c r="M54" t="str">
-        <v>055-530-3541</v>
+        <v>02-528-4059</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>355</v>
+        <v>2531</v>
       </c>
       <c r="B55" t="str">
         <v>용역</v>
@@ -2624,39 +2612,39 @@
         <v>신규</v>
       </c>
       <c r="D55" t="str">
-        <v>사단법인 한국사회복지사협회</v>
+        <v>대한장애인체육회</v>
       </c>
       <c r="E55" t="str">
-        <v>2024년 06월</v>
+        <v>2024년 05월</v>
       </c>
       <c r="F55" t="str">
         <v>자체조달</v>
       </c>
       <c r="G55" t="str">
-        <v>제한경쟁</v>
+        <v>일반경쟁</v>
       </c>
       <c r="H55" t="str">
-        <v>2024년 한국사회복지사협회 임원 해외연수</v>
+        <v>차세대통합정보시스템 구축 감리</v>
       </c>
       <c r="I55" t="str">
         <v>일반용역</v>
       </c>
       <c r="J55">
-        <v>62500000</v>
+        <v>588000000</v>
       </c>
       <c r="K55" t="str">
-        <v>운영지원본부</v>
+        <v>경영지원부</v>
       </c>
       <c r="L55" t="str">
-        <v>전선화</v>
+        <v>김진석</v>
       </c>
       <c r="M55" t="str">
-        <v>02-786-0190</v>
+        <v>02-3434-4540</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>439</v>
+        <v>2539</v>
       </c>
       <c r="B56" t="str">
         <v>용역</v>
@@ -2665,48 +2653,45 @@
         <v>신규</v>
       </c>
       <c r="D56" t="str">
-        <v>(재)제주평생교육장학진흥원</v>
+        <v>국방기술품질원</v>
       </c>
       <c r="E56" t="str">
-        <v>2024년 06월</v>
+        <v>2024년 05월</v>
       </c>
       <c r="F56" t="str">
-        <v>자체조달</v>
+        <v>중앙조달</v>
       </c>
       <c r="G56" t="str">
         <v>제한경쟁</v>
       </c>
       <c r="H56" t="str">
-        <v>2024년「제주청년해외연수」용역</v>
+        <v>정보체계 이관 및 통합업무포털(다모아) 개선 사업</v>
       </c>
       <c r="I56" t="str">
         <v>일반용역</v>
       </c>
       <c r="J56">
-        <v>120000000</v>
+        <v>507000000</v>
       </c>
       <c r="K56" t="str">
-        <v>경영기획부</v>
+        <v>재무회계팀</v>
       </c>
       <c r="L56" t="str">
-        <v>고성준</v>
+        <v>김재민</v>
       </c>
       <c r="M56" t="str">
-        <v>064-726-9972</v>
+        <v>055-751-5539</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>650</v>
+        <v>2558</v>
       </c>
       <c r="B57" t="str">
         <v>용역</v>
       </c>
-      <c r="C57" t="str">
-        <v>신규</v>
-      </c>
       <c r="D57" t="str">
-        <v>한국무역협회</v>
+        <v>한국토지주택공사</v>
       </c>
       <c r="E57" t="str">
         <v>2024년 06월</v>
@@ -2718,27 +2703,24 @@
         <v>일반경쟁</v>
       </c>
       <c r="H57" t="str">
-        <v>2024 부천 해외바이어 수출상담회</v>
+        <v>광명 유통단지 도시기반 전기·정보통신 설계용역</v>
       </c>
       <c r="I57" t="str">
-        <v>일반용역</v>
+        <v>기술용역</v>
       </c>
       <c r="J57">
-        <v>80000000</v>
+        <v>86328000</v>
       </c>
       <c r="K57" t="str">
-        <v>경기북부지역본부</v>
-      </c>
-      <c r="L57" t="str">
-        <v>손창우</v>
+        <v>도시기반처</v>
       </c>
       <c r="M57" t="str">
-        <v>031-995-6166</v>
+        <v>0559223711</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>657</v>
+        <v>2596</v>
       </c>
       <c r="B58" t="str">
         <v>용역</v>
@@ -2747,39 +2729,39 @@
         <v>신규</v>
       </c>
       <c r="D58" t="str">
-        <v>대구광역시교육청 대구외국어고등학교</v>
+        <v>한국전기안전공사</v>
       </c>
       <c r="E58" t="str">
-        <v>2024년 06월</v>
+        <v>2024년 05월</v>
       </c>
       <c r="F58" t="str">
-        <v>자체조달</v>
+        <v>중앙조달</v>
       </c>
       <c r="G58" t="str">
         <v>제한경쟁</v>
       </c>
       <c r="H58" t="str">
-        <v>2024학년도 해외문화탐구활동(영국,스페인) 항공권 구매 및 기타용역(긴급)</v>
+        <v>일반용전기설비 주소정보 표준화 및 온라인 사용전점검 개발 용역</v>
       </c>
       <c r="I58" t="str">
         <v>일반용역</v>
       </c>
       <c r="J58">
-        <v>113357600</v>
+        <v>361400000</v>
       </c>
       <c r="K58" t="str">
-        <v>행정실</v>
+        <v>디지털점검부</v>
       </c>
       <c r="L58" t="str">
-        <v>이동규</v>
+        <v>강민구</v>
       </c>
       <c r="M58" t="str">
-        <v>053-231-1702</v>
+        <v>063-716-2694</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>747</v>
+        <v>2612</v>
       </c>
       <c r="B59" t="str">
         <v>용역</v>
@@ -2788,7 +2770,7 @@
         <v>신규</v>
       </c>
       <c r="D59" t="str">
-        <v>국회 국회예산정책처</v>
+        <v>국토교통부</v>
       </c>
       <c r="E59" t="str">
         <v>2024년 05월</v>
@@ -2800,27 +2782,27 @@
         <v>수의계약</v>
       </c>
       <c r="H59" t="str">
-        <v>해외 사례 분석을 통한 국내 공공주택공급 정책의 개선방안 연구</v>
+        <v>교통약자 이동편의 정보관리시스템 구축사업</v>
       </c>
       <c r="I59" t="str">
         <v>일반용역</v>
       </c>
       <c r="J59">
-        <v>30000000</v>
+        <v>3487000000</v>
       </c>
       <c r="K59" t="str">
-        <v>국회예산정책처 총무담당관실</v>
+        <v>생활교통복지과</v>
       </c>
       <c r="L59" t="str">
-        <v>장아련</v>
+        <v>노운용</v>
       </c>
       <c r="M59" t="str">
-        <v>02-6788-4615</v>
+        <v>044-201-3805</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>804</v>
+        <v>2620</v>
       </c>
       <c r="B60" t="str">
         <v>용역</v>
@@ -2829,80 +2811,3842 @@
         <v>신규</v>
       </c>
       <c r="D60" t="str">
-        <v>한국연구재단</v>
+        <v>(재)경기도경제과학진흥원</v>
       </c>
       <c r="E60" t="str">
-        <v>2024년 06월</v>
+        <v>2024년 05월</v>
       </c>
       <c r="F60" t="str">
-        <v>중앙조달</v>
+        <v>자체조달</v>
       </c>
       <c r="G60" t="str">
-        <v>일반경쟁</v>
+        <v>제한경쟁</v>
       </c>
       <c r="H60" t="str">
-        <v>2024년 해외 국가 R&amp;D 투자현황 자료수집·분석 용역</v>
+        <v>경기도경제과학진흥원 해외 출장 대행 여행사 모집</v>
       </c>
       <c r="I60" t="str">
         <v>일반용역</v>
       </c>
       <c r="J60">
-        <v>276300000</v>
+        <v>600000000</v>
       </c>
       <c r="K60" t="str">
-        <v>학술데이터분석팀</v>
+        <v>재무회계팀</v>
       </c>
       <c r="L60" t="str">
-        <v>정종근</v>
+        <v>이연희</v>
       </c>
       <c r="M60" t="str">
-        <v>042-869-6682</v>
+        <v>031-259-6543</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
+        <v>2654</v>
+      </c>
+      <c r="B61" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C61" t="str">
+        <v>신규</v>
+      </c>
+      <c r="D61" t="str">
+        <v>국방기술진흥연구소</v>
+      </c>
+      <c r="E61" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="F61" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="G61" t="str">
+        <v>제한경쟁</v>
+      </c>
+      <c r="H61" t="str">
+        <v>국방기술정보통합서비스(DTiMS) 4.0 기능 고도화 사업</v>
+      </c>
+      <c r="I61" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="J61">
+        <v>945309000</v>
+      </c>
+      <c r="K61" t="str">
+        <v>지식정보관리팀</v>
+      </c>
+      <c r="L61" t="str">
+        <v>이민우</v>
+      </c>
+      <c r="M61" t="str">
+        <v>055-751-7436</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>2677</v>
+      </c>
+      <c r="B62" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C62" t="str">
+        <v>신규</v>
+      </c>
+      <c r="D62" t="str">
+        <v>사단법인 저작권해외진흥협회</v>
+      </c>
+      <c r="E62" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="F62" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="G62" t="str">
+        <v>제한경쟁</v>
+      </c>
+      <c r="H62" t="str">
+        <v>2024년 국내기술활용 해외 침해대응 특화사업</v>
+      </c>
+      <c r="I62" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="J62">
+        <v>50000000</v>
+      </c>
+      <c r="K62" t="str">
+        <v>진흥사업팀</v>
+      </c>
+      <c r="L62" t="str">
+        <v>유채영</v>
+      </c>
+      <c r="M62" t="str">
+        <v>02-2038-7014</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>2705</v>
+      </c>
+      <c r="B63" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C63" t="str">
+        <v>신규</v>
+      </c>
+      <c r="D63" t="str">
+        <v>사단법인 한국정보통신진흥협회</v>
+      </c>
+      <c r="E63" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="F63" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="G63" t="str">
+        <v>일반경쟁</v>
+      </c>
+      <c r="H63" t="str">
+        <v>형사사법정보시스템 통신이용자정보 통지 연계 기능 개발</v>
+      </c>
+      <c r="I63" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="J63">
+        <v>160000000</v>
+      </c>
+      <c r="K63" t="str">
+        <v>서비스지원팀</v>
+      </c>
+      <c r="L63" t="str">
+        <v>채창일</v>
+      </c>
+      <c r="M63" t="str">
+        <v>02-580-0712</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>2710</v>
+      </c>
+      <c r="B64" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C64" t="str">
+        <v>신규</v>
+      </c>
+      <c r="D64" t="str">
+        <v>해양수산과학기술진흥원</v>
+      </c>
+      <c r="E64" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="F64" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="G64" t="str">
+        <v>제한경쟁</v>
+      </c>
+      <c r="H64" t="str">
+        <v>2024년 해양수산 수출기업 컨설팅 및 해외연계·지원 용역</v>
+      </c>
+      <c r="I64" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="J64">
+        <v>50000000</v>
+      </c>
+      <c r="K64" t="str">
+        <v>산업정책실</v>
+      </c>
+      <c r="L64" t="str">
+        <v>박선영</v>
+      </c>
+      <c r="M64" t="str">
+        <v>02-3460-0352</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>2729</v>
+      </c>
+      <c r="B65" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C65" t="str">
+        <v>신규</v>
+      </c>
+      <c r="D65" t="str">
+        <v>중앙대학교 산학협력단</v>
+      </c>
+      <c r="E65" t="str">
+        <v>2024년 06월</v>
+      </c>
+      <c r="F65" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="G65" t="str">
+        <v>일반경쟁</v>
+      </c>
+      <c r="H65" t="str">
+        <v>2024 국방AI 교육대학 군 특화 AI전문교육과정 해외 연수</v>
+      </c>
+      <c r="I65" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="J65">
+        <v>100200000</v>
+      </c>
+      <c r="K65" t="str">
+        <v>중앙대학교 산학협력단</v>
+      </c>
+      <c r="L65" t="str">
+        <v>김세영</v>
+      </c>
+      <c r="M65" t="str">
+        <v>02-820-6860</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>2754</v>
+      </c>
+      <c r="B66" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C66" t="str">
+        <v>신규</v>
+      </c>
+      <c r="D66" t="str">
+        <v>충청남도교육청 충청남도교육청진로융합교육원</v>
+      </c>
+      <c r="E66" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="F66" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="G66" t="str">
+        <v>제한경쟁</v>
+      </c>
+      <c r="H66" t="str">
+        <v>[긴급]2024 충남 대입정보박람회 운영 용역</v>
+      </c>
+      <c r="I66" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="J66">
+        <v>129000000</v>
+      </c>
+      <c r="K66" t="str">
+        <v>진로진학부</v>
+      </c>
+      <c r="L66" t="str">
+        <v>진로진학부</v>
+      </c>
+      <c r="M66" t="str">
+        <v>041-406-2652</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>2771</v>
+      </c>
+      <c r="B67" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C67" t="str">
+        <v>신규</v>
+      </c>
+      <c r="D67" t="str">
+        <v>전북대학교 산학협력단</v>
+      </c>
+      <c r="E67" t="str">
+        <v>2024년 06월</v>
+      </c>
+      <c r="F67" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="G67" t="str">
+        <v>제한경쟁</v>
+      </c>
+      <c r="H67" t="str">
+        <v>2024년 이공학영재교육원 해외선진기관 견학</v>
+      </c>
+      <c r="I67" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="J67">
+        <v>207200000</v>
+      </c>
+      <c r="K67" t="str">
+        <v>전북대학교 산학협력단</v>
+      </c>
+      <c r="L67" t="str">
+        <v>한지혜</v>
+      </c>
+      <c r="M67" t="str">
+        <v>063-270-4455</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>2775</v>
+      </c>
+      <c r="B68" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C68" t="str">
+        <v>신규</v>
+      </c>
+      <c r="D68" t="str">
+        <v>한국원자력통제기술원</v>
+      </c>
+      <c r="E68" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="F68" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="G68" t="str">
+        <v>제한경쟁</v>
+      </c>
+      <c r="H68" t="str">
+        <v>경영정보시스템 기능개선 용역</v>
+      </c>
+      <c r="I68" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="J68">
+        <v>99288790</v>
+      </c>
+      <c r="K68" t="str">
+        <v>경영실</v>
+      </c>
+      <c r="L68" t="str">
+        <v>이동석</v>
+      </c>
+      <c r="M68" t="str">
+        <v>042-860-9716</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>2800</v>
+      </c>
+      <c r="B69" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C69" t="str">
+        <v>신규</v>
+      </c>
+      <c r="D69" t="str">
+        <v>한국의약품안전관리원</v>
+      </c>
+      <c r="E69" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="F69" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="G69" t="str">
+        <v>수의계약</v>
+      </c>
+      <c r="H69" t="str">
+        <v>세계 마약퇴치의 날 기념식 해외인사 초청 대행 위탁 용역</v>
+      </c>
+      <c r="I69" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="J69">
+        <v>18000000</v>
+      </c>
+      <c r="K69" t="str">
+        <v>혁신경영팀</v>
+      </c>
+      <c r="L69" t="str">
+        <v>곽민수</v>
+      </c>
+      <c r="M69" t="str">
+        <v>02-2172-6810</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>2811</v>
+      </c>
+      <c r="B70" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C70" t="str">
+        <v>신규</v>
+      </c>
+      <c r="D70" t="str">
+        <v>한국전문대학교육협의회</v>
+      </c>
+      <c r="E70" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="F70" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="G70" t="str">
+        <v>제한경쟁</v>
+      </c>
+      <c r="H70" t="str">
+        <v>2025학년도 지역별 전문대학 입학정보박람회 운영 대행</v>
+      </c>
+      <c r="I70" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="J70">
+        <v>220000000</v>
+      </c>
+      <c r="K70" t="str">
+        <v>기획실</v>
+      </c>
+      <c r="L70" t="str">
+        <v>권은주</v>
+      </c>
+      <c r="M70" t="str">
+        <v>02-3145-1206</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>2815</v>
+      </c>
+      <c r="B71" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C71" t="str">
+        <v>신규</v>
+      </c>
+      <c r="D71" t="str">
+        <v>국토안전관리원</v>
+      </c>
+      <c r="E71" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="F71" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="G71" t="str">
+        <v>제한경쟁</v>
+      </c>
+      <c r="H71" t="str">
+        <v>2024년 지하안전정보시스템 기능개선 사업</v>
+      </c>
+      <c r="I71" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="J71">
+        <v>169600000</v>
+      </c>
+      <c r="K71" t="str">
+        <v>디지털기획운영실</v>
+      </c>
+      <c r="L71" t="str">
+        <v>문은지 과장</v>
+      </c>
+      <c r="M71" t="str">
+        <v>055-771-4989</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>2874</v>
+      </c>
+      <c r="B72" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C72" t="str">
+        <v>신규</v>
+      </c>
+      <c r="D72" t="str">
+        <v>국토안전관리원</v>
+      </c>
+      <c r="E72" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="F72" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="G72" t="str">
+        <v>제한경쟁</v>
+      </c>
+      <c r="H72" t="str">
+        <v>2024년 시설물통합정보관리체계 기능개선 사업</v>
+      </c>
+      <c r="I72" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="J72">
+        <v>276420000</v>
+      </c>
+      <c r="K72" t="str">
+        <v>디지털기획운영실</v>
+      </c>
+      <c r="L72" t="str">
+        <v>전요성 과장</v>
+      </c>
+      <c r="M72" t="str">
+        <v>055-771-4993</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>2881</v>
+      </c>
+      <c r="B73" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C73" t="str">
+        <v>신규</v>
+      </c>
+      <c r="D73" t="str">
+        <v>한국농수산식품유통공사</v>
+      </c>
+      <c r="E73" t="str">
+        <v>2024년 06월</v>
+      </c>
+      <c r="F73" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="G73" t="str">
+        <v>제한경쟁</v>
+      </c>
+      <c r="H73" t="str">
+        <v>농넷 데이터 품질관리 및 맞춤정보 생산 용역</v>
+      </c>
+      <c r="I73" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="J73">
+        <v>470000000</v>
+      </c>
+      <c r="K73" t="str">
+        <v>빅데이터사업부</v>
+      </c>
+      <c r="L73" t="str">
+        <v>한상근</v>
+      </c>
+      <c r="M73" t="str">
+        <v>061-931-1359</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>2919</v>
+      </c>
+      <c r="B74" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C74" t="str">
+        <v>신규</v>
+      </c>
+      <c r="D74" t="str">
+        <v>전북특별자치도교육청 전북특별자치도순창교육지원청 동산초등학교</v>
+      </c>
+      <c r="E74" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="F74" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="G74" t="str">
+        <v>제한경쟁</v>
+      </c>
+      <c r="H74" t="str">
+        <v>2024학년도 동산·복흥초등학교 국제교류수업 연계 해외 현장체험학습 위탁용역</v>
+      </c>
+      <c r="I74" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="J74">
+        <v>90513440</v>
+      </c>
+      <c r="K74" t="str">
+        <v>행정실</v>
+      </c>
+      <c r="L74" t="str">
+        <v>서난영</v>
+      </c>
+      <c r="M74" t="str">
+        <v>063-652-7459</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>2925</v>
+      </c>
+      <c r="B75" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C75" t="str">
+        <v>신규</v>
+      </c>
+      <c r="D75" t="str">
+        <v>재단법인 포항테크노파크</v>
+      </c>
+      <c r="E75" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="F75" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="G75" t="str">
+        <v>제한경쟁</v>
+      </c>
+      <c r="H75" t="str">
+        <v>경북지역 중소기업 정보보호 기초진단 및 전문교육 지원 용역</v>
+      </c>
+      <c r="I75" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="J75">
+        <v>237534000</v>
+      </c>
+      <c r="K75" t="str">
+        <v>경북SW진흥본부</v>
+      </c>
+      <c r="L75" t="str">
+        <v>박정환</v>
+      </c>
+      <c r="M75" t="str">
+        <v>054-223-2183</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>2971</v>
+      </c>
+      <c r="B76" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C76" t="str">
+        <v>신규</v>
+      </c>
+      <c r="D76" t="str">
+        <v>국립중앙의료원</v>
+      </c>
+      <c r="E76" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="F76" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="G76" t="str">
+        <v>제한경쟁</v>
+      </c>
+      <c r="H76" t="str">
+        <v>(긴급)「차세대 응급의료정보시스템 구축을 위한 정보화전략계획(ISP)」 용역</v>
+      </c>
+      <c r="I76" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="J76">
+        <v>220000000</v>
+      </c>
+      <c r="K76" t="str">
+        <v>응급의료정보화팀</v>
+      </c>
+      <c r="L76" t="str">
+        <v>김종은</v>
+      </c>
+      <c r="M76" t="str">
+        <v>02-6362-3472</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>2994</v>
+      </c>
+      <c r="B77" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C77" t="str">
+        <v>신규</v>
+      </c>
+      <c r="D77" t="str">
+        <v>한국여행업협회</v>
+      </c>
+      <c r="E77" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="F77" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="G77" t="str">
+        <v>제한경쟁</v>
+      </c>
+      <c r="H77" t="str">
+        <v>「중소여행사 신용카드정보보안기준 준수 지원서비스」 공급사 선정</v>
+      </c>
+      <c r="I77" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="J77">
+        <v>105000000</v>
+      </c>
+      <c r="K77" t="str">
+        <v>해외여행팀</v>
+      </c>
+      <c r="L77" t="str">
+        <v>최완아</v>
+      </c>
+      <c r="M77" t="str">
+        <v>02-6200-3916</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>1012</v>
+      </c>
+      <c r="B78" t="str">
+        <v>용역</v>
+      </c>
+      <c r="D78" t="str">
+        <v>한국수자원공사</v>
+      </c>
+      <c r="E78" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="F78" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="G78" t="str">
+        <v>일반경쟁</v>
+      </c>
+      <c r="H78" t="str">
+        <v>해외 투자사업 기준수익률 산정방식 개선 용역</v>
+      </c>
+      <c r="I78" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="J78">
+        <v>51139000</v>
+      </c>
+      <c r="K78" t="str">
+        <v>기획조정실</v>
+      </c>
+      <c r="L78" t="str">
+        <v>엄태웅</v>
+      </c>
+      <c r="M78" t="str">
+        <v>042-629-2336</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>1156</v>
+      </c>
+      <c r="B79" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C79" t="str">
+        <v>신규</v>
+      </c>
+      <c r="D79" t="str">
+        <v>전북특별자치도교육청 전북특별자치도전주교육지원청 전주우림중학교</v>
+      </c>
+      <c r="E79" t="str">
+        <v>2024년 06월</v>
+      </c>
+      <c r="F79" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="G79" t="str">
+        <v>제한경쟁</v>
+      </c>
+      <c r="H79" t="str">
+        <v>2024학년도 전주우림중학교 국제교류수업 및 해외현장체험학습 위탁 용역</v>
+      </c>
+      <c r="I79" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="J79">
+        <v>89980000</v>
+      </c>
+      <c r="K79" t="str">
+        <v>행정실</v>
+      </c>
+      <c r="L79" t="str">
+        <v>박유하</v>
+      </c>
+      <c r="M79" t="str">
+        <v>063-220-4904</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v>1159</v>
+      </c>
+      <c r="B80" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C80" t="str">
+        <v>신규</v>
+      </c>
+      <c r="D80" t="str">
+        <v>문화체육관광부 국립중앙도서관</v>
+      </c>
+      <c r="E80" t="str">
+        <v>2024년 06월</v>
+      </c>
+      <c r="F80" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="G80" t="str">
+        <v>제한경쟁</v>
+      </c>
+      <c r="H80" t="str">
+        <v>2024년 개인정보보호 컨설팅 사업</v>
+      </c>
+      <c r="I80" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="J80">
+        <v>70000000</v>
+      </c>
+      <c r="K80" t="str">
+        <v>정보기술기반과</v>
+      </c>
+      <c r="L80" t="str">
+        <v>김혜원</v>
+      </c>
+      <c r="M80" t="str">
+        <v>02-590-0569</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v>1178</v>
+      </c>
+      <c r="B81" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C81" t="str">
+        <v>신규</v>
+      </c>
+      <c r="D81" t="str">
+        <v>재단법인 광주정보.문화산업진흥원</v>
+      </c>
+      <c r="E81" t="str">
+        <v>2024년 06월</v>
+      </c>
+      <c r="F81" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="G81" t="str">
+        <v>일반경쟁</v>
+      </c>
+      <c r="H81" t="str">
+        <v>호남지역 정보보호 인력양성 교육 및 인식제고 세미나</v>
+      </c>
+      <c r="I81" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="J81">
+        <v>190000000</v>
+      </c>
+      <c r="K81" t="str">
+        <v>SW진흥팀</v>
+      </c>
+      <c r="L81" t="str">
+        <v>금지윤</v>
+      </c>
+      <c r="M81" t="str">
+        <v>062-610-9563</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v>1190</v>
+      </c>
+      <c r="B82" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C82" t="str">
+        <v>신규</v>
+      </c>
+      <c r="D82" t="str">
+        <v>재단법인 서울관광재단</v>
+      </c>
+      <c r="E82" t="str">
+        <v>2024년 06월</v>
+      </c>
+      <c r="F82" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="G82" t="str">
+        <v>제한경쟁</v>
+      </c>
+      <c r="H82" t="str">
+        <v>2024 해외관광박람회 서울 단독 홍보관 설치 및 운영</v>
+      </c>
+      <c r="I82" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="J82">
+        <v>314000000</v>
+      </c>
+      <c r="K82" t="str">
+        <v>글로벌관광산업팀</v>
+      </c>
+      <c r="L82" t="str">
+        <v>김윤영</v>
+      </c>
+      <c r="M82" t="str">
+        <v>02-3788-0890</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="str">
+        <v>1214</v>
+      </c>
+      <c r="B83" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C83" t="str">
+        <v>신규</v>
+      </c>
+      <c r="D83" t="str">
+        <v>외교부</v>
+      </c>
+      <c r="E83" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="F83" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="G83" t="str">
+        <v>제한경쟁</v>
+      </c>
+      <c r="H83" t="str">
+        <v>2024년 정보시스템 모의해킹 및 취약점 분석</v>
+      </c>
+      <c r="I83" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="J83">
+        <v>45000000</v>
+      </c>
+      <c r="K83" t="str">
+        <v>외교정보보안담당관실</v>
+      </c>
+      <c r="L83" t="str">
+        <v>류병규</v>
+      </c>
+      <c r="M83" t="str">
+        <v>02-2100-6877</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="str">
+        <v>1265</v>
+      </c>
+      <c r="B84" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C84" t="str">
+        <v>신규</v>
+      </c>
+      <c r="D84" t="str">
+        <v>재단법인 식생활안전관리원</v>
+      </c>
+      <c r="E84" t="str">
+        <v>2024년 06월</v>
+      </c>
+      <c r="F84" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="G84" t="str">
+        <v>일반경쟁</v>
+      </c>
+      <c r="H84" t="str">
+        <v>어린이 식품정보 취득 행태 및 학교 식생활 영양교육 실태 조사</v>
+      </c>
+      <c r="I84" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="J84">
+        <v>95000000</v>
+      </c>
+      <c r="K84" t="str">
+        <v>식생활교육팀</v>
+      </c>
+      <c r="L84" t="str">
+        <v>김영아</v>
+      </c>
+      <c r="M84" t="str">
+        <v>043-238-9363</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v>1301</v>
+      </c>
+      <c r="B85" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C85" t="str">
+        <v>신규</v>
+      </c>
+      <c r="D85" t="str">
+        <v>배화여자대학교</v>
+      </c>
+      <c r="E85" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="F85" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="G85" t="str">
+        <v>제한경쟁</v>
+      </c>
+      <c r="H85" t="str">
+        <v>배화여자대학교 해외취업지원프로그램 운영기관 선정</v>
+      </c>
+      <c r="I85" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="J85">
+        <v>48000000</v>
+      </c>
+      <c r="K85" t="str">
+        <v>총무처</v>
+      </c>
+      <c r="L85" t="str">
+        <v>박병서</v>
+      </c>
+      <c r="M85" t="str">
+        <v>02-399-0893</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v>1319</v>
+      </c>
+      <c r="B86" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C86" t="str">
+        <v>신규</v>
+      </c>
+      <c r="D86" t="str">
+        <v>한국원자력안전기술원</v>
+      </c>
+      <c r="E86" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="F86" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="G86" t="str">
+        <v>수의계약</v>
+      </c>
+      <c r="H86" t="str">
+        <v>2024 원자력안전규제정보회의 관계기관 홍보관 운영</v>
+      </c>
+      <c r="I86" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="J86">
+        <v>26000000</v>
+      </c>
+      <c r="K86" t="str">
+        <v>구매자산실</v>
+      </c>
+      <c r="L86" t="str">
+        <v>강완서</v>
+      </c>
+      <c r="M86" t="str">
+        <v>042-868-0565</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="str">
+        <v>1394</v>
+      </c>
+      <c r="B87" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C87" t="str">
+        <v>신규</v>
+      </c>
+      <c r="D87" t="str">
+        <v>경상남도 하동군</v>
+      </c>
+      <c r="E87" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="F87" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="G87" t="str">
+        <v>제한경쟁</v>
+      </c>
+      <c r="H87" t="str">
+        <v>계항지구 풍수해생활권 종합정비사업 법정보호종 포획·이주 및 모니터링 용역</v>
+      </c>
+      <c r="I87" t="str">
+        <v>기술용역</v>
+      </c>
+      <c r="J87">
+        <v>232145000</v>
+      </c>
+      <c r="K87" t="str">
+        <v>안전교통과</v>
+      </c>
+      <c r="L87" t="str">
+        <v>최용혁</v>
+      </c>
+      <c r="M87" t="str">
+        <v>055-880-2253</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="str">
+        <v>1471</v>
+      </c>
+      <c r="B88" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C88" t="str">
+        <v>신규</v>
+      </c>
+      <c r="D88" t="str">
+        <v>국가유산청 국립문화유산연구원</v>
+      </c>
+      <c r="E88" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="F88" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="G88" t="str">
+        <v>제한경쟁</v>
+      </c>
+      <c r="H88" t="str">
+        <v>국립문화유산연구원 디지털 연구정보 미래모델 탐색연구 용역</v>
+      </c>
+      <c r="I88" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="J88">
+        <v>60000000</v>
+      </c>
+      <c r="K88" t="str">
+        <v>디지털문화유산연구정보팀</v>
+      </c>
+      <c r="L88" t="str">
+        <v>이희준</v>
+      </c>
+      <c r="M88" t="str">
+        <v>042-860-9178</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="str">
+        <v>1483</v>
+      </c>
+      <c r="B89" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C89" t="str">
+        <v>신규</v>
+      </c>
+      <c r="D89" t="str">
+        <v>국회 국회예산정책처</v>
+      </c>
+      <c r="E89" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="F89" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="G89" t="str">
+        <v>수의계약</v>
+      </c>
+      <c r="H89" t="str">
+        <v>해외 사례 분석을 통한 국내 공공주택공급 정책의 개선방안 연구</v>
+      </c>
+      <c r="I89" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="J89">
+        <v>30000000</v>
+      </c>
+      <c r="K89" t="str">
+        <v>국회예산정책처 총무담당관실</v>
+      </c>
+      <c r="L89" t="str">
+        <v>장아련</v>
+      </c>
+      <c r="M89" t="str">
+        <v>02-6788-4615</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="str">
+        <v>1516</v>
+      </c>
+      <c r="B90" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C90" t="str">
+        <v>신규</v>
+      </c>
+      <c r="D90" t="str">
+        <v>재단법인안양산업진흥원</v>
+      </c>
+      <c r="E90" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="F90" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="G90" t="str">
+        <v>제한경쟁</v>
+      </c>
+      <c r="H90" t="str">
+        <v>2024년 해외시장개척단 파견 운영 용역</v>
+      </c>
+      <c r="I90" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="J90">
+        <v>140000000</v>
+      </c>
+      <c r="K90" t="str">
+        <v>기업육성부</v>
+      </c>
+      <c r="L90" t="str">
+        <v>안재민</v>
+      </c>
+      <c r="M90" t="str">
+        <v>031-8045-6725</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="str">
+        <v>1519</v>
+      </c>
+      <c r="B91" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C91" t="str">
+        <v>신규</v>
+      </c>
+      <c r="D91" t="str">
+        <v>한국표준과학연구원</v>
+      </c>
+      <c r="E91" t="str">
+        <v>2024년 06월</v>
+      </c>
+      <c r="F91" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="G91" t="str">
+        <v>제한경쟁</v>
+      </c>
+      <c r="H91" t="str">
+        <v>측정표준 연구성과 전주기 관리, 활용을 위한 정보시스템 구축</v>
+      </c>
+      <c r="I91" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="J91">
+        <v>100000000</v>
+      </c>
+      <c r="K91" t="str">
+        <v>구매자산실</v>
+      </c>
+      <c r="L91" t="str">
+        <v>장재민</v>
+      </c>
+      <c r="M91" t="str">
+        <v>042-868-5536</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="str">
+        <v>1538</v>
+      </c>
+      <c r="B92" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C92" t="str">
+        <v>신규</v>
+      </c>
+      <c r="D92" t="str">
+        <v>식품의약품안전처</v>
+      </c>
+      <c r="E92" t="str">
+        <v>2024년 06월</v>
+      </c>
+      <c r="F92" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="G92" t="str">
+        <v>제한경쟁</v>
+      </c>
+      <c r="H92" t="str">
+        <v>2024년도 수입식품통합정보시스템 고도화 감리</v>
+      </c>
+      <c r="I92" t="str">
+        <v>기술용역</v>
+      </c>
+      <c r="J92">
+        <v>30000000</v>
+      </c>
+      <c r="K92" t="str">
+        <v>디지털수입안전기획팀</v>
+      </c>
+      <c r="L92" t="str">
+        <v>정진수</v>
+      </c>
+      <c r="M92" t="str">
+        <v>043-719-6175</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="str">
+        <v>1654</v>
+      </c>
+      <c r="B93" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C93" t="str">
+        <v>신규</v>
+      </c>
+      <c r="D93" t="str">
+        <v>부산광역시교육청 부산광역시남부교육지원청</v>
+      </c>
+      <c r="E93" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="F93" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="G93" t="str">
+        <v>제한경쟁</v>
+      </c>
+      <c r="H93" t="str">
+        <v>부산서중학교 교사개축 전기, 정보통신, 소방공사 설계용역(계속비)</v>
+      </c>
+      <c r="I93" t="str">
+        <v>기술용역</v>
+      </c>
+      <c r="J93">
+        <v>149000000</v>
+      </c>
+      <c r="K93" t="str">
+        <v>시설지원과</v>
+      </c>
+      <c r="L93" t="str">
+        <v>천확용</v>
+      </c>
+      <c r="M93" t="str">
+        <v>051-640-0383</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="str">
+        <v>1755</v>
+      </c>
+      <c r="B94" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C94" t="str">
+        <v>신규</v>
+      </c>
+      <c r="D94" t="str">
+        <v>질병관리청 국립보건연구원</v>
+      </c>
+      <c r="E94" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="F94" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="G94" t="str">
+        <v>제한경쟁</v>
+      </c>
+      <c r="H94" t="str">
+        <v>[정보화] 공공백신 종합정보시스템 2차년도 기능개선</v>
+      </c>
+      <c r="I94" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="J94">
+        <v>98000000</v>
+      </c>
+      <c r="K94" t="str">
+        <v>운영지원과</v>
+      </c>
+      <c r="L94" t="str">
+        <v>김정언</v>
+      </c>
+      <c r="M94" t="str">
+        <v>043-719-8137</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="str">
+        <v>1759</v>
+      </c>
+      <c r="B95" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C95" t="str">
+        <v>신규</v>
+      </c>
+      <c r="D95" t="str">
+        <v>대전광역시교육청 대전도시과학고등학교</v>
+      </c>
+      <c r="E95" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="F95" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="G95" t="str">
+        <v>제한경쟁</v>
+      </c>
+      <c r="H95" t="str">
+        <v>대전도시과학고등학교 해외 직무역량향상 캠프 위탁용역 입찰 재공고</v>
+      </c>
+      <c r="I95" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="J95">
+        <v>36399780</v>
+      </c>
+      <c r="K95" t="str">
+        <v>산학협력부</v>
+      </c>
+      <c r="L95" t="str">
+        <v>윤경훈</v>
+      </c>
+      <c r="M95" t="str">
+        <v>042-540-2137</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="str">
+        <v>1760</v>
+      </c>
+      <c r="B96" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C96" t="str">
+        <v>신규</v>
+      </c>
+      <c r="D96" t="str">
+        <v>한국농수산식품유통공사</v>
+      </c>
+      <c r="E96" t="str">
+        <v>2024년 06월</v>
+      </c>
+      <c r="F96" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="G96" t="str">
+        <v>제한경쟁</v>
+      </c>
+      <c r="H96" t="str">
+        <v>2024년 농식품 수출국가 및 품목정보조사</v>
+      </c>
+      <c r="I96" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="J96">
+        <v>150000000</v>
+      </c>
+      <c r="K96" t="str">
+        <v>수출푸드테크정보부</v>
+      </c>
+      <c r="L96" t="str">
+        <v>김여경</v>
+      </c>
+      <c r="M96" t="str">
+        <v>061-931-0874</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="str">
+        <v>1763</v>
+      </c>
+      <c r="B97" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C97" t="str">
+        <v>신규</v>
+      </c>
+      <c r="D97" t="str">
+        <v>대구광역시</v>
+      </c>
+      <c r="E97" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="F97" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="G97" t="str">
+        <v>제한경쟁</v>
+      </c>
+      <c r="H97" t="str">
+        <v>군위군 3D 공간정보 신규제작 용역</v>
+      </c>
+      <c r="I97" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="J97">
+        <v>399540000</v>
+      </c>
+      <c r="K97" t="str">
+        <v>토지정보과</v>
+      </c>
+      <c r="L97" t="str">
+        <v>장선미</v>
+      </c>
+      <c r="M97" t="str">
+        <v>053-803-3672</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="str">
+        <v>1770</v>
+      </c>
+      <c r="B98" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C98" t="str">
+        <v>신규</v>
+      </c>
+      <c r="D98" t="str">
+        <v>서원대학교</v>
+      </c>
+      <c r="E98" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="F98" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="G98" t="str">
+        <v>제한경쟁</v>
+      </c>
+      <c r="H98" t="str">
+        <v>2024학년도 서원대학교 정보시스템 통합유지보수 용역 업체 선정</v>
+      </c>
+      <c r="I98" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="J98">
+        <v>660000000</v>
+      </c>
+      <c r="K98" t="str">
+        <v>전산정보팀</v>
+      </c>
+      <c r="L98" t="str">
+        <v>배동준</v>
+      </c>
+      <c r="M98" t="str">
+        <v>043-299-8080</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="str">
+        <v>1786</v>
+      </c>
+      <c r="B99" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C99" t="str">
+        <v>신규</v>
+      </c>
+      <c r="D99" t="str">
+        <v>광복회</v>
+      </c>
+      <c r="E99" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="F99" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="G99" t="str">
+        <v>제한경쟁</v>
+      </c>
+      <c r="H99" t="str">
+        <v>광복회 해외 독립운동 역사교육 (독일)</v>
+      </c>
+      <c r="I99" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="J99">
+        <v>70000000</v>
+      </c>
+      <c r="K99" t="str">
+        <v>대외협력국</v>
+      </c>
+      <c r="L99" t="str">
+        <v>임소희</v>
+      </c>
+      <c r="M99" t="str">
+        <v>02-780-0816</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="str">
+        <v>1790</v>
+      </c>
+      <c r="B100" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C100" t="str">
+        <v>신규</v>
+      </c>
+      <c r="D100" t="str">
+        <v>군산간호대학교산학협력단</v>
+      </c>
+      <c r="E100" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="F100" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="G100" t="str">
+        <v>일반경쟁</v>
+      </c>
+      <c r="H100" t="str">
+        <v>2024년 해외 현장학습 및 전공 연수</v>
+      </c>
+      <c r="I100" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="J100">
+        <v>62000000</v>
+      </c>
+      <c r="K100" t="str">
+        <v>기획처</v>
+      </c>
+      <c r="L100" t="str">
+        <v>김영진</v>
+      </c>
+      <c r="M100" t="str">
+        <v>063-450-3922</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="str">
+        <v>1826</v>
+      </c>
+      <c r="B101" t="str">
+        <v>용역</v>
+      </c>
+      <c r="D101" t="str">
+        <v>한국도로공사</v>
+      </c>
+      <c r="E101" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="F101" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="G101" t="str">
+        <v>수의계약</v>
+      </c>
+      <c r="H101" t="str">
+        <v>상주지사 가로등 위치정보화 작업 용역</v>
+      </c>
+      <c r="I101" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="J101">
+        <v>15000000</v>
+      </c>
+      <c r="K101" t="str">
+        <v>상주지사 도로안전팀</v>
+      </c>
+      <c r="L101" t="str">
+        <v>이성운</v>
+      </c>
+      <c r="M101" t="str">
+        <v>054-711-6752</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="str">
+        <v>1844</v>
+      </c>
+      <c r="B102" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C102" t="str">
+        <v>신규</v>
+      </c>
+      <c r="D102" t="str">
+        <v>사단법인 한국정보통신진흥협회</v>
+      </c>
+      <c r="E102" t="str">
+        <v>2024년 06월</v>
+      </c>
+      <c r="F102" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="G102" t="str">
+        <v>일반경쟁</v>
+      </c>
+      <c r="H102" t="str">
+        <v>정보통신기술자격 자격증 배송</v>
+      </c>
+      <c r="I102" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="J102">
+        <v>60000000</v>
+      </c>
+      <c r="K102" t="str">
+        <v>디지털인재양성팀</v>
+      </c>
+      <c r="L102" t="str">
+        <v>조연희</v>
+      </c>
+      <c r="M102" t="str">
+        <v>02-580-0737</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="str">
+        <v>1847</v>
+      </c>
+      <c r="B103" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C103" t="str">
+        <v>신규</v>
+      </c>
+      <c r="D103" t="str">
+        <v>충청남도교육청 금산하이텍고등학교</v>
+      </c>
+      <c r="E103" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="F103" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="G103" t="str">
+        <v>제한경쟁</v>
+      </c>
+      <c r="H103" t="str">
+        <v>2024학년도 금산하이텍고등학교 세계문화유산 해외탐방(수학여행) 위탁용역</v>
+      </c>
+      <c r="I103" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="J103">
+        <v>87718000</v>
+      </c>
+      <c r="K103" t="str">
+        <v>금산하이텍고등학</v>
+      </c>
+      <c r="L103" t="str">
+        <v>이은숙</v>
+      </c>
+      <c r="M103" t="str">
+        <v>041-752-4376</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="str">
+        <v>1848</v>
+      </c>
+      <c r="B104" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C104" t="str">
+        <v>신규</v>
+      </c>
+      <c r="D104" t="str">
+        <v>제주대학교 산학협력단</v>
+      </c>
+      <c r="E104" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="F104" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="G104" t="str">
+        <v>제한경쟁</v>
+      </c>
+      <c r="H104" t="str">
+        <v>큐브위성 및 위성임무운영 교육 프로그램 해외연수 위탁대행 용역</v>
+      </c>
+      <c r="I104" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="J104">
+        <v>99000000</v>
+      </c>
+      <c r="K104" t="str">
+        <v>제주대학교 산학협력단</v>
+      </c>
+      <c r="L104" t="str">
+        <v>현성준</v>
+      </c>
+      <c r="M104" t="str">
+        <v>064-754-2417</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="str">
+        <v>1933</v>
+      </c>
+      <c r="B105" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C105" t="str">
+        <v>신규</v>
+      </c>
+      <c r="D105" t="str">
+        <v>한국에너지기술연구원</v>
+      </c>
+      <c r="E105" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="F105" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="G105" t="str">
+        <v>제한경쟁</v>
+      </c>
+      <c r="H105" t="str">
+        <v>2024년도 주요정보통신기반시설 취약점 분석·평가 사업</v>
+      </c>
+      <c r="I105" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="J105">
+        <v>50000000</v>
+      </c>
+      <c r="K105" t="str">
+        <v>정보보안팀</v>
+      </c>
+      <c r="L105" t="str">
+        <v>김순환</v>
+      </c>
+      <c r="M105" t="str">
+        <v>042-860-3722</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="str">
+        <v>1940</v>
+      </c>
+      <c r="B106" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C106" t="str">
+        <v>신규</v>
+      </c>
+      <c r="D106" t="str">
+        <v>경기도교육청 오산정보고등학교</v>
+      </c>
+      <c r="E106" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="F106" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="G106" t="str">
+        <v>제한경쟁</v>
+      </c>
+      <c r="H106" t="str">
+        <v>2024학년도 오산정보고등학교 2학년 현장체험학습(강원도) 위탁 용역</v>
+      </c>
+      <c r="I106" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="J106">
+        <v>103430060</v>
+      </c>
+      <c r="K106" t="str">
+        <v>교육행정실</v>
+      </c>
+      <c r="L106" t="str">
+        <v>박성일</v>
+      </c>
+      <c r="M106" t="str">
+        <v>031-370-5604</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="str">
+        <v>1951</v>
+      </c>
+      <c r="B107" t="str">
+        <v>용역</v>
+      </c>
+      <c r="D107" t="str">
+        <v>한국생산기술연구원</v>
+      </c>
+      <c r="E107" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="F107" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="G107" t="str">
+        <v>제한경쟁</v>
+      </c>
+      <c r="H107" t="str">
+        <v>정보화전략계획서비스</v>
+      </c>
+      <c r="I107" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="J107">
+        <v>83500000</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="str">
+        <v>1996</v>
+      </c>
+      <c r="B108" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C108" t="str">
+        <v>신규</v>
+      </c>
+      <c r="D108" t="str">
+        <v>충청북도교육청</v>
+      </c>
+      <c r="E108" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="F108" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="G108" t="str">
+        <v>수의계약</v>
+      </c>
+      <c r="H108" t="str">
+        <v>충청북도교육연구정보원 연결다리 보수공사 및 기타공사 설계용역</v>
+      </c>
+      <c r="I108" t="str">
+        <v>기술용역</v>
+      </c>
+      <c r="J108">
+        <v>7592000</v>
+      </c>
+      <c r="K108" t="str">
+        <v>교육시설과</v>
+      </c>
+      <c r="L108" t="str">
+        <v>박성원</v>
+      </c>
+      <c r="M108" t="str">
+        <v>043-290-2627</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="str">
+        <v>15</v>
+      </c>
+      <c r="B109" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C109" t="str">
+        <v>신규</v>
+      </c>
+      <c r="D109" t="str">
+        <v>국방부 국군재정관리단</v>
+      </c>
+      <c r="E109" t="str">
+        <v>2024년 06월</v>
+      </c>
+      <c r="F109" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="G109" t="str">
+        <v>제한경쟁</v>
+      </c>
+      <c r="H109" t="str">
+        <v>24F211-A 부품단종 정보 획득용역</v>
+      </c>
+      <c r="I109" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="J109">
+        <v>99970000</v>
+      </c>
+      <c r="K109" t="str">
+        <v>국군재정관리단 계약체 제1물자계약과</v>
+      </c>
+      <c r="L109" t="str">
+        <v>이경희</v>
+      </c>
+      <c r="M109" t="str">
+        <v>042-616-4134</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="str">
+        <v>24</v>
+      </c>
+      <c r="B110" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C110" t="str">
+        <v>신규</v>
+      </c>
+      <c r="D110" t="str">
+        <v>국립암센터</v>
+      </c>
+      <c r="E110" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="F110" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="G110" t="str">
+        <v>제한경쟁</v>
+      </c>
+      <c r="H110" t="str">
+        <v>국가폐암검진 판독지원 및 질관리 정보시스템 고도화 및 유지보수</v>
+      </c>
+      <c r="I110" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="J110">
+        <v>358250000</v>
+      </c>
+      <c r="K110" t="str">
+        <v>물류관리팀</v>
+      </c>
+      <c r="L110" t="str">
+        <v>전효정</v>
+      </c>
+      <c r="M110" t="str">
+        <v>031-920-0470</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="str">
+        <v>31</v>
+      </c>
+      <c r="B111" t="str">
+        <v>용역</v>
+      </c>
+      <c r="D111" t="str">
+        <v>한국수력원자력주식회사</v>
+      </c>
+      <c r="E111" t="str">
+        <v>2024년 06월</v>
+      </c>
+      <c r="F111" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="G111" t="str">
+        <v>일반경쟁</v>
+      </c>
+      <c r="H111" t="str">
+        <v>해외사업 동력 강화를 위한 해외지사(사무소) 운영 개선 용역</v>
+      </c>
+      <c r="I111" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="J111">
+        <v>350690000</v>
+      </c>
+      <c r="L111" t="str">
+        <v>하은주</v>
+      </c>
+      <c r="M111" t="str">
+        <v>054-704-7612</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="str">
+        <v>53</v>
+      </c>
+      <c r="B112" t="str">
+        <v>용역</v>
+      </c>
+      <c r="D112" t="str">
+        <v>한국토지주택공사</v>
+      </c>
+      <c r="E112" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="F112" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="G112" t="str">
+        <v>수의계약</v>
+      </c>
+      <c r="H112" t="str">
+        <v>로앤비 법률정보시스템 제공 용역</v>
+      </c>
+      <c r="I112" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="J112">
+        <v>33790900</v>
+      </c>
+      <c r="K112" t="str">
+        <v>법무처</v>
+      </c>
+      <c r="M112" t="str">
+        <v>0559225186</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="str">
+        <v>124</v>
+      </c>
+      <c r="B113" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C113" t="str">
+        <v>신규</v>
+      </c>
+      <c r="D113" t="str">
+        <v>서울신용보증재단</v>
+      </c>
+      <c r="E113" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="F113" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="G113" t="str">
+        <v>제한경쟁</v>
+      </c>
+      <c r="H113" t="str">
+        <v>2024년 재단 주관 해외연수 용역</v>
+      </c>
+      <c r="I113" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="J113">
+        <v>138123000</v>
+      </c>
+      <c r="K113" t="str">
+        <v>인사부 인재양성팀</v>
+      </c>
+      <c r="L113" t="str">
+        <v>김준엽</v>
+      </c>
+      <c r="M113" t="str">
+        <v>02-2174-5130</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="str">
+        <v>127</v>
+      </c>
+      <c r="B114" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C114" t="str">
+        <v>신규</v>
+      </c>
+      <c r="D114" t="str">
+        <v>경기도 평택시</v>
+      </c>
+      <c r="E114" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="F114" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="G114" t="str">
+        <v>일반경쟁</v>
+      </c>
+      <c r="H114" t="str">
+        <v>2024년도 평택시 버스정보시스템(BIS) 구축사업(협상에 의한 계약)</v>
+      </c>
+      <c r="I114" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="J114">
+        <v>999494600</v>
+      </c>
+      <c r="K114" t="str">
+        <v>대중교통과</v>
+      </c>
+      <c r="L114" t="str">
+        <v>류한상</v>
+      </c>
+      <c r="M114" t="str">
+        <v>031-8024-4691</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="str">
+        <v>148</v>
+      </c>
+      <c r="B115" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C115" t="str">
+        <v>신규</v>
+      </c>
+      <c r="D115" t="str">
+        <v>한국항공우주연구원</v>
+      </c>
+      <c r="E115" t="str">
+        <v>2024년 06월</v>
+      </c>
+      <c r="F115" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="G115" t="str">
+        <v>제한경쟁</v>
+      </c>
+      <c r="H115" t="str">
+        <v>해외 구매물품 국내외 운송 및 수출입 통관 대행 용역</v>
+      </c>
+      <c r="I115" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="J115">
+        <v>7030292</v>
+      </c>
+      <c r="K115" t="str">
+        <v>해외계약실</v>
+      </c>
+      <c r="L115" t="str">
+        <v>서유민</v>
+      </c>
+      <c r="M115" t="str">
+        <v>042-860-2615</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="str">
+        <v>157</v>
+      </c>
+      <c r="B116" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C116" t="str">
+        <v>신규</v>
+      </c>
+      <c r="D116" t="str">
+        <v>해양수산부 해양수산인재개발원</v>
+      </c>
+      <c r="E116" t="str">
+        <v>2024년 06월</v>
+      </c>
+      <c r="F116" t="str">
+        <v>중앙조달</v>
+      </c>
+      <c r="G116" t="str">
+        <v>제한경쟁</v>
+      </c>
+      <c r="H116" t="str">
+        <v>2024년 학사운영정보시스템 기능개선</v>
+      </c>
+      <c r="I116" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="J116">
+        <v>135000000</v>
+      </c>
+      <c r="K116" t="str">
+        <v>교육운영과</v>
+      </c>
+      <c r="L116" t="str">
+        <v>이나은</v>
+      </c>
+      <c r="M116" t="str">
+        <v>051-720-7793</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="str">
+        <v>172</v>
+      </c>
+      <c r="B117" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C117" t="str">
+        <v>신규</v>
+      </c>
+      <c r="D117" t="str">
+        <v>한국자산관리공사</v>
+      </c>
+      <c r="E117" t="str">
+        <v>2024년 06월</v>
+      </c>
+      <c r="F117" t="str">
+        <v>중앙조달</v>
+      </c>
+      <c r="G117" t="str">
+        <v>일반경쟁</v>
+      </c>
+      <c r="H117" t="str">
+        <v>디지털 전환을 위한 중장기 정보화전략계획 및 정보보안 컨설팅</v>
+      </c>
+      <c r="I117" t="str">
+        <v>기술용역</v>
+      </c>
+      <c r="J117">
+        <v>937000000</v>
+      </c>
+      <c r="K117" t="str">
+        <v>디지털시스템실</v>
+      </c>
+      <c r="L117" t="str">
+        <v>정민철</v>
+      </c>
+      <c r="M117" t="str">
+        <v>051-794-3302</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="str">
+        <v>186</v>
+      </c>
+      <c r="B118" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C118" t="str">
+        <v>신규</v>
+      </c>
+      <c r="D118" t="str">
+        <v>(재)대전일자리경제진흥원</v>
+      </c>
+      <c r="E118" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="F118" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="G118" t="str">
+        <v>일반경쟁</v>
+      </c>
+      <c r="H118" t="str">
+        <v>2024 대전 공공구매 기업정보 플랫폼 유지관리 및 기능개선</v>
+      </c>
+      <c r="I118" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="J118">
+        <v>44646324</v>
+      </c>
+      <c r="K118" t="str">
+        <v>통상지원팀</v>
+      </c>
+      <c r="L118" t="str">
+        <v>육지혜</v>
+      </c>
+      <c r="M118" t="str">
+        <v>042-380-3043</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="str">
+        <v>199</v>
+      </c>
+      <c r="B119" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C119" t="str">
+        <v>신규</v>
+      </c>
+      <c r="D119" t="str">
+        <v>대한장애인체육회</v>
+      </c>
+      <c r="E119" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="F119" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="G119" t="str">
+        <v>일반경쟁</v>
+      </c>
+      <c r="H119" t="str">
+        <v>차세대통합정보시스템 구축 감리</v>
+      </c>
+      <c r="I119" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="J119">
+        <v>588000000</v>
+      </c>
+      <c r="K119" t="str">
+        <v>경영지원부</v>
+      </c>
+      <c r="L119" t="str">
+        <v>윤은진</v>
+      </c>
+      <c r="M119" t="str">
+        <v>02-3434-4544</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="str">
+        <v>216</v>
+      </c>
+      <c r="B120" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C120" t="str">
+        <v>신규</v>
+      </c>
+      <c r="D120" t="str">
+        <v>서울특별시교육청 아현산업정보학교</v>
+      </c>
+      <c r="E120" t="str">
+        <v>2024년 06월</v>
+      </c>
+      <c r="F120" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="G120" t="str">
+        <v>수의계약</v>
+      </c>
+      <c r="H120" t="str">
+        <v>아현산업정보학교 교직원 워크숍 전세버스 임대 용역</v>
+      </c>
+      <c r="I120" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="J120">
+        <v>1364000</v>
+      </c>
+      <c r="K120" t="str">
+        <v>아현산업정보학교</v>
+      </c>
+      <c r="L120" t="str">
+        <v>문영미</v>
+      </c>
+      <c r="M120" t="str">
+        <v>02-390-5803</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="str">
+        <v>237</v>
+      </c>
+      <c r="B121" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C121" t="str">
+        <v>신규</v>
+      </c>
+      <c r="D121" t="str">
+        <v>건설근로자공제회</v>
+      </c>
+      <c r="E121" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="F121" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="G121" t="str">
+        <v>제한경쟁</v>
+      </c>
+      <c r="H121" t="str">
+        <v>통합시스템 구축 감리 및 개인정보 영향평가</v>
+      </c>
+      <c r="I121" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="J121">
+        <v>250000000</v>
+      </c>
+      <c r="K121" t="str">
+        <v>IT개선팀</v>
+      </c>
+      <c r="L121" t="str">
+        <v>유용선</v>
+      </c>
+      <c r="M121" t="str">
+        <v>02-519-7712</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="str">
+        <v>242</v>
+      </c>
+      <c r="B122" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C122" t="str">
+        <v>신규</v>
+      </c>
+      <c r="D122" t="str">
+        <v>전북특별자치도교육청 전북특별자치도진안교육지원청 장승초등학교</v>
+      </c>
+      <c r="E122" t="str">
+        <v>2024년 06월</v>
+      </c>
+      <c r="F122" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="G122" t="str">
+        <v>제한경쟁</v>
+      </c>
+      <c r="H122" t="str">
+        <v>2024학년도 장승초등학교 국제교류수업 해외현장체험학습 위탁 용역</v>
+      </c>
+      <c r="I122" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="J122">
+        <v>90000000</v>
+      </c>
+      <c r="K122" t="str">
+        <v>행정실</v>
+      </c>
+      <c r="L122" t="str">
+        <v>박정연</v>
+      </c>
+      <c r="M122" t="str">
+        <v>063-433-2048</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="str">
+        <v>267</v>
+      </c>
+      <c r="B123" t="str">
+        <v>용역</v>
+      </c>
+      <c r="D123" t="str">
+        <v>한국생산기술연구원</v>
+      </c>
+      <c r="E123" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="F123" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="G123" t="str">
+        <v>제한경쟁</v>
+      </c>
+      <c r="H123" t="str">
+        <v>KITECH연구데이터플랫폼 구축 정보시스템마스터플랜(ISMP) 수립</v>
+      </c>
+      <c r="I123" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="J123">
+        <v>180000000</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="str">
+        <v>278</v>
+      </c>
+      <c r="B124" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C124" t="str">
+        <v>신규</v>
+      </c>
+      <c r="D124" t="str">
+        <v>충청북도교육청 충주중산고등학교</v>
+      </c>
+      <c r="E124" t="str">
+        <v>2024년 06월</v>
+      </c>
+      <c r="F124" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="G124" t="str">
+        <v>제한경쟁</v>
+      </c>
+      <c r="H124" t="str">
+        <v>2024학년도 충주중산고등학교 글로벌 인재육성 해외연수 위탁용역 입찰 공고</v>
+      </c>
+      <c r="I124" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="J124">
+        <v>305700000</v>
+      </c>
+      <c r="K124" t="str">
+        <v>충주중산고등학교 행정실</v>
+      </c>
+      <c r="L124" t="str">
+        <v>김선희</v>
+      </c>
+      <c r="M124" t="str">
+        <v>043-851-2783</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="str">
+        <v>296</v>
+      </c>
+      <c r="B125" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C125" t="str">
+        <v>신규</v>
+      </c>
+      <c r="D125" t="str">
+        <v>한국생명공학연구원</v>
+      </c>
+      <c r="E125" t="str">
+        <v>2024년 06월</v>
+      </c>
+      <c r="F125" t="str">
+        <v>중앙조달</v>
+      </c>
+      <c r="G125" t="str">
+        <v>제한경쟁</v>
+      </c>
+      <c r="H125" t="str">
+        <v>2024년 국가연구안전관리본부 정보시스템(LABS, EDU) 고도화</v>
+      </c>
+      <c r="I125" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="J125">
+        <v>235840000</v>
+      </c>
+      <c r="K125" t="str">
+        <v>구매자산실</v>
+      </c>
+      <c r="L125" t="str">
+        <v>최규선</v>
+      </c>
+      <c r="M125" t="str">
+        <v>042-860-4041</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="str">
+        <v>297</v>
+      </c>
+      <c r="B126" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C126" t="str">
+        <v>신규</v>
+      </c>
+      <c r="D126" t="str">
+        <v>충청남도교육청 건양대학교병설건양고등학교</v>
+      </c>
+      <c r="E126" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="F126" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="G126" t="str">
+        <v>제한경쟁</v>
+      </c>
+      <c r="H126" t="str">
+        <v>2024학년도 건양고 미래인재 해외체험 2단계(가격규격동시) 입찰공고건</v>
+      </c>
+      <c r="I126" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="J126">
+        <v>161000000</v>
+      </c>
+      <c r="K126" t="str">
+        <v>행정실</v>
+      </c>
+      <c r="L126" t="str">
+        <v>서득수</v>
+      </c>
+      <c r="M126" t="str">
+        <v>041-741-8872</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="str">
+        <v>305</v>
+      </c>
+      <c r="B127" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C127" t="str">
+        <v>신규</v>
+      </c>
+      <c r="D127" t="str">
+        <v>충청남도교육청 건양대학교병설건양고등학교</v>
+      </c>
+      <c r="E127" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="F127" t="str">
+        <v>중앙조달</v>
+      </c>
+      <c r="G127" t="str">
+        <v>제한경쟁</v>
+      </c>
+      <c r="H127" t="str">
+        <v>2024학년도 건양고 미래인재 해외체험 2단계(가격규격동시) 입찰공고건</v>
+      </c>
+      <c r="I127" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="J127">
+        <v>161000000</v>
+      </c>
+      <c r="K127" t="str">
+        <v>행정실</v>
+      </c>
+      <c r="L127" t="str">
+        <v>서득수</v>
+      </c>
+      <c r="M127" t="str">
+        <v>041-741-8872</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="str">
+        <v>322</v>
+      </c>
+      <c r="B128" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C128" t="str">
+        <v>신규</v>
+      </c>
+      <c r="D128" t="str">
+        <v>경상남도교육청 경상남도창녕교육지원청</v>
+      </c>
+      <c r="E128" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="F128" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="G128" t="str">
+        <v>제한경쟁</v>
+      </c>
+      <c r="H128" t="str">
+        <v>2024. 창녕영재교육원 해외체험학습 용역</v>
+      </c>
+      <c r="I128" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="J128">
+        <v>91581900</v>
+      </c>
+      <c r="K128" t="str">
+        <v>평생체육담당</v>
+      </c>
+      <c r="L128" t="str">
+        <v>노화성</v>
+      </c>
+      <c r="M128" t="str">
+        <v>055-530-3541</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="str">
+        <v>349</v>
+      </c>
+      <c r="B129" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C129" t="str">
+        <v>신규</v>
+      </c>
+      <c r="D129" t="str">
+        <v>한우자조금관리위원회</v>
+      </c>
+      <c r="E129" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="F129" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="G129" t="str">
+        <v>일반경쟁</v>
+      </c>
+      <c r="H129" t="str">
+        <v>2024년 한우자조금 생산정보 모니터링 조사용역</v>
+      </c>
+      <c r="I129" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="J129">
+        <v>60000000</v>
+      </c>
+      <c r="K129" t="str">
+        <v>교육조사부</v>
+      </c>
+      <c r="L129" t="str">
+        <v>이동주</v>
+      </c>
+      <c r="M129" t="str">
+        <v>02-522-3607</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="str">
+        <v>355</v>
+      </c>
+      <c r="B130" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C130" t="str">
+        <v>신규</v>
+      </c>
+      <c r="D130" t="str">
+        <v>사단법인 한국사회복지사협회</v>
+      </c>
+      <c r="E130" t="str">
+        <v>2024년 06월</v>
+      </c>
+      <c r="F130" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="G130" t="str">
+        <v>제한경쟁</v>
+      </c>
+      <c r="H130" t="str">
+        <v>2024년 한국사회복지사협회 임원 해외연수</v>
+      </c>
+      <c r="I130" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="J130">
+        <v>62500000</v>
+      </c>
+      <c r="K130" t="str">
+        <v>운영지원본부</v>
+      </c>
+      <c r="L130" t="str">
+        <v>전선화</v>
+      </c>
+      <c r="M130" t="str">
+        <v>02-786-0190</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="str">
+        <v>368</v>
+      </c>
+      <c r="B131" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C131" t="str">
+        <v>신규</v>
+      </c>
+      <c r="D131" t="str">
+        <v>도로교통공단</v>
+      </c>
+      <c r="E131" t="str">
+        <v>2024년 06월</v>
+      </c>
+      <c r="F131" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="G131" t="str">
+        <v>수의계약</v>
+      </c>
+      <c r="H131" t="str">
+        <v>2024년 도시교통정보센터 SW고도화 사업 감리 용역</v>
+      </c>
+      <c r="I131" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="J131">
+        <v>40600000</v>
+      </c>
+      <c r="K131" t="str">
+        <v>첨단교통연구처</v>
+      </c>
+      <c r="L131" t="str">
+        <v>정영대</v>
+      </c>
+      <c r="M131" t="str">
+        <v>02-3495-2072</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="str">
+        <v>400</v>
+      </c>
+      <c r="B132" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C132" t="str">
+        <v>신규</v>
+      </c>
+      <c r="D132" t="str">
+        <v>(주)이지메디컴</v>
+      </c>
+      <c r="E132" t="str">
+        <v>2024년 06월</v>
+      </c>
+      <c r="F132" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="G132" t="str">
+        <v>제한경쟁</v>
+      </c>
+      <c r="H132" t="str">
+        <v>[용역][국립소방병원] 통합의료정보시스템 구축사업(HIS 및 HIS연계솔루션 구축) 용역 제안요청서</v>
+      </c>
+      <c r="I132" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="J132">
+        <v>0</v>
+      </c>
+      <c r="K132" t="str">
+        <v>약품&amp;MRO</v>
+      </c>
+      <c r="L132" t="str">
+        <v>이수정</v>
+      </c>
+      <c r="M132" t="str">
+        <v>02-3016-7784</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="str">
+        <v>408</v>
+      </c>
+      <c r="B133" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C133" t="str">
+        <v>신규</v>
+      </c>
+      <c r="D133" t="str">
+        <v>한국청소년활동진흥원</v>
+      </c>
+      <c r="E133" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="F133" t="str">
+        <v>중앙조달</v>
+      </c>
+      <c r="G133" t="str">
+        <v>제한경쟁</v>
+      </c>
+      <c r="H133" t="str">
+        <v>2024년 청소년활동정보서비스 기능개선 사업</v>
+      </c>
+      <c r="I133" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="J133">
+        <v>420000000</v>
+      </c>
+      <c r="K133" t="str">
+        <v>정보안전부</v>
+      </c>
+      <c r="L133" t="str">
+        <v>서승원</v>
+      </c>
+      <c r="M133" t="str">
+        <v>02-6959-7139</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="str">
+        <v>439</v>
+      </c>
+      <c r="B134" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C134" t="str">
+        <v>신규</v>
+      </c>
+      <c r="D134" t="str">
+        <v>(재)제주평생교육장학진흥원</v>
+      </c>
+      <c r="E134" t="str">
+        <v>2024년 06월</v>
+      </c>
+      <c r="F134" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="G134" t="str">
+        <v>제한경쟁</v>
+      </c>
+      <c r="H134" t="str">
+        <v>2024년「제주청년해외연수」용역</v>
+      </c>
+      <c r="I134" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="J134">
+        <v>120000000</v>
+      </c>
+      <c r="K134" t="str">
+        <v>경영기획부</v>
+      </c>
+      <c r="L134" t="str">
+        <v>고성준</v>
+      </c>
+      <c r="M134" t="str">
+        <v>064-726-9972</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="str">
+        <v>474</v>
+      </c>
+      <c r="B135" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C135" t="str">
+        <v>신규</v>
+      </c>
+      <c r="D135" t="str">
+        <v>부산광역시교육청 부산광역시동래교육지원청</v>
+      </c>
+      <c r="E135" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="F135" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="G135" t="str">
+        <v>수의계약</v>
+      </c>
+      <c r="H135" t="str">
+        <v>거학초등학교 그린스마트스쿨 리모델링 전기, 정보통신, 소방공사 설계용역</v>
+      </c>
+      <c r="I135" t="str">
+        <v>기술용역</v>
+      </c>
+      <c r="J135">
+        <v>81099000</v>
+      </c>
+      <c r="K135" t="str">
+        <v>시설지원과</v>
+      </c>
+      <c r="L135" t="str">
+        <v>김학태</v>
+      </c>
+      <c r="M135" t="str">
+        <v>051-550-0234</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="str">
+        <v>522</v>
+      </c>
+      <c r="B136" t="str">
+        <v>용역</v>
+      </c>
+      <c r="D136" t="str">
+        <v>한국수자원공사</v>
+      </c>
+      <c r="E136" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="F136" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="G136" t="str">
+        <v>수의계약</v>
+      </c>
+      <c r="H136" t="str">
+        <v>단양(정) 화상감시설비 제조구매설치 정보통신공사 감리용역</v>
+      </c>
+      <c r="I136" t="str">
+        <v>기술용역</v>
+      </c>
+      <c r="J136">
+        <v>15100000</v>
+      </c>
+      <c r="K136" t="str">
+        <v>단양수도지사</v>
+      </c>
+      <c r="L136" t="str">
+        <v>오경식</v>
+      </c>
+      <c r="M136" t="str">
+        <v>043-420-2333</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="str">
+        <v>559</v>
+      </c>
+      <c r="B137" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C137" t="str">
+        <v>신규</v>
+      </c>
+      <c r="D137" t="str">
+        <v>기상청 국가기상위성센터</v>
+      </c>
+      <c r="E137" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="F137" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="G137" t="str">
+        <v>제한경쟁</v>
+      </c>
+      <c r="H137" t="str">
+        <v>기상위성정보 사용자 현장의견 수렴을 위한 시연회, 간담회 및 워크숍 개최</v>
+      </c>
+      <c r="I137" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="J137">
+        <v>70000000</v>
+      </c>
+      <c r="K137" t="str">
+        <v>위성기획과</v>
+      </c>
+      <c r="L137" t="str">
+        <v>박근선</v>
+      </c>
+      <c r="M137" t="str">
+        <v>070-7850-5708</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="str">
+        <v>577</v>
+      </c>
+      <c r="B138" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C138" t="str">
+        <v>신규</v>
+      </c>
+      <c r="D138" t="str">
+        <v>새마을금고중앙회</v>
+      </c>
+      <c r="E138" t="str">
+        <v>2024년 06월</v>
+      </c>
+      <c r="F138" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="G138" t="str">
+        <v>일반경쟁</v>
+      </c>
+      <c r="H138" t="str">
+        <v>2024년 새마을금고 정보보호 강화 구축(재공고)</v>
+      </c>
+      <c r="I138" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="J138">
+        <v>4407817370</v>
+      </c>
+      <c r="K138" t="str">
+        <v>총무계약부</v>
+      </c>
+      <c r="L138" t="str">
+        <v>이경아</v>
+      </c>
+      <c r="M138" t="str">
+        <v>02-2145-9052</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="str">
+        <v>631</v>
+      </c>
+      <c r="B139" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C139" t="str">
+        <v>신규</v>
+      </c>
+      <c r="D139" t="str">
+        <v>한국환경공단 대구경북환경본부</v>
+      </c>
+      <c r="E139" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="F139" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="G139" t="str">
+        <v>수의계약</v>
+      </c>
+      <c r="H139" t="str">
+        <v>경산시 자원회수시설 증설 민간투자사업 정보통신공사 감리용역</v>
+      </c>
+      <c r="I139" t="str">
+        <v>기술용역</v>
+      </c>
+      <c r="J139">
+        <v>67866000</v>
+      </c>
+      <c r="K139" t="str">
+        <v>대구경북환경본부 환경시설관리처 시설사업1부</v>
+      </c>
+      <c r="L139" t="str">
+        <v>장홍훈</v>
+      </c>
+      <c r="M139" t="str">
+        <v>053-856-4555</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="str">
+        <v>650</v>
+      </c>
+      <c r="B140" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C140" t="str">
+        <v>신규</v>
+      </c>
+      <c r="D140" t="str">
+        <v>한국무역협회</v>
+      </c>
+      <c r="E140" t="str">
+        <v>2024년 06월</v>
+      </c>
+      <c r="F140" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="G140" t="str">
+        <v>일반경쟁</v>
+      </c>
+      <c r="H140" t="str">
+        <v>2024 부천 해외바이어 수출상담회</v>
+      </c>
+      <c r="I140" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="J140">
+        <v>80000000</v>
+      </c>
+      <c r="K140" t="str">
+        <v>경기북부지역본부</v>
+      </c>
+      <c r="L140" t="str">
+        <v>손창우</v>
+      </c>
+      <c r="M140" t="str">
+        <v>031-995-6166</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="str">
+        <v>657</v>
+      </c>
+      <c r="B141" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C141" t="str">
+        <v>신규</v>
+      </c>
+      <c r="D141" t="str">
+        <v>대구광역시교육청 대구외국어고등학교</v>
+      </c>
+      <c r="E141" t="str">
+        <v>2024년 06월</v>
+      </c>
+      <c r="F141" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="G141" t="str">
+        <v>제한경쟁</v>
+      </c>
+      <c r="H141" t="str">
+        <v>2024학년도 해외문화탐구활동(영국,스페인) 항공권 구매 및 기타용역(긴급)</v>
+      </c>
+      <c r="I141" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="J141">
+        <v>113357600</v>
+      </c>
+      <c r="K141" t="str">
+        <v>행정실</v>
+      </c>
+      <c r="L141" t="str">
+        <v>이동규</v>
+      </c>
+      <c r="M141" t="str">
+        <v>053-231-1702</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="str">
+        <v>660</v>
+      </c>
+      <c r="B142" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C142" t="str">
+        <v>신규</v>
+      </c>
+      <c r="D142" t="str">
+        <v>한국고용노동교육원</v>
+      </c>
+      <c r="E142" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="F142" t="str">
+        <v>중앙조달</v>
+      </c>
+      <c r="G142" t="str">
+        <v>제한경쟁</v>
+      </c>
+      <c r="H142" t="str">
+        <v>2024년 정보시스템 인프라 통합 유지보수 용역</v>
+      </c>
+      <c r="I142" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="J142">
+        <v>215000000</v>
+      </c>
+      <c r="K142" t="str">
+        <v>경영지원팀</v>
+      </c>
+      <c r="L142" t="str">
+        <v>조용우</v>
+      </c>
+      <c r="M142" t="str">
+        <v>031-760-7872</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="str">
+        <v>700</v>
+      </c>
+      <c r="B143" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C143" t="str">
+        <v>신규</v>
+      </c>
+      <c r="D143" t="str">
+        <v>한국건강증진개발원</v>
+      </c>
+      <c r="E143" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="F143" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="G143" t="str">
+        <v>제한경쟁</v>
+      </c>
+      <c r="H143" t="str">
+        <v>대국민 건강지표 및 건강정보 전달체계 마련</v>
+      </c>
+      <c r="I143" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="J143">
+        <v>45000000</v>
+      </c>
+      <c r="K143" t="str">
+        <v>연구통계팀</v>
+      </c>
+      <c r="L143" t="str">
+        <v>유은정</v>
+      </c>
+      <c r="M143" t="str">
+        <v>02-3781-3544</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="str">
+        <v>701</v>
+      </c>
+      <c r="B144" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C144" t="str">
+        <v>신규</v>
+      </c>
+      <c r="D144" t="str">
+        <v>국립공원공단</v>
+      </c>
+      <c r="E144" t="str">
+        <v>2024년 06월</v>
+      </c>
+      <c r="F144" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="G144" t="str">
+        <v>제한경쟁</v>
+      </c>
+      <c r="H144" t="str">
+        <v>국립공원 탐방정보앱 개편</v>
+      </c>
+      <c r="I144" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="J144">
+        <v>270000000</v>
+      </c>
+      <c r="K144" t="str">
+        <v>정보융합실</v>
+      </c>
+      <c r="L144" t="str">
+        <v>진소현</v>
+      </c>
+      <c r="M144" t="str">
+        <v>033-769-9427</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="str">
+        <v>725</v>
+      </c>
+      <c r="B145" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C145" t="str">
+        <v>신규</v>
+      </c>
+      <c r="D145" t="str">
+        <v>재단법인 대구경북디자인진흥원</v>
+      </c>
+      <c r="E145" t="str">
+        <v>2024년 06월</v>
+      </c>
+      <c r="F145" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="G145" t="str">
+        <v>일반경쟁</v>
+      </c>
+      <c r="H145" t="str">
+        <v>트렌드 동향 정보 자료 수집원 확보 및 메가/PEST 트렌드 개발 용역</v>
+      </c>
+      <c r="I145" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="J145">
+        <v>360500000</v>
+      </c>
+      <c r="K145" t="str">
+        <v>산업기반팀</v>
+      </c>
+      <c r="L145" t="str">
+        <v>손명균</v>
+      </c>
+      <c r="M145" t="str">
+        <v>053-740-0075</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="str">
+        <v>747</v>
+      </c>
+      <c r="B146" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C146" t="str">
+        <v>신규</v>
+      </c>
+      <c r="D146" t="str">
+        <v>국회 국회예산정책처</v>
+      </c>
+      <c r="E146" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="F146" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="G146" t="str">
+        <v>수의계약</v>
+      </c>
+      <c r="H146" t="str">
+        <v>해외 사례 분석을 통한 국내 공공주택공급 정책의 개선방안 연구</v>
+      </c>
+      <c r="I146" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="J146">
+        <v>30000000</v>
+      </c>
+      <c r="K146" t="str">
+        <v>국회예산정책처 총무담당관실</v>
+      </c>
+      <c r="L146" t="str">
+        <v>장아련</v>
+      </c>
+      <c r="M146" t="str">
+        <v>02-6788-4615</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="str">
+        <v>770</v>
+      </c>
+      <c r="B147" t="str">
+        <v>용역</v>
+      </c>
+      <c r="D147" t="str">
+        <v>한국도로공사</v>
+      </c>
+      <c r="E147" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="F147" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="G147" t="str">
+        <v>수의계약</v>
+      </c>
+      <c r="H147" t="str">
+        <v>진천지사 가로등 위치정보화 작업 용역</v>
+      </c>
+      <c r="I147" t="str">
+        <v>기술용역</v>
+      </c>
+      <c r="J147">
+        <v>21000000</v>
+      </c>
+      <c r="K147" t="str">
+        <v>진천지사 도로안전팀</v>
+      </c>
+      <c r="L147" t="str">
+        <v>문경진</v>
+      </c>
+      <c r="M147" t="str">
+        <v>043-721-6252</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="str">
+        <v>804</v>
+      </c>
+      <c r="B148" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C148" t="str">
+        <v>신규</v>
+      </c>
+      <c r="D148" t="str">
+        <v>한국연구재단</v>
+      </c>
+      <c r="E148" t="str">
+        <v>2024년 06월</v>
+      </c>
+      <c r="F148" t="str">
+        <v>중앙조달</v>
+      </c>
+      <c r="G148" t="str">
+        <v>일반경쟁</v>
+      </c>
+      <c r="H148" t="str">
+        <v>2024년 해외 국가 R&amp;D 투자현황 자료수집·분석 용역</v>
+      </c>
+      <c r="I148" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="J148">
+        <v>276300000</v>
+      </c>
+      <c r="K148" t="str">
+        <v>학술데이터분석팀</v>
+      </c>
+      <c r="L148" t="str">
+        <v>정종근</v>
+      </c>
+      <c r="M148" t="str">
+        <v>042-869-6682</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="str">
+        <v>932</v>
+      </c>
+      <c r="B149" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C149" t="str">
+        <v>신규</v>
+      </c>
+      <c r="D149" t="str">
+        <v>국가유산청 국립문화유산연구원</v>
+      </c>
+      <c r="E149" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="F149" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="G149" t="str">
+        <v>제한경쟁</v>
+      </c>
+      <c r="H149" t="str">
+        <v>국립문화유산연구원 정보시스템 클라우드 이관 관리</v>
+      </c>
+      <c r="I149" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="J149">
+        <v>95200000</v>
+      </c>
+      <c r="K149" t="str">
+        <v>디지털문화유산연구정보팀</v>
+      </c>
+      <c r="L149" t="str">
+        <v>권정훈</v>
+      </c>
+      <c r="M149" t="str">
+        <v>042-860-9165</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="str">
+        <v>933</v>
+      </c>
+      <c r="B150" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C150" t="str">
+        <v>신규</v>
+      </c>
+      <c r="D150" t="str">
+        <v>한국지질자원연구원</v>
+      </c>
+      <c r="E150" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="F150" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="G150" t="str">
+        <v>수의계약</v>
+      </c>
+      <c r="H150" t="str">
+        <v>지진지반응답 공간정보/부지분류지도 긴급수요대응 프로그램 개발 용역</v>
+      </c>
+      <c r="I150" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="J150">
+        <v>44000000</v>
+      </c>
+      <c r="K150" t="str">
+        <v>구매자산실</v>
+      </c>
+      <c r="L150" t="str">
+        <v>양갑준</v>
+      </c>
+      <c r="M150" t="str">
+        <v>042-868-3757</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="str">
+        <v>941</v>
+      </c>
+      <c r="B151" t="str">
+        <v>용역</v>
+      </c>
+      <c r="D151" t="str">
+        <v>한국지역난방공사</v>
+      </c>
+      <c r="E151" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="F151" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="G151" t="str">
+        <v>제한경쟁</v>
+      </c>
+      <c r="H151" t="str">
+        <v>정보보안시스템 운영·유지보수 용역</v>
+      </c>
+      <c r="I151" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="J151">
+        <v>2104028000</v>
+      </c>
+      <c r="K151" t="str">
+        <v>사이버보안센터</v>
+      </c>
+      <c r="L151" t="str">
+        <v>이창욱</v>
+      </c>
+      <c r="M151" t="str">
+        <v>031-8018-6435</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="str">
+        <v>943</v>
+      </c>
+      <c r="B152" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C152" t="str">
+        <v>신규</v>
+      </c>
+      <c r="D152" t="str">
+        <v>한국농수산식품유통공사 농수산식품유통교육원</v>
+      </c>
+      <c r="E152" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="F152" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="G152" t="str">
+        <v>제한경쟁</v>
+      </c>
+      <c r="H152" t="str">
+        <v>2024년 교육정보시스템 위탁운영 용역</v>
+      </c>
+      <c r="I152" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="J152">
+        <v>600000000</v>
+      </c>
+      <c r="K152" t="str">
+        <v>교육지원부</v>
+      </c>
+      <c r="L152" t="str">
+        <v>이동호</v>
+      </c>
+      <c r="M152" t="str">
+        <v>010-9505-0288</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="str">
+        <v>962</v>
+      </c>
+      <c r="B153" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C153" t="str">
+        <v>신규</v>
+      </c>
+      <c r="D153" t="str">
+        <v>해양수산부 국립해양조사원</v>
+      </c>
+      <c r="E153" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="F153" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="G153" t="str">
+        <v>제한경쟁</v>
+      </c>
+      <c r="H153" t="str">
+        <v>2024년 종합해양정보시스템 전환 감리</v>
+      </c>
+      <c r="I153" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="J153">
+        <v>30000000</v>
+      </c>
+      <c r="K153" t="str">
+        <v>국립해양조사원 운영지원과</v>
+      </c>
+      <c r="L153" t="str">
+        <v>김건일</v>
+      </c>
+      <c r="M153" t="str">
+        <v>051-400-4377</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="str">
         <v>974</v>
       </c>
-      <c r="B61" t="str">
-        <v>용역</v>
-      </c>
-      <c r="C61" t="str">
-        <v>신규</v>
-      </c>
-      <c r="D61" t="str">
+      <c r="B154" t="str">
+        <v>용역</v>
+      </c>
+      <c r="C154" t="str">
+        <v>신규</v>
+      </c>
+      <c r="D154" t="str">
         <v>부산여자대학 산학협력단</v>
       </c>
-      <c r="E61" t="str">
-        <v>2024년 05월</v>
-      </c>
-      <c r="F61" t="str">
-        <v>자체조달</v>
-      </c>
-      <c r="G61" t="str">
-        <v>제한경쟁</v>
-      </c>
-      <c r="H61" t="str">
+      <c r="E154" t="str">
+        <v>2024년 05월</v>
+      </c>
+      <c r="F154" t="str">
+        <v>자체조달</v>
+      </c>
+      <c r="G154" t="str">
+        <v>제한경쟁</v>
+      </c>
+      <c r="H154" t="str">
         <v>비대면 글로벌 교육모델 운영을 위한 해외교류 프로그램 운영 위탁</v>
       </c>
-      <c r="I61" t="str">
-        <v>일반용역</v>
-      </c>
-      <c r="J61">
+      <c r="I154" t="str">
+        <v>일반용역</v>
+      </c>
+      <c r="J154">
         <v>33000000</v>
       </c>
-      <c r="K61" t="str">
+      <c r="K154" t="str">
         <v>사무처</v>
       </c>
-      <c r="L61" t="str">
+      <c r="L154" t="str">
         <v>유석호</v>
       </c>
-      <c r="M61" t="str">
+      <c r="M154" t="str">
         <v>051-850-3070</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:M61"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:M154"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/filtered-files/filterByPatternDatas.xlsx
+++ b/filtered-files/filterByPatternDatas.xlsx
@@ -33,16 +33,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
   <numFmts count="10">
-    <numFmt numFmtId="5" formatCode="&quot;$&quot;#,##0_);(&quot;$&quot;#,##0)"/>
-    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red](&quot;$&quot;#,##0)"/>
-    <numFmt numFmtId="7" formatCode="&quot;$&quot;#,##0.00_);(&quot;$&quot;#,##0.00)"/>
-    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red](&quot;$&quot;#,##0.00)"/>
-    <numFmt numFmtId="41" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* (#,##0);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(* #,##0_);_(* (#,##0);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* (#,##0.00);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* (#,##0.00);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="5" formatCode="&quot;$&quot;#,##0_);\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="7" formatCode="&quot;$&quot;#,##0.00_);\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -406,7 +406,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M154"/>
+  <dimension ref="A1:M102"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -454,7 +454,7 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>3002</v>
+        <v>3006</v>
       </c>
       <c r="B2" t="str">
         <v>용역</v>
@@ -463,7 +463,7 @@
         <v>신규</v>
       </c>
       <c r="D2" t="str">
-        <v>연암대학교 산학협력단</v>
+        <v>경기도교육청 경기도수원교육지원청</v>
       </c>
       <c r="E2" t="str">
         <v>2024년 05월</v>
@@ -472,71 +472,68 @@
         <v>자체조달</v>
       </c>
       <c r="G2" t="str">
-        <v>일반경쟁</v>
+        <v>수의계약</v>
       </c>
       <c r="H2" t="str">
-        <v>연암대학교 LINC3.0사업 글로벌 챌린저스 해외탐방 프로그램 위탁 운영업체 선정</v>
+        <v>수원정보과학고 외벽치장벽돌 개선공사 설계용역</v>
       </c>
       <c r="I2" t="str">
-        <v>일반용역</v>
+        <v>기술용역</v>
       </c>
       <c r="J2">
-        <v>210000000</v>
+        <v>24282000</v>
       </c>
       <c r="K2" t="str">
-        <v>사무처</v>
+        <v>교육시설과</v>
       </c>
       <c r="L2" t="str">
-        <v>김진영</v>
+        <v>임지혜</v>
       </c>
       <c r="M2" t="str">
-        <v>041-580-1117</v>
+        <v>031-250-1443</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>3006</v>
+        <v>3104</v>
       </c>
       <c r="B3" t="str">
         <v>용역</v>
       </c>
-      <c r="C3" t="str">
-        <v>신규</v>
-      </c>
       <c r="D3" t="str">
-        <v>경기도교육청 경기도수원교육지원청</v>
+        <v>한국수자원공사</v>
       </c>
       <c r="E3" t="str">
-        <v>2024년 05월</v>
+        <v>2024년 06월</v>
       </c>
       <c r="F3" t="str">
         <v>자체조달</v>
       </c>
       <c r="G3" t="str">
-        <v>수의계약</v>
+        <v>제한경쟁</v>
       </c>
       <c r="H3" t="str">
-        <v>수원정보과학고 외벽치장벽돌 개선공사 설계용역</v>
+        <v>유체성능시험센터 성능인증시스템 정보통신 감리용역</v>
       </c>
       <c r="I3" t="str">
         <v>기술용역</v>
       </c>
       <c r="J3">
-        <v>24282000</v>
+        <v>84524000</v>
       </c>
       <c r="K3" t="str">
-        <v>교육시설과</v>
+        <v>물종합진단처</v>
       </c>
       <c r="L3" t="str">
-        <v>임지혜</v>
+        <v>조아란</v>
       </c>
       <c r="M3" t="str">
-        <v>031-250-1443</v>
+        <v>042-629-3683</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>3036</v>
+        <v>3144</v>
       </c>
       <c r="B4" t="str">
         <v>용역</v>
@@ -545,7 +542,7 @@
         <v>신규</v>
       </c>
       <c r="D4" t="str">
-        <v>경상남도교육청 경상남도하동교육지원청</v>
+        <v>환경부</v>
       </c>
       <c r="E4" t="str">
         <v>2024년 05월</v>
@@ -557,27 +554,27 @@
         <v>제한경쟁</v>
       </c>
       <c r="H4" t="str">
-        <v>2024년 하동영재교육원 해외체험학습 위탁 용역 2단계입찰(규격-가격동시입찰)</v>
+        <v>2024년 물산업 실태조사 및 정보화시스템 운영</v>
       </c>
       <c r="I4" t="str">
         <v>일반용역</v>
       </c>
       <c r="J4">
-        <v>81900000</v>
+        <v>400000000</v>
       </c>
       <c r="K4" t="str">
-        <v>경상남도하동교육지원청 행정지원과</v>
+        <v>물산업협력과</v>
       </c>
       <c r="L4" t="str">
-        <v>문성심</v>
+        <v>허승혜</v>
       </c>
       <c r="M4" t="str">
-        <v>055-880-1972</v>
+        <v>044-201-7637</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>3088</v>
+        <v>3170</v>
       </c>
       <c r="B5" t="str">
         <v>용역</v>
@@ -586,7 +583,7 @@
         <v>신규</v>
       </c>
       <c r="D5" t="str">
-        <v>인천광역시교육청 인천광역시교육청동아시아국제교육원</v>
+        <v>환경부 화학물질안전원</v>
       </c>
       <c r="E5" t="str">
         <v>2024년 05월</v>
@@ -598,36 +595,39 @@
         <v>제한경쟁</v>
       </c>
       <c r="H5" t="str">
-        <v>인천세계로배움학교 2024 학생,교원 학기교환제 해외연수 위탁운영</v>
+        <v>2024 화학사고대응정보시스템(CARIS) 개선</v>
       </c>
       <c r="I5" t="str">
         <v>일반용역</v>
       </c>
       <c r="J5">
-        <v>72779000</v>
+        <v>50000000</v>
       </c>
       <c r="K5" t="str">
-        <v>동아시아교육협력과</v>
+        <v>사고대응총괄과</v>
       </c>
       <c r="L5" t="str">
-        <v>이영혜</v>
+        <v>정성경</v>
       </c>
       <c r="M5" t="str">
-        <v>032-745-0208</v>
+        <v>043-830-4132</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>3104</v>
+        <v>3176</v>
       </c>
       <c r="B6" t="str">
         <v>용역</v>
       </c>
+      <c r="C6" t="str">
+        <v>신규</v>
+      </c>
       <c r="D6" t="str">
-        <v>한국수자원공사</v>
+        <v>한국산업안전보건공단</v>
       </c>
       <c r="E6" t="str">
-        <v>2024년 06월</v>
+        <v>2024년 05월</v>
       </c>
       <c r="F6" t="str">
         <v>자체조달</v>
@@ -636,27 +636,27 @@
         <v>제한경쟁</v>
       </c>
       <c r="H6" t="str">
-        <v>유체성능시험센터 성능인증시스템 정보통신 감리용역</v>
+        <v>24년 산재예방 종합포털 등 5종 개인정보 영향평가 용역</v>
       </c>
       <c r="I6" t="str">
-        <v>기술용역</v>
+        <v>일반용역</v>
       </c>
       <c r="J6">
-        <v>84524000</v>
+        <v>220000000</v>
       </c>
       <c r="K6" t="str">
-        <v>물종합진단처</v>
+        <v>종합포털구축팀</v>
       </c>
       <c r="L6" t="str">
-        <v>조아란</v>
+        <v>노성현</v>
       </c>
       <c r="M6" t="str">
-        <v>042-629-3683</v>
+        <v>052-703-0284</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>3144</v>
+        <v>3213</v>
       </c>
       <c r="B7" t="str">
         <v>용역</v>
@@ -665,7 +665,7 @@
         <v>신규</v>
       </c>
       <c r="D7" t="str">
-        <v>환경부</v>
+        <v>(재)공간정보품질관리원</v>
       </c>
       <c r="E7" t="str">
         <v>2024년 05월</v>
@@ -677,27 +677,27 @@
         <v>제한경쟁</v>
       </c>
       <c r="H7" t="str">
-        <v>2024년 물산업 실태조사 및 정보화시스템 운영</v>
+        <v>고정밀 공간정보 기술 개발과 품질 향상 방안 연구</v>
       </c>
       <c r="I7" t="str">
         <v>일반용역</v>
       </c>
       <c r="J7">
-        <v>400000000</v>
+        <v>110000000</v>
       </c>
       <c r="K7" t="str">
-        <v>물산업협력과</v>
+        <v>경영전략실</v>
       </c>
       <c r="L7" t="str">
-        <v>허승혜</v>
+        <v>최영은</v>
       </c>
       <c r="M7" t="str">
-        <v>044-201-7637</v>
+        <v>02-6418-9115</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>3170</v>
+        <v>3253</v>
       </c>
       <c r="B8" t="str">
         <v>용역</v>
@@ -706,7 +706,7 @@
         <v>신규</v>
       </c>
       <c r="D8" t="str">
-        <v>환경부 화학물질안전원</v>
+        <v>한국환경공단</v>
       </c>
       <c r="E8" t="str">
         <v>2024년 05월</v>
@@ -718,7 +718,7 @@
         <v>제한경쟁</v>
       </c>
       <c r="H8" t="str">
-        <v>2024 화학사고대응정보시스템(CARIS) 개선</v>
+        <v>유역하수도 통합정보플랫폼 브랜드 네이밍 및 BI개발</v>
       </c>
       <c r="I8" t="str">
         <v>일반용역</v>
@@ -727,18 +727,18 @@
         <v>50000000</v>
       </c>
       <c r="K8" t="str">
-        <v>사고대응총괄과</v>
+        <v>총괄분과</v>
       </c>
       <c r="L8" t="str">
-        <v>정성경</v>
+        <v>신승민 과장</v>
       </c>
       <c r="M8" t="str">
-        <v>043-830-4132</v>
+        <v>032-590-3713</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>3176</v>
+        <v>3315</v>
       </c>
       <c r="B9" t="str">
         <v>용역</v>
@@ -747,39 +747,39 @@
         <v>신규</v>
       </c>
       <c r="D9" t="str">
-        <v>한국산업안전보건공단</v>
+        <v>한국보건복지인재원</v>
       </c>
       <c r="E9" t="str">
         <v>2024년 05월</v>
       </c>
       <c r="F9" t="str">
-        <v>자체조달</v>
+        <v>중앙조달</v>
       </c>
       <c r="G9" t="str">
         <v>제한경쟁</v>
       </c>
       <c r="H9" t="str">
-        <v>24년 산재예방 종합포털 등 5종 개인정보 영향평가 용역</v>
+        <v>아동복지분야 이러닝콘텐츠 개발 및 수정보완</v>
       </c>
       <c r="I9" t="str">
         <v>일반용역</v>
       </c>
       <c r="J9">
-        <v>220000000</v>
+        <v>120000000</v>
       </c>
       <c r="K9" t="str">
-        <v>종합포털구축팀</v>
+        <v>운영지원부</v>
       </c>
       <c r="L9" t="str">
-        <v>노성현</v>
+        <v>권혜령</v>
       </c>
       <c r="M9" t="str">
-        <v>052-703-0284</v>
+        <v>043-710-9129</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>3195</v>
+        <v>3338</v>
       </c>
       <c r="B10" t="str">
         <v>용역</v>
@@ -788,7 +788,7 @@
         <v>신규</v>
       </c>
       <c r="D10" t="str">
-        <v>사단법인 해외자원개발협회</v>
+        <v>아동권리보장원</v>
       </c>
       <c r="E10" t="str">
         <v>2024년 05월</v>
@@ -797,80 +797,74 @@
         <v>자체조달</v>
       </c>
       <c r="G10" t="str">
-        <v>일반경쟁</v>
+        <v>제한경쟁</v>
       </c>
       <c r="H10" t="str">
-        <v>2024 해외자원개발 심포지엄 대행</v>
+        <v>경영정보시스템 구축을 위한 BPR/ISP</v>
       </c>
       <c r="I10" t="str">
         <v>일반용역</v>
       </c>
       <c r="J10">
-        <v>90000000</v>
+        <v>130000000</v>
       </c>
       <c r="K10" t="str">
-        <v>회원서비스팀</v>
+        <v>경영지원부</v>
       </c>
       <c r="L10" t="str">
-        <v>육승규</v>
+        <v>방그리</v>
       </c>
       <c r="M10" t="str">
-        <v>02-3453-4249</v>
+        <v>02-6454-8533</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>3213</v>
+        <v>3371</v>
       </c>
       <c r="B11" t="str">
         <v>용역</v>
       </c>
-      <c r="C11" t="str">
-        <v>신규</v>
-      </c>
       <c r="D11" t="str">
-        <v>(재)공간정보품질관리원</v>
+        <v>한국도로공사</v>
       </c>
       <c r="E11" t="str">
-        <v>2024년 05월</v>
+        <v>2024년 06월</v>
       </c>
       <c r="F11" t="str">
         <v>자체조달</v>
       </c>
       <c r="G11" t="str">
-        <v>제한경쟁</v>
+        <v>수의계약</v>
       </c>
       <c r="H11" t="str">
-        <v>고정밀 공간정보 기술 개발과 품질 향상 방안 연구</v>
+        <v>이천지사 관내 스마트 가로등 위치정보 DB구축 용역</v>
       </c>
       <c r="I11" t="str">
         <v>일반용역</v>
       </c>
       <c r="J11">
-        <v>110000000</v>
+        <v>32000000</v>
       </c>
       <c r="K11" t="str">
-        <v>경영전략실</v>
+        <v>이천지사 도로안전팀</v>
       </c>
       <c r="L11" t="str">
-        <v>최영은</v>
+        <v>김대환</v>
       </c>
       <c r="M11" t="str">
-        <v>02-6418-9115</v>
+        <v>033-811-6853</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>3253</v>
+        <v>3375</v>
       </c>
       <c r="B12" t="str">
         <v>용역</v>
       </c>
-      <c r="C12" t="str">
-        <v>신규</v>
-      </c>
       <c r="D12" t="str">
-        <v>한국환경공단</v>
+        <v>한국국토정보공사</v>
       </c>
       <c r="E12" t="str">
         <v>2024년 05월</v>
@@ -882,27 +876,15 @@
         <v>제한경쟁</v>
       </c>
       <c r="H12" t="str">
-        <v>유역하수도 통합정보플랫폼 브랜드 네이밍 및 BI개발</v>
+        <v>주소기반 주차정보 구축 및 주차내비게이션 서비스 모델 실증</v>
       </c>
       <c r="I12" t="str">
-        <v>일반용역</v>
-      </c>
-      <c r="J12">
-        <v>50000000</v>
-      </c>
-      <c r="K12" t="str">
-        <v>총괄분과</v>
-      </c>
-      <c r="L12" t="str">
-        <v>신승민 과장</v>
-      </c>
-      <c r="M12" t="str">
-        <v>032-590-3713</v>
+        <v>기술용역</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>3315</v>
+        <v>3407</v>
       </c>
       <c r="B13" t="str">
         <v>용역</v>
@@ -911,39 +893,39 @@
         <v>신규</v>
       </c>
       <c r="D13" t="str">
-        <v>한국보건복지인재원</v>
+        <v>전북특별자치도 익산시</v>
       </c>
       <c r="E13" t="str">
         <v>2024년 05월</v>
       </c>
       <c r="F13" t="str">
-        <v>중앙조달</v>
+        <v>자체조달</v>
       </c>
       <c r="G13" t="str">
         <v>제한경쟁</v>
       </c>
       <c r="H13" t="str">
-        <v>아동복지분야 이러닝콘텐츠 개발 및 수정보완</v>
+        <v>익산시 전산실 정보시스쳄 이전 용역</v>
       </c>
       <c r="I13" t="str">
-        <v>일반용역</v>
+        <v>기술용역</v>
       </c>
       <c r="J13">
-        <v>120000000</v>
+        <v>633696000</v>
       </c>
       <c r="K13" t="str">
-        <v>운영지원부</v>
+        <v>스마트정보과</v>
       </c>
       <c r="L13" t="str">
-        <v>권혜령</v>
+        <v>원태성</v>
       </c>
       <c r="M13" t="str">
-        <v>043-710-9129</v>
+        <v>063-859-5829</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>3336</v>
+        <v>3411</v>
       </c>
       <c r="B14" t="str">
         <v>용역</v>
@@ -952,7 +934,7 @@
         <v>신규</v>
       </c>
       <c r="D14" t="str">
-        <v>충청북도교육청 충청북도청주교육지원청 청주대성초등학교</v>
+        <v>(재)제주테크노파크</v>
       </c>
       <c r="E14" t="str">
         <v>2024년 05월</v>
@@ -964,27 +946,27 @@
         <v>제한경쟁</v>
       </c>
       <c r="H14" t="str">
-        <v>청주대성초등학교 6학년 수학여행(해외문화탐방) 용역 입찰 공고(긴급) [2단계(규격가격동시)]</v>
+        <v>2024년 제주산업정보서비스(JEIS) 시스템 환경 개선 및 유지보수 용역</v>
       </c>
       <c r="I14" t="str">
         <v>일반용역</v>
       </c>
       <c r="J14">
-        <v>204700000</v>
+        <v>94779000</v>
       </c>
       <c r="K14" t="str">
-        <v>행정실</v>
+        <v>기업지원단</v>
       </c>
       <c r="L14" t="str">
-        <v>윤수정</v>
+        <v>김경태 연구원</v>
       </c>
       <c r="M14" t="str">
-        <v>043-215-5261</v>
+        <v>064-720-3077</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>3338</v>
+        <v>3543</v>
       </c>
       <c r="B15" t="str">
         <v>용역</v>
@@ -993,10 +975,10 @@
         <v>신규</v>
       </c>
       <c r="D15" t="str">
-        <v>아동권리보장원</v>
+        <v>영남대학교의료원</v>
       </c>
       <c r="E15" t="str">
-        <v>2024년 05월</v>
+        <v>2024년 06월</v>
       </c>
       <c r="F15" t="str">
         <v>자체조달</v>
@@ -1005,27 +987,27 @@
         <v>제한경쟁</v>
       </c>
       <c r="H15" t="str">
-        <v>경영정보시스템 구축을 위한 BPR/ISP</v>
+        <v>영남대학교의료원 주요정보통신기반시설 보호대책 수립 및 정보보호 관리체 계(ISMS) 심사를 위한 컨설팅 용역업체 선정 입찰</v>
       </c>
       <c r="I15" t="str">
-        <v>일반용역</v>
+        <v>기술용역</v>
       </c>
       <c r="J15">
-        <v>130000000</v>
+        <v>99000000</v>
       </c>
       <c r="K15" t="str">
-        <v>경영지원부</v>
+        <v>구매팀</v>
       </c>
       <c r="L15" t="str">
-        <v>방그리</v>
+        <v>구매팀</v>
       </c>
       <c r="M15" t="str">
-        <v>02-6454-8533</v>
+        <v>053-620-4481</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>3343</v>
+        <v>3587</v>
       </c>
       <c r="B16" t="str">
         <v>용역</v>
@@ -1034,7 +1016,7 @@
         <v>신규</v>
       </c>
       <c r="D16" t="str">
-        <v>분당서울대학교병원</v>
+        <v>질병관리청</v>
       </c>
       <c r="E16" t="str">
         <v>2024년 05월</v>
@@ -1046,71 +1028,77 @@
         <v>제한경쟁</v>
       </c>
       <c r="H16" t="str">
-        <v>2024년도 글로벌 선진경영 벤치마킹 해외연수 위탁</v>
+        <v>[연구,171] 신규 변이 규명을 위한 생물정보분석법 구축 및 시각화 개발</v>
       </c>
       <c r="I16" t="str">
         <v>일반용역</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>95000000</v>
       </c>
       <c r="K16" t="str">
-        <v>구매계약팀</v>
+        <v>신종병원체분석과</v>
       </c>
       <c r="L16" t="str">
-        <v>남수정</v>
+        <v>노진선</v>
       </c>
       <c r="M16" t="str">
-        <v>031-787-1392</v>
+        <v>043-719-8172</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>3371</v>
+        <v>3708</v>
       </c>
       <c r="B17" t="str">
         <v>용역</v>
       </c>
+      <c r="C17" t="str">
+        <v>장기</v>
+      </c>
       <c r="D17" t="str">
-        <v>한국도로공사</v>
+        <v>한국에너지기술평가원</v>
       </c>
       <c r="E17" t="str">
-        <v>2024년 06월</v>
+        <v>2024년 05월</v>
       </c>
       <c r="F17" t="str">
         <v>자체조달</v>
       </c>
       <c r="G17" t="str">
-        <v>수의계약</v>
+        <v>제한경쟁</v>
       </c>
       <c r="H17" t="str">
-        <v>이천지사 관내 스마트 가로등 위치정보 DB구축 용역</v>
+        <v>정보시스템 위탁운영 및 유지보수</v>
       </c>
       <c r="I17" t="str">
         <v>일반용역</v>
       </c>
       <c r="J17">
-        <v>32000000</v>
+        <v>734000000</v>
       </c>
       <c r="K17" t="str">
-        <v>이천지사 도로안전팀</v>
+        <v>디지털전략실</v>
       </c>
       <c r="L17" t="str">
-        <v>김대환</v>
+        <v>여성율 선임연구원</v>
       </c>
       <c r="M17" t="str">
-        <v>033-811-6853</v>
+        <v>02-3469-8464</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>3375</v>
+        <v>3809</v>
       </c>
       <c r="B18" t="str">
         <v>용역</v>
       </c>
+      <c r="C18" t="str">
+        <v>신규</v>
+      </c>
       <c r="D18" t="str">
-        <v>한국국토정보공사</v>
+        <v>사단법인 한국포도협회</v>
       </c>
       <c r="E18" t="str">
         <v>2024년 05월</v>
@@ -1119,18 +1107,30 @@
         <v>자체조달</v>
       </c>
       <c r="G18" t="str">
-        <v>제한경쟁</v>
+        <v>일반경쟁</v>
       </c>
       <c r="H18" t="str">
-        <v>주소기반 주차정보 구축 및 주차내비게이션 서비스 모델 실증</v>
+        <v>포도의무자조금 회원정보 관리 및 상담센터 운영 대행업체 선정</v>
       </c>
       <c r="I18" t="str">
-        <v>기술용역</v>
+        <v>일반용역</v>
+      </c>
+      <c r="J18">
+        <v>60000000</v>
+      </c>
+      <c r="K18" t="str">
+        <v>사업부</v>
+      </c>
+      <c r="L18" t="str">
+        <v>하미정</v>
+      </c>
+      <c r="M18" t="str">
+        <v>02-752-8853</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>3382</v>
+        <v>3895</v>
       </c>
       <c r="B19" t="str">
         <v>용역</v>
@@ -1139,7 +1139,7 @@
         <v>신규</v>
       </c>
       <c r="D19" t="str">
-        <v>충청북도교육청 단양고등학교</v>
+        <v>축산물품질평가원</v>
       </c>
       <c r="E19" t="str">
         <v>2024년 05월</v>
@@ -1148,30 +1148,30 @@
         <v>자체조달</v>
       </c>
       <c r="G19" t="str">
-        <v>제한경쟁</v>
+        <v>일반경쟁</v>
       </c>
       <c r="H19" t="str">
-        <v>단양고 2024학년도 2학년 해외 선진문화 체험학습[일본] 위탁용역</v>
+        <v>해외 축산유통정보조사 용역</v>
       </c>
       <c r="I19" t="str">
         <v>일반용역</v>
       </c>
       <c r="J19">
-        <v>201894000</v>
+        <v>49000000</v>
       </c>
       <c r="K19" t="str">
-        <v>단양고등학교 행정실</v>
+        <v>유통정보처</v>
       </c>
       <c r="L19" t="str">
-        <v>조대형</v>
+        <v>김지영</v>
       </c>
       <c r="M19" t="str">
-        <v>043-422-3521</v>
+        <v>044-410-7085</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>3404</v>
+        <v>3931</v>
       </c>
       <c r="B20" t="str">
         <v>용역</v>
@@ -1180,7 +1180,7 @@
         <v>신규</v>
       </c>
       <c r="D20" t="str">
-        <v>서울특별시교육청 한성과학고등학교</v>
+        <v>한국인터넷진흥원</v>
       </c>
       <c r="E20" t="str">
         <v>2024년 05월</v>
@@ -1192,27 +1192,27 @@
         <v>제한경쟁</v>
       </c>
       <c r="H20" t="str">
-        <v>2024학년도 한성과학고등학교 해외이공계체험학습 위탁용역</v>
+        <v>사이버 정보보안 정책연구 발표회 용역</v>
       </c>
       <c r="I20" t="str">
         <v>일반용역</v>
       </c>
       <c r="J20">
-        <v>803622000</v>
+        <v>60000000</v>
       </c>
       <c r="K20" t="str">
-        <v>행정실</v>
+        <v>정책개발팀</v>
       </c>
       <c r="L20" t="str">
-        <v>최윤미</v>
+        <v>천곤웅</v>
       </c>
       <c r="M20" t="str">
-        <v>02-6917-0086</v>
+        <v>061-820-1124</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>3407</v>
+        <v>3965</v>
       </c>
       <c r="B21" t="str">
         <v>용역</v>
@@ -1221,7 +1221,7 @@
         <v>신규</v>
       </c>
       <c r="D21" t="str">
-        <v>전북특별자치도 익산시</v>
+        <v>한국교통안전공단</v>
       </c>
       <c r="E21" t="str">
         <v>2024년 05월</v>
@@ -1233,27 +1233,27 @@
         <v>제한경쟁</v>
       </c>
       <c r="H21" t="str">
-        <v>익산시 전산실 정보시스쳄 이전 용역</v>
+        <v>교통약자 이동편의 정보관리시스템 구축 사업 PMO 용역</v>
       </c>
       <c r="I21" t="str">
-        <v>기술용역</v>
+        <v>일반용역</v>
       </c>
       <c r="J21">
-        <v>633696000</v>
+        <v>221000000</v>
       </c>
       <c r="K21" t="str">
-        <v>스마트정보과</v>
+        <v>모빌리티플랫폼처</v>
       </c>
       <c r="L21" t="str">
-        <v>원태성</v>
+        <v>노영문</v>
       </c>
       <c r="M21" t="str">
-        <v>063-859-5829</v>
+        <v>054-459-7903</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>3409</v>
+        <v>3971</v>
       </c>
       <c r="B22" t="str">
         <v>용역</v>
@@ -1262,7 +1262,7 @@
         <v>신규</v>
       </c>
       <c r="D22" t="str">
-        <v>국제방송교류재단</v>
+        <v>한국교통안전공단</v>
       </c>
       <c r="E22" t="str">
         <v>2024년 05월</v>
@@ -1271,30 +1271,30 @@
         <v>자체조달</v>
       </c>
       <c r="G22" t="str">
-        <v>일반경쟁</v>
+        <v>제한경쟁</v>
       </c>
       <c r="H22" t="str">
-        <v>2024년 하반기 온라인 정부 광고 협력업체 선정(해외)</v>
+        <v>교통약자 이동편의 정보관리시스템 구축 용역</v>
       </c>
       <c r="I22" t="str">
         <v>일반용역</v>
       </c>
       <c r="J22">
-        <v>3000000000</v>
+        <v>2389891762</v>
       </c>
       <c r="K22" t="str">
-        <v>인재경영센터</v>
+        <v>모빌리티플랫폼처</v>
       </c>
       <c r="L22" t="str">
-        <v>박경민</v>
+        <v>노영문</v>
       </c>
       <c r="M22" t="str">
-        <v>02-3475-5052</v>
+        <v>054-459-7903</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>3411</v>
+        <v>2085</v>
       </c>
       <c r="B23" t="str">
         <v>용역</v>
@@ -1303,7 +1303,7 @@
         <v>신규</v>
       </c>
       <c r="D23" t="str">
-        <v>(재)제주테크노파크</v>
+        <v>정보통신산업진흥원</v>
       </c>
       <c r="E23" t="str">
         <v>2024년 05월</v>
@@ -1315,27 +1315,27 @@
         <v>제한경쟁</v>
       </c>
       <c r="H23" t="str">
-        <v>2024년 제주산업정보서비스(JEIS) 시스템 환경 개선 및 유지보수 용역</v>
+        <v>개도국 정보통신방송전문가 초청연수 정보시스템 유지보수용역</v>
       </c>
       <c r="I23" t="str">
         <v>일반용역</v>
       </c>
       <c r="J23">
-        <v>94779000</v>
+        <v>40000000</v>
       </c>
       <c r="K23" t="str">
-        <v>기업지원단</v>
+        <v>글로벌협력팀</v>
       </c>
       <c r="L23" t="str">
-        <v>김경태 연구원</v>
+        <v>김서희 수석</v>
       </c>
       <c r="M23" t="str">
-        <v>064-720-3077</v>
+        <v>043-931-5522</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>3437</v>
+        <v>2183</v>
       </c>
       <c r="B24" t="str">
         <v>용역</v>
@@ -1344,10 +1344,10 @@
         <v>신규</v>
       </c>
       <c r="D24" t="str">
-        <v>전라남도나주교육청 노안중학교</v>
+        <v>국토교통부</v>
       </c>
       <c r="E24" t="str">
-        <v>2024년 06월</v>
+        <v>2024년 05월</v>
       </c>
       <c r="F24" t="str">
         <v>자체조달</v>
@@ -1356,27 +1356,27 @@
         <v>제한경쟁</v>
       </c>
       <c r="H24" t="str">
-        <v>노안중학교 2024. 글로벌 미래교육 해외프로젝트 위탁 용역</v>
+        <v>차세대 부동산종합공부시스템 구축(1차) 개인정보 영향평가</v>
       </c>
       <c r="I24" t="str">
         <v>일반용역</v>
       </c>
       <c r="J24">
-        <v>87639840</v>
+        <v>50000000</v>
       </c>
       <c r="K24" t="str">
-        <v>행정실</v>
+        <v>공간정보제도과</v>
       </c>
       <c r="L24" t="str">
-        <v>박미경</v>
+        <v>고은정</v>
       </c>
       <c r="M24" t="str">
-        <v>061-335-2851</v>
+        <v>044-201-3486</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>3543</v>
+        <v>2254</v>
       </c>
       <c r="B25" t="str">
         <v>용역</v>
@@ -1385,10 +1385,10 @@
         <v>신규</v>
       </c>
       <c r="D25" t="str">
-        <v>영남대학교의료원</v>
+        <v>제주특별자치도</v>
       </c>
       <c r="E25" t="str">
-        <v>2024년 06월</v>
+        <v>2024년 05월</v>
       </c>
       <c r="F25" t="str">
         <v>자체조달</v>
@@ -1397,27 +1397,27 @@
         <v>제한경쟁</v>
       </c>
       <c r="H25" t="str">
-        <v>영남대학교의료원 주요정보통신기반시설 보호대책 수립 및 정보보호 관리체 계(ISMS) 심사를 위한 컨설팅 용역업체 선정 입찰</v>
+        <v>2024년 제주지역 무장애 여행을 휘한 정보 현행화 및 POI 구축</v>
       </c>
       <c r="I25" t="str">
         <v>기술용역</v>
       </c>
       <c r="J25">
-        <v>99000000</v>
+        <v>100000000</v>
       </c>
       <c r="K25" t="str">
-        <v>구매팀</v>
+        <v>제주특별자치도 미래성장과</v>
       </c>
       <c r="L25" t="str">
-        <v>구매팀</v>
+        <v>김나현</v>
       </c>
       <c r="M25" t="str">
-        <v>053-620-4481</v>
+        <v>064-710-2585</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>3587</v>
+        <v>2255</v>
       </c>
       <c r="B26" t="str">
         <v>용역</v>
@@ -1426,7 +1426,7 @@
         <v>신규</v>
       </c>
       <c r="D26" t="str">
-        <v>질병관리청</v>
+        <v>재단법인강원정보문화산업진흥원</v>
       </c>
       <c r="E26" t="str">
         <v>2024년 05월</v>
@@ -1438,33 +1438,36 @@
         <v>제한경쟁</v>
       </c>
       <c r="H26" t="str">
-        <v>[연구,171] 신규 변이 규명을 위한 생물정보분석법 구축 및 시각화 개발</v>
+        <v>강원정보문화산업진흥원 콘텐츠진흥본부 운영홈페이지 개편 용역</v>
       </c>
       <c r="I26" t="str">
         <v>일반용역</v>
       </c>
       <c r="J26">
-        <v>95000000</v>
+        <v>47000000</v>
       </c>
       <c r="K26" t="str">
-        <v>신종병원체분석과</v>
+        <v>영상산업지원팀</v>
       </c>
       <c r="L26" t="str">
-        <v>노진선</v>
+        <v>허진수</v>
       </c>
       <c r="M26" t="str">
-        <v>043-719-8172</v>
+        <v>033-245-6333</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>3654</v>
+        <v>2359</v>
       </c>
       <c r="B27" t="str">
         <v>용역</v>
       </c>
+      <c r="C27" t="str">
+        <v>신규</v>
+      </c>
       <c r="D27" t="str">
-        <v>한국수자원공사</v>
+        <v>한국항공우주연구원</v>
       </c>
       <c r="E27" t="str">
         <v>2024년 06월</v>
@@ -1476,27 +1479,27 @@
         <v>제한경쟁</v>
       </c>
       <c r="H27" t="str">
-        <v>합천댐주변지역 청소년 해외탐방 위탁 용역</v>
+        <v>대응드론캅용 EO/IR기반 정보추정/탑재체 관리 기술 개발 및 시험평가 지원 용역</v>
       </c>
       <c r="I27" t="str">
         <v>일반용역</v>
       </c>
       <c r="J27">
-        <v>150000000</v>
+        <v>122000000</v>
       </c>
       <c r="K27" t="str">
-        <v>합천댐지사</v>
+        <v>무인기연구부</v>
       </c>
       <c r="L27" t="str">
-        <v>지성훈</v>
+        <v>신희민</v>
       </c>
       <c r="M27" t="str">
-        <v>055-930-5205</v>
+        <v>042-870-3837</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>3673</v>
+        <v>2513</v>
       </c>
       <c r="B28" t="str">
         <v>용역</v>
@@ -1505,7 +1508,7 @@
         <v>신규</v>
       </c>
       <c r="D28" t="str">
-        <v>조선대학교</v>
+        <v>한국섬유산업연합회</v>
       </c>
       <c r="E28" t="str">
         <v>2024년 05월</v>
@@ -1514,39 +1517,39 @@
         <v>자체조달</v>
       </c>
       <c r="G28" t="str">
-        <v>제한경쟁</v>
+        <v>일반경쟁</v>
       </c>
       <c r="H28" t="str">
-        <v>해외 수산업 선진지역 및 우수기업 탐방 위탁 용역</v>
+        <v>글로벌 트렌드 정보 서비스</v>
       </c>
       <c r="I28" t="str">
         <v>일반용역</v>
       </c>
       <c r="J28">
-        <v>44000000</v>
+        <v>32000000</v>
       </c>
       <c r="K28" t="str">
-        <v>산학협력단 해양생물연구교육센터</v>
+        <v>한국섬유산업연합</v>
       </c>
       <c r="L28" t="str">
-        <v>진희정</v>
+        <v>안가영</v>
       </c>
       <c r="M28" t="str">
-        <v>062-608-5922</v>
+        <v>02-528-4059</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>3708</v>
+        <v>2531</v>
       </c>
       <c r="B29" t="str">
         <v>용역</v>
       </c>
       <c r="C29" t="str">
-        <v>장기</v>
+        <v>신규</v>
       </c>
       <c r="D29" t="str">
-        <v>한국에너지기술평가원</v>
+        <v>대한장애인체육회</v>
       </c>
       <c r="E29" t="str">
         <v>2024년 05월</v>
@@ -1555,30 +1558,30 @@
         <v>자체조달</v>
       </c>
       <c r="G29" t="str">
-        <v>제한경쟁</v>
+        <v>일반경쟁</v>
       </c>
       <c r="H29" t="str">
-        <v>정보시스템 위탁운영 및 유지보수</v>
+        <v>차세대통합정보시스템 구축 감리</v>
       </c>
       <c r="I29" t="str">
         <v>일반용역</v>
       </c>
       <c r="J29">
-        <v>734000000</v>
+        <v>588000000</v>
       </c>
       <c r="K29" t="str">
-        <v>디지털전략실</v>
+        <v>경영지원부</v>
       </c>
       <c r="L29" t="str">
-        <v>여성율 선임연구원</v>
+        <v>김진석</v>
       </c>
       <c r="M29" t="str">
-        <v>02-3469-8464</v>
+        <v>02-3434-4540</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>3747</v>
+        <v>2539</v>
       </c>
       <c r="B30" t="str">
         <v>용역</v>
@@ -1587,51 +1590,48 @@
         <v>신규</v>
       </c>
       <c r="D30" t="str">
-        <v>재단법인충청남도일자리경제진흥원</v>
+        <v>국방기술품질원</v>
       </c>
       <c r="E30" t="str">
         <v>2024년 05월</v>
       </c>
       <c r="F30" t="str">
-        <v>자체조달</v>
+        <v>중앙조달</v>
       </c>
       <c r="G30" t="str">
-        <v>일반경쟁</v>
+        <v>제한경쟁</v>
       </c>
       <c r="H30" t="str">
-        <v>2024년 충남 해외시장개척단(동유럽) 운영 용역</v>
+        <v>정보체계 이관 및 통합업무포털(다모아) 개선 사업</v>
       </c>
       <c r="I30" t="str">
         <v>일반용역</v>
       </c>
       <c r="J30">
-        <v>250000000</v>
+        <v>507000000</v>
       </c>
       <c r="K30" t="str">
-        <v>마케팅지원팀</v>
+        <v>재무회계팀</v>
       </c>
       <c r="L30" t="str">
-        <v>정연하</v>
+        <v>김재민</v>
       </c>
       <c r="M30" t="str">
-        <v>041-404-1352</v>
+        <v>055-751-5539</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>3809</v>
+        <v>2558</v>
       </c>
       <c r="B31" t="str">
         <v>용역</v>
       </c>
-      <c r="C31" t="str">
-        <v>신규</v>
-      </c>
       <c r="D31" t="str">
-        <v>사단법인 한국포도협회</v>
+        <v>한국토지주택공사</v>
       </c>
       <c r="E31" t="str">
-        <v>2024년 05월</v>
+        <v>2024년 06월</v>
       </c>
       <c r="F31" t="str">
         <v>자체조달</v>
@@ -1640,27 +1640,24 @@
         <v>일반경쟁</v>
       </c>
       <c r="H31" t="str">
-        <v>포도의무자조금 회원정보 관리 및 상담센터 운영 대행업체 선정</v>
+        <v>광명 유통단지 도시기반 전기·정보통신 설계용역</v>
       </c>
       <c r="I31" t="str">
-        <v>일반용역</v>
+        <v>기술용역</v>
       </c>
       <c r="J31">
-        <v>60000000</v>
+        <v>86328000</v>
       </c>
       <c r="K31" t="str">
-        <v>사업부</v>
-      </c>
-      <c r="L31" t="str">
-        <v>하미정</v>
+        <v>도시기반처</v>
       </c>
       <c r="M31" t="str">
-        <v>02-752-8853</v>
+        <v>0559223711</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>3823</v>
+        <v>2596</v>
       </c>
       <c r="B32" t="str">
         <v>용역</v>
@@ -1669,39 +1666,39 @@
         <v>신규</v>
       </c>
       <c r="D32" t="str">
-        <v>울산대학교</v>
+        <v>한국전기안전공사</v>
       </c>
       <c r="E32" t="str">
         <v>2024년 05월</v>
       </c>
       <c r="F32" t="str">
-        <v>자체조달</v>
+        <v>중앙조달</v>
       </c>
       <c r="G32" t="str">
-        <v>일반경쟁</v>
+        <v>제한경쟁</v>
       </c>
       <c r="H32" t="str">
-        <v>2024년 이차전지 융합전공 재학생 하계 해외 현장학습</v>
+        <v>일반용전기설비 주소정보 표준화 및 온라인 사용전점검 개발 용역</v>
       </c>
       <c r="I32" t="str">
         <v>일반용역</v>
       </c>
       <c r="J32">
-        <v>90000000</v>
+        <v>361400000</v>
       </c>
       <c r="K32" t="str">
-        <v>이차전지인력양성센터</v>
+        <v>디지털점검부</v>
       </c>
       <c r="L32" t="str">
-        <v>이동운</v>
+        <v>강민구</v>
       </c>
       <c r="M32" t="str">
-        <v>052-712-8475</v>
+        <v>063-716-2694</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>3873</v>
+        <v>2612</v>
       </c>
       <c r="B33" t="str">
         <v>용역</v>
@@ -1710,7 +1707,7 @@
         <v>신규</v>
       </c>
       <c r="D33" t="str">
-        <v>대전과학기술대학교 산학협력단</v>
+        <v>국토교통부</v>
       </c>
       <c r="E33" t="str">
         <v>2024년 05월</v>
@@ -1719,30 +1716,30 @@
         <v>자체조달</v>
       </c>
       <c r="G33" t="str">
-        <v>제한경쟁</v>
+        <v>수의계약</v>
       </c>
       <c r="H33" t="str">
-        <v>(국고-전문대학혁신지원사업)2024년 해외 단기 인턴십(어학연수 및 현장실습)프로그램 외부 위탁업체 선정 입찰</v>
+        <v>교통약자 이동편의 정보관리시스템 구축사업</v>
       </c>
       <c r="I33" t="str">
         <v>일반용역</v>
       </c>
       <c r="J33">
-        <v>105000000</v>
+        <v>3487000000</v>
       </c>
       <c r="K33" t="str">
-        <v>총무팀</v>
+        <v>생활교통복지과</v>
       </c>
       <c r="L33" t="str">
-        <v>김민정</v>
+        <v>노운용</v>
       </c>
       <c r="M33" t="str">
-        <v>042-580-6153</v>
+        <v>044-201-3805</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>3895</v>
+        <v>2654</v>
       </c>
       <c r="B34" t="str">
         <v>용역</v>
@@ -1751,7 +1748,7 @@
         <v>신규</v>
       </c>
       <c r="D34" t="str">
-        <v>축산물품질평가원</v>
+        <v>국방기술진흥연구소</v>
       </c>
       <c r="E34" t="str">
         <v>2024년 05월</v>
@@ -1760,30 +1757,30 @@
         <v>자체조달</v>
       </c>
       <c r="G34" t="str">
-        <v>일반경쟁</v>
+        <v>제한경쟁</v>
       </c>
       <c r="H34" t="str">
-        <v>해외 축산유통정보조사 용역</v>
+        <v>국방기술정보통합서비스(DTiMS) 4.0 기능 고도화 사업</v>
       </c>
       <c r="I34" t="str">
         <v>일반용역</v>
       </c>
       <c r="J34">
-        <v>49000000</v>
+        <v>945309000</v>
       </c>
       <c r="K34" t="str">
-        <v>유통정보처</v>
+        <v>지식정보관리팀</v>
       </c>
       <c r="L34" t="str">
-        <v>김지영</v>
+        <v>이민우</v>
       </c>
       <c r="M34" t="str">
-        <v>044-410-7085</v>
+        <v>055-751-7436</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>3931</v>
+        <v>2705</v>
       </c>
       <c r="B35" t="str">
         <v>용역</v>
@@ -1792,7 +1789,7 @@
         <v>신규</v>
       </c>
       <c r="D35" t="str">
-        <v>한국인터넷진흥원</v>
+        <v>사단법인 한국정보통신진흥협회</v>
       </c>
       <c r="E35" t="str">
         <v>2024년 05월</v>
@@ -1801,30 +1798,30 @@
         <v>자체조달</v>
       </c>
       <c r="G35" t="str">
-        <v>제한경쟁</v>
+        <v>일반경쟁</v>
       </c>
       <c r="H35" t="str">
-        <v>사이버 정보보안 정책연구 발표회 용역</v>
+        <v>형사사법정보시스템 통신이용자정보 통지 연계 기능 개발</v>
       </c>
       <c r="I35" t="str">
         <v>일반용역</v>
       </c>
       <c r="J35">
-        <v>60000000</v>
+        <v>160000000</v>
       </c>
       <c r="K35" t="str">
-        <v>정책개발팀</v>
+        <v>서비스지원팀</v>
       </c>
       <c r="L35" t="str">
-        <v>천곤웅</v>
+        <v>채창일</v>
       </c>
       <c r="M35" t="str">
-        <v>061-820-1124</v>
+        <v>02-580-0712</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>3940</v>
+        <v>2754</v>
       </c>
       <c r="B36" t="str">
         <v>용역</v>
@@ -1833,7 +1830,7 @@
         <v>신규</v>
       </c>
       <c r="D36" t="str">
-        <v>강원특별자치도교육청 강원특별자치도정선교육지원청 함백중학교</v>
+        <v>충청남도교육청 충청남도교육청진로융합교육원</v>
       </c>
       <c r="E36" t="str">
         <v>2024년 05월</v>
@@ -1845,27 +1842,27 @@
         <v>제한경쟁</v>
       </c>
       <c r="H36" t="str">
-        <v>2024학년도 정선 함백중학교 3학년 해외문화체험학습 위탁용역</v>
+        <v>[긴급]2024 충남 대입정보박람회 운영 용역</v>
       </c>
       <c r="I36" t="str">
         <v>일반용역</v>
       </c>
       <c r="J36">
-        <v>78406000</v>
+        <v>129000000</v>
       </c>
       <c r="K36" t="str">
-        <v>교육행정실</v>
+        <v>진로진학부</v>
       </c>
       <c r="L36" t="str">
-        <v>허병석</v>
+        <v>진로진학부</v>
       </c>
       <c r="M36" t="str">
-        <v>033-370-0101</v>
+        <v>041-406-2652</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>3965</v>
+        <v>2775</v>
       </c>
       <c r="B37" t="str">
         <v>용역</v>
@@ -1874,7 +1871,7 @@
         <v>신규</v>
       </c>
       <c r="D37" t="str">
-        <v>한국교통안전공단</v>
+        <v>한국원자력통제기술원</v>
       </c>
       <c r="E37" t="str">
         <v>2024년 05월</v>
@@ -1886,27 +1883,27 @@
         <v>제한경쟁</v>
       </c>
       <c r="H37" t="str">
-        <v>교통약자 이동편의 정보관리시스템 구축 사업 PMO 용역</v>
+        <v>경영정보시스템 기능개선 용역</v>
       </c>
       <c r="I37" t="str">
         <v>일반용역</v>
       </c>
       <c r="J37">
-        <v>221000000</v>
+        <v>99288790</v>
       </c>
       <c r="K37" t="str">
-        <v>모빌리티플랫폼처</v>
+        <v>경영실</v>
       </c>
       <c r="L37" t="str">
-        <v>노영문</v>
+        <v>이동석</v>
       </c>
       <c r="M37" t="str">
-        <v>054-459-7903</v>
+        <v>042-860-9716</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>3971</v>
+        <v>2811</v>
       </c>
       <c r="B38" t="str">
         <v>용역</v>
@@ -1915,7 +1912,7 @@
         <v>신규</v>
       </c>
       <c r="D38" t="str">
-        <v>한국교통안전공단</v>
+        <v>한국전문대학교육협의회</v>
       </c>
       <c r="E38" t="str">
         <v>2024년 05월</v>
@@ -1927,27 +1924,27 @@
         <v>제한경쟁</v>
       </c>
       <c r="H38" t="str">
-        <v>교통약자 이동편의 정보관리시스템 구축 용역</v>
+        <v>2025학년도 지역별 전문대학 입학정보박람회 운영 대행</v>
       </c>
       <c r="I38" t="str">
         <v>일반용역</v>
       </c>
       <c r="J38">
-        <v>2389891762</v>
+        <v>220000000</v>
       </c>
       <c r="K38" t="str">
-        <v>모빌리티플랫폼처</v>
+        <v>기획실</v>
       </c>
       <c r="L38" t="str">
-        <v>노영문</v>
+        <v>권은주</v>
       </c>
       <c r="M38" t="str">
-        <v>054-459-7903</v>
+        <v>02-3145-1206</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>2039</v>
+        <v>2815</v>
       </c>
       <c r="B39" t="str">
         <v>용역</v>
@@ -1956,7 +1953,7 @@
         <v>신규</v>
       </c>
       <c r="D39" t="str">
-        <v>재단법인 경상북도경제진흥원</v>
+        <v>국토안전관리원</v>
       </c>
       <c r="E39" t="str">
         <v>2024년 05월</v>
@@ -1965,30 +1962,30 @@
         <v>자체조달</v>
       </c>
       <c r="G39" t="str">
-        <v>일반경쟁</v>
+        <v>제한경쟁</v>
       </c>
       <c r="H39" t="str">
-        <v>「2024년 경북PRIDE기업 해외 무역사절단 파견」운영 용역</v>
+        <v>2024년 지하안전정보시스템 기능개선 사업</v>
       </c>
       <c r="I39" t="str">
         <v>일반용역</v>
       </c>
       <c r="J39">
-        <v>90000000</v>
+        <v>169600000</v>
       </c>
       <c r="K39" t="str">
-        <v>강소기업육성팀</v>
+        <v>디지털기획운영실</v>
       </c>
       <c r="L39" t="str">
-        <v>최유진</v>
+        <v>문은지 과장</v>
       </c>
       <c r="M39" t="str">
-        <v>054-470-8565</v>
+        <v>055-771-4989</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>2085</v>
+        <v>2874</v>
       </c>
       <c r="B40" t="str">
         <v>용역</v>
@@ -1997,7 +1994,7 @@
         <v>신규</v>
       </c>
       <c r="D40" t="str">
-        <v>정보통신산업진흥원</v>
+        <v>국토안전관리원</v>
       </c>
       <c r="E40" t="str">
         <v>2024년 05월</v>
@@ -2009,27 +2006,27 @@
         <v>제한경쟁</v>
       </c>
       <c r="H40" t="str">
-        <v>개도국 정보통신방송전문가 초청연수 정보시스템 유지보수용역</v>
+        <v>2024년 시설물통합정보관리체계 기능개선 사업</v>
       </c>
       <c r="I40" t="str">
         <v>일반용역</v>
       </c>
       <c r="J40">
-        <v>40000000</v>
+        <v>276420000</v>
       </c>
       <c r="K40" t="str">
-        <v>글로벌협력팀</v>
+        <v>디지털기획운영실</v>
       </c>
       <c r="L40" t="str">
-        <v>김서희 수석</v>
+        <v>전요성 과장</v>
       </c>
       <c r="M40" t="str">
-        <v>043-931-5522</v>
+        <v>055-771-4993</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>2103</v>
+        <v>2881</v>
       </c>
       <c r="B41" t="str">
         <v>용역</v>
@@ -2038,10 +2035,10 @@
         <v>신규</v>
       </c>
       <c r="D41" t="str">
-        <v>전북특별자치도교육청 전북특별자치도남원교육지원청</v>
+        <v>한국농수산식품유통공사</v>
       </c>
       <c r="E41" t="str">
-        <v>2024년 05월</v>
+        <v>2024년 06월</v>
       </c>
       <c r="F41" t="str">
         <v>자체조달</v>
@@ -2050,27 +2047,27 @@
         <v>제한경쟁</v>
       </c>
       <c r="H41" t="str">
-        <v>2024. 중학생 해외영어캠프 용역 소액수의 견적제출 공고</v>
+        <v>농넷 데이터 품질관리 및 맞춤정보 생산 용역</v>
       </c>
       <c r="I41" t="str">
         <v>일반용역</v>
       </c>
       <c r="J41">
-        <v>89240000</v>
+        <v>470000000</v>
       </c>
       <c r="K41" t="str">
-        <v>교육지원과</v>
+        <v>빅데이터사업부</v>
       </c>
       <c r="L41" t="str">
-        <v>강현정</v>
+        <v>한상근</v>
       </c>
       <c r="M41" t="str">
-        <v>063-620-7826</v>
+        <v>061-931-1359</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>2183</v>
+        <v>2925</v>
       </c>
       <c r="B42" t="str">
         <v>용역</v>
@@ -2079,7 +2076,7 @@
         <v>신규</v>
       </c>
       <c r="D42" t="str">
-        <v>국토교통부</v>
+        <v>재단법인 포항테크노파크</v>
       </c>
       <c r="E42" t="str">
         <v>2024년 05월</v>
@@ -2091,27 +2088,27 @@
         <v>제한경쟁</v>
       </c>
       <c r="H42" t="str">
-        <v>차세대 부동산종합공부시스템 구축(1차) 개인정보 영향평가</v>
+        <v>경북지역 중소기업 정보보호 기초진단 및 전문교육 지원 용역</v>
       </c>
       <c r="I42" t="str">
         <v>일반용역</v>
       </c>
       <c r="J42">
-        <v>50000000</v>
+        <v>237534000</v>
       </c>
       <c r="K42" t="str">
-        <v>공간정보제도과</v>
+        <v>경북SW진흥본부</v>
       </c>
       <c r="L42" t="str">
-        <v>고은정</v>
+        <v>박정환</v>
       </c>
       <c r="M42" t="str">
-        <v>044-201-3486</v>
+        <v>054-223-2183</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>2218</v>
+        <v>2971</v>
       </c>
       <c r="B43" t="str">
         <v>용역</v>
@@ -2120,7 +2117,7 @@
         <v>신규</v>
       </c>
       <c r="D43" t="str">
-        <v>국토교통부</v>
+        <v>국립중앙의료원</v>
       </c>
       <c r="E43" t="str">
         <v>2024년 05월</v>
@@ -2132,27 +2129,27 @@
         <v>제한경쟁</v>
       </c>
       <c r="H43" t="str">
-        <v>물류기업 해외진출 활성화 방안 마련 연구</v>
+        <v>(긴급)「차세대 응급의료정보시스템 구축을 위한 정보화전략계획(ISP)」 용역</v>
       </c>
       <c r="I43" t="str">
         <v>일반용역</v>
       </c>
       <c r="J43">
-        <v>40000000</v>
+        <v>220000000</v>
       </c>
       <c r="K43" t="str">
-        <v>물류정책과</v>
+        <v>응급의료정보화팀</v>
       </c>
       <c r="L43" t="str">
-        <v>윤덕웅</v>
+        <v>김종은</v>
       </c>
       <c r="M43" t="str">
-        <v>044-201-4005</v>
+        <v>02-6362-3472</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>2254</v>
+        <v>2994</v>
       </c>
       <c r="B44" t="str">
         <v>용역</v>
@@ -2161,7 +2158,7 @@
         <v>신규</v>
       </c>
       <c r="D44" t="str">
-        <v>제주특별자치도</v>
+        <v>한국여행업협회</v>
       </c>
       <c r="E44" t="str">
         <v>2024년 05월</v>
@@ -2173,27 +2170,27 @@
         <v>제한경쟁</v>
       </c>
       <c r="H44" t="str">
-        <v>2024년 제주지역 무장애 여행을 휘한 정보 현행화 및 POI 구축</v>
+        <v>「중소여행사 신용카드정보보안기준 준수 지원서비스」 공급사 선정</v>
       </c>
       <c r="I44" t="str">
-        <v>기술용역</v>
+        <v>일반용역</v>
       </c>
       <c r="J44">
-        <v>100000000</v>
+        <v>105000000</v>
       </c>
       <c r="K44" t="str">
-        <v>제주특별자치도 미래성장과</v>
+        <v>해외여행팀</v>
       </c>
       <c r="L44" t="str">
-        <v>김나현</v>
+        <v>최완아</v>
       </c>
       <c r="M44" t="str">
-        <v>064-710-2585</v>
+        <v>02-6200-3916</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>2255</v>
+        <v>1159</v>
       </c>
       <c r="B45" t="str">
         <v>용역</v>
@@ -2202,10 +2199,10 @@
         <v>신규</v>
       </c>
       <c r="D45" t="str">
-        <v>재단법인강원정보문화산업진흥원</v>
+        <v>문화체육관광부 국립중앙도서관</v>
       </c>
       <c r="E45" t="str">
-        <v>2024년 05월</v>
+        <v>2024년 06월</v>
       </c>
       <c r="F45" t="str">
         <v>자체조달</v>
@@ -2214,27 +2211,27 @@
         <v>제한경쟁</v>
       </c>
       <c r="H45" t="str">
-        <v>강원정보문화산업진흥원 콘텐츠진흥본부 운영홈페이지 개편 용역</v>
+        <v>2024년 개인정보보호 컨설팅 사업</v>
       </c>
       <c r="I45" t="str">
         <v>일반용역</v>
       </c>
       <c r="J45">
-        <v>47000000</v>
+        <v>70000000</v>
       </c>
       <c r="K45" t="str">
-        <v>영상산업지원팀</v>
+        <v>정보기술기반과</v>
       </c>
       <c r="L45" t="str">
-        <v>허진수</v>
+        <v>김혜원</v>
       </c>
       <c r="M45" t="str">
-        <v>033-245-6333</v>
+        <v>02-590-0569</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>2276</v>
+        <v>1178</v>
       </c>
       <c r="B46" t="str">
         <v>용역</v>
@@ -2243,39 +2240,39 @@
         <v>신규</v>
       </c>
       <c r="D46" t="str">
-        <v>전라남도강진교육청 강진중학교</v>
+        <v>재단법인 광주정보.문화산업진흥원</v>
       </c>
       <c r="E46" t="str">
-        <v>2024년 05월</v>
+        <v>2024년 06월</v>
       </c>
       <c r="F46" t="str">
         <v>자체조달</v>
       </c>
       <c r="G46" t="str">
-        <v>제한경쟁</v>
+        <v>일반경쟁</v>
       </c>
       <c r="H46" t="str">
-        <v>2024년 강진중학교 해외역사문화탐방 위탁용역 입찰 공고</v>
+        <v>호남지역 정보보호 인력양성 교육 및 인식제고 세미나</v>
       </c>
       <c r="I46" t="str">
         <v>일반용역</v>
       </c>
       <c r="J46">
-        <v>138773980</v>
+        <v>190000000</v>
       </c>
       <c r="K46" t="str">
-        <v>강진중학교 행정실</v>
+        <v>SW진흥팀</v>
       </c>
       <c r="L46" t="str">
-        <v>황현숙</v>
+        <v>금지윤</v>
       </c>
       <c r="M46" t="str">
-        <v>061-433-3976</v>
+        <v>062-610-9563</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>2278</v>
+        <v>1214</v>
       </c>
       <c r="B47" t="str">
         <v>용역</v>
@@ -2284,7 +2281,7 @@
         <v>신규</v>
       </c>
       <c r="D47" t="str">
-        <v>울산시설공단</v>
+        <v>외교부</v>
       </c>
       <c r="E47" t="str">
         <v>2024년 05월</v>
@@ -2296,27 +2293,27 @@
         <v>제한경쟁</v>
       </c>
       <c r="H47" t="str">
-        <v>울산시설공단 2024년 해외선진지 벤치마킹 용역</v>
+        <v>2024년 정보시스템 모의해킹 및 취약점 분석</v>
       </c>
       <c r="I47" t="str">
         <v>일반용역</v>
       </c>
       <c r="J47">
-        <v>78504300</v>
+        <v>45000000</v>
       </c>
       <c r="K47" t="str">
-        <v>총무인사팀</v>
+        <v>외교정보보안담당관실</v>
       </c>
       <c r="L47" t="str">
-        <v>최다미</v>
+        <v>류병규</v>
       </c>
       <c r="M47" t="str">
-        <v>052-290-7334</v>
+        <v>02-2100-6877</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>2281</v>
+        <v>1265</v>
       </c>
       <c r="B48" t="str">
         <v>용역</v>
@@ -2325,39 +2322,39 @@
         <v>신규</v>
       </c>
       <c r="D48" t="str">
-        <v>충청남도교육청 금산고등학교</v>
+        <v>재단법인 식생활안전관리원</v>
       </c>
       <c r="E48" t="str">
-        <v>2024년 05월</v>
+        <v>2024년 06월</v>
       </c>
       <c r="F48" t="str">
         <v>자체조달</v>
       </c>
       <c r="G48" t="str">
-        <v>제한경쟁</v>
+        <v>일반경쟁</v>
       </c>
       <c r="H48" t="str">
-        <v>2024학년도 금산고등학교 2학년 해외현장체험학습 위탁 용역</v>
+        <v>어린이 식품정보 취득 행태 및 학교 식생활 영양교육 실태 조사</v>
       </c>
       <c r="I48" t="str">
         <v>일반용역</v>
       </c>
       <c r="J48">
-        <v>205834000</v>
+        <v>95000000</v>
       </c>
       <c r="K48" t="str">
-        <v>금산고등학교</v>
+        <v>식생활교육팀</v>
       </c>
       <c r="L48" t="str">
-        <v>김은송</v>
+        <v>김영아</v>
       </c>
       <c r="M48" t="str">
-        <v>041-450-7204</v>
+        <v>043-238-9363</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>2310</v>
+        <v>1319</v>
       </c>
       <c r="B49" t="str">
         <v>용역</v>
@@ -2366,39 +2363,39 @@
         <v>신규</v>
       </c>
       <c r="D49" t="str">
-        <v>충청북도교육청 제천디지털전자고등학교</v>
+        <v>한국원자력안전기술원</v>
       </c>
       <c r="E49" t="str">
-        <v>2024년 06월</v>
+        <v>2024년 05월</v>
       </c>
       <c r="F49" t="str">
         <v>자체조달</v>
       </c>
       <c r="G49" t="str">
-        <v>제한경쟁</v>
+        <v>수의계약</v>
       </c>
       <c r="H49" t="str">
-        <v>2024학년도 제천디지털전자고등학교 해외체험학습 위탁 용역</v>
+        <v>2024 원자력안전규제정보회의 관계기관 홍보관 운영</v>
       </c>
       <c r="I49" t="str">
         <v>일반용역</v>
       </c>
       <c r="J49">
-        <v>128180000</v>
+        <v>26000000</v>
       </c>
       <c r="K49" t="str">
-        <v>행정실</v>
+        <v>구매자산실</v>
       </c>
       <c r="L49" t="str">
-        <v>전홍주</v>
+        <v>강완서</v>
       </c>
       <c r="M49" t="str">
-        <v>070-4333-5126</v>
+        <v>042-868-0565</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>2346</v>
+        <v>1321</v>
       </c>
       <c r="B50" t="str">
         <v>용역</v>
@@ -2407,7 +2404,7 @@
         <v>신규</v>
       </c>
       <c r="D50" t="str">
-        <v>농림축산식품부 한국농수산대학교</v>
+        <v>국토안전관리원</v>
       </c>
       <c r="E50" t="str">
         <v>2024년 05월</v>
@@ -2416,30 +2413,30 @@
         <v>자체조달</v>
       </c>
       <c r="G50" t="str">
-        <v>제한경쟁</v>
+        <v>수의계약</v>
       </c>
       <c r="H50" t="str">
-        <v>2024학년도 한국농수산대학교 졸업생 해외연수(3개 연수과정) 진행업체 모집 공고</v>
+        <v>바닥충격음 성능검사 임시홈페이지 구축 사업 감리 사업</v>
       </c>
       <c r="I50" t="str">
         <v>일반용역</v>
       </c>
       <c r="J50">
-        <v>350700000</v>
+        <v>21000000</v>
       </c>
       <c r="K50" t="str">
-        <v>교학과</v>
+        <v>디지털기획운영실</v>
       </c>
       <c r="L50" t="str">
-        <v>이영순</v>
+        <v>문은지</v>
       </c>
       <c r="M50" t="str">
-        <v>063-238-9630</v>
+        <v>055-771-4989</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>2359</v>
+        <v>1394</v>
       </c>
       <c r="B51" t="str">
         <v>용역</v>
@@ -2448,10 +2445,10 @@
         <v>신규</v>
       </c>
       <c r="D51" t="str">
-        <v>한국항공우주연구원</v>
+        <v>경상남도 하동군</v>
       </c>
       <c r="E51" t="str">
-        <v>2024년 06월</v>
+        <v>2024년 05월</v>
       </c>
       <c r="F51" t="str">
         <v>자체조달</v>
@@ -2460,27 +2457,27 @@
         <v>제한경쟁</v>
       </c>
       <c r="H51" t="str">
-        <v>대응드론캅용 EO/IR기반 정보추정/탑재체 관리 기술 개발 및 시험평가 지원 용역</v>
+        <v>계항지구 풍수해생활권 종합정비사업 법정보호종 포획·이주 및 모니터링 용역</v>
       </c>
       <c r="I51" t="str">
-        <v>일반용역</v>
+        <v>기술용역</v>
       </c>
       <c r="J51">
-        <v>122000000</v>
+        <v>232145000</v>
       </c>
       <c r="K51" t="str">
-        <v>무인기연구부</v>
+        <v>안전교통과</v>
       </c>
       <c r="L51" t="str">
-        <v>신희민</v>
+        <v>최용혁</v>
       </c>
       <c r="M51" t="str">
-        <v>042-870-3837</v>
+        <v>055-880-2253</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>2364</v>
+        <v>1471</v>
       </c>
       <c r="B52" t="str">
         <v>용역</v>
@@ -2489,7 +2486,7 @@
         <v>신규</v>
       </c>
       <c r="D52" t="str">
-        <v>전북특별자치도교육청 고창북고등학교</v>
+        <v>국가유산청 국립문화유산연구원</v>
       </c>
       <c r="E52" t="str">
         <v>2024년 05월</v>
@@ -2501,27 +2498,27 @@
         <v>제한경쟁</v>
       </c>
       <c r="H52" t="str">
-        <v>2024학년도 고창북고등학교 국제교류수업 연계 해외 현장체험학습 위탁 용역</v>
+        <v>국립문화유산연구원 디지털 연구정보 미래모델 탐색연구 용역</v>
       </c>
       <c r="I52" t="str">
         <v>일반용역</v>
       </c>
       <c r="J52">
-        <v>56525720</v>
+        <v>60000000</v>
       </c>
       <c r="K52" t="str">
-        <v>행정실</v>
+        <v>디지털문화유산연구정보팀</v>
       </c>
       <c r="L52" t="str">
-        <v>윤근효</v>
+        <v>이희준</v>
       </c>
       <c r="M52" t="str">
-        <v>063-562-6297</v>
+        <v>042-860-9178</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>2466</v>
+        <v>1519</v>
       </c>
       <c r="B53" t="str">
         <v>용역</v>
@@ -2530,10 +2527,10 @@
         <v>신규</v>
       </c>
       <c r="D53" t="str">
-        <v>성남시청소년재단</v>
+        <v>한국표준과학연구원</v>
       </c>
       <c r="E53" t="str">
-        <v>2024년 05월</v>
+        <v>2024년 06월</v>
       </c>
       <c r="F53" t="str">
         <v>자체조달</v>
@@ -2542,27 +2539,27 @@
         <v>제한경쟁</v>
       </c>
       <c r="H53" t="str">
-        <v>2024. 청년창업 아이디에이션 4.0 해외활동 코디네이팅 용역</v>
+        <v>측정표준 연구성과 전주기 관리, 활용을 위한 정보시스템 구축</v>
       </c>
       <c r="I53" t="str">
         <v>일반용역</v>
       </c>
       <c r="J53">
-        <v>64840000</v>
+        <v>100000000</v>
       </c>
       <c r="K53" t="str">
-        <v>성남시청소년재단 경영본부</v>
+        <v>구매자산실</v>
       </c>
       <c r="L53" t="str">
-        <v>김정호</v>
+        <v>장재민</v>
       </c>
       <c r="M53" t="str">
-        <v>031-729-9036</v>
+        <v>042-868-5536</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>2513</v>
+        <v>1538</v>
       </c>
       <c r="B54" t="str">
         <v>용역</v>
@@ -2571,39 +2568,39 @@
         <v>신규</v>
       </c>
       <c r="D54" t="str">
-        <v>한국섬유산업연합회</v>
+        <v>식품의약품안전처</v>
       </c>
       <c r="E54" t="str">
-        <v>2024년 05월</v>
+        <v>2024년 06월</v>
       </c>
       <c r="F54" t="str">
         <v>자체조달</v>
       </c>
       <c r="G54" t="str">
-        <v>일반경쟁</v>
+        <v>제한경쟁</v>
       </c>
       <c r="H54" t="str">
-        <v>글로벌 트렌드 정보 서비스</v>
+        <v>2024년도 수입식품통합정보시스템 고도화 감리</v>
       </c>
       <c r="I54" t="str">
-        <v>일반용역</v>
+        <v>기술용역</v>
       </c>
       <c r="J54">
-        <v>32000000</v>
+        <v>30000000</v>
       </c>
       <c r="K54" t="str">
-        <v>한국섬유산업연합</v>
+        <v>디지털수입안전기획팀</v>
       </c>
       <c r="L54" t="str">
-        <v>안가영</v>
+        <v>정진수</v>
       </c>
       <c r="M54" t="str">
-        <v>02-528-4059</v>
+        <v>043-719-6175</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>2531</v>
+        <v>1547</v>
       </c>
       <c r="B55" t="str">
         <v>용역</v>
@@ -2612,7 +2609,7 @@
         <v>신규</v>
       </c>
       <c r="D55" t="str">
-        <v>대한장애인체육회</v>
+        <v>한국건설기술인협회</v>
       </c>
       <c r="E55" t="str">
         <v>2024년 05월</v>
@@ -2621,30 +2618,30 @@
         <v>자체조달</v>
       </c>
       <c r="G55" t="str">
-        <v>일반경쟁</v>
+        <v>제한경쟁</v>
       </c>
       <c r="H55" t="str">
-        <v>차세대통합정보시스템 구축 감리</v>
+        <v>디지털 전환을 위한 홈페이지 및 모바일 서비스 확대용역</v>
       </c>
       <c r="I55" t="str">
         <v>일반용역</v>
       </c>
       <c r="J55">
-        <v>588000000</v>
+        <v>1145000000</v>
       </c>
       <c r="K55" t="str">
-        <v>경영지원부</v>
+        <v>온라인정보지원팀</v>
       </c>
       <c r="L55" t="str">
-        <v>김진석</v>
+        <v>장상연 과장</v>
       </c>
       <c r="M55" t="str">
-        <v>02-3434-4540</v>
+        <v>02-3416-9471</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>2539</v>
+        <v>1584</v>
       </c>
       <c r="B56" t="str">
         <v>용역</v>
@@ -2653,45 +2650,48 @@
         <v>신규</v>
       </c>
       <c r="D56" t="str">
-        <v>국방기술품질원</v>
+        <v>충청남도</v>
       </c>
       <c r="E56" t="str">
         <v>2024년 05월</v>
       </c>
       <c r="F56" t="str">
-        <v>중앙조달</v>
+        <v>자체조달</v>
       </c>
       <c r="G56" t="str">
         <v>제한경쟁</v>
       </c>
       <c r="H56" t="str">
-        <v>정보체계 이관 및 통합업무포털(다모아) 개선 사업</v>
+        <v>충청남도 소상공인 사회보험료 홈페이지 개선사업</v>
       </c>
       <c r="I56" t="str">
         <v>일반용역</v>
       </c>
       <c r="J56">
-        <v>507000000</v>
+        <v>80000000</v>
       </c>
       <c r="K56" t="str">
-        <v>재무회계팀</v>
+        <v>경제정책과</v>
       </c>
       <c r="L56" t="str">
-        <v>김재민</v>
+        <v>윤준녕</v>
       </c>
       <c r="M56" t="str">
-        <v>055-751-5539</v>
+        <v>041-635-2212</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>2558</v>
+        <v>1629</v>
       </c>
       <c r="B57" t="str">
         <v>용역</v>
       </c>
+      <c r="C57" t="str">
+        <v>신규</v>
+      </c>
       <c r="D57" t="str">
-        <v>한국토지주택공사</v>
+        <v>한국농수산식품유통공사</v>
       </c>
       <c r="E57" t="str">
         <v>2024년 06월</v>
@@ -2700,27 +2700,30 @@
         <v>자체조달</v>
       </c>
       <c r="G57" t="str">
-        <v>일반경쟁</v>
+        <v>제한경쟁</v>
       </c>
       <c r="H57" t="str">
-        <v>광명 유통단지 도시기반 전기·정보통신 설계용역</v>
+        <v>제안요청서(도매시장 통합홈페이지(전자송품장) 고도화 용역</v>
       </c>
       <c r="I57" t="str">
-        <v>기술용역</v>
+        <v>일반용역</v>
       </c>
       <c r="J57">
-        <v>86328000</v>
+        <v>449350000</v>
       </c>
       <c r="K57" t="str">
-        <v>도시기반처</v>
+        <v>도매시장부</v>
+      </c>
+      <c r="L57" t="str">
+        <v>김종빈</v>
       </c>
       <c r="M57" t="str">
-        <v>0559223711</v>
+        <v>061-931-1043</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>2596</v>
+        <v>1654</v>
       </c>
       <c r="B58" t="str">
         <v>용역</v>
@@ -2729,39 +2732,39 @@
         <v>신규</v>
       </c>
       <c r="D58" t="str">
-        <v>한국전기안전공사</v>
+        <v>부산광역시교육청 부산광역시남부교육지원청</v>
       </c>
       <c r="E58" t="str">
         <v>2024년 05월</v>
       </c>
       <c r="F58" t="str">
-        <v>중앙조달</v>
+        <v>자체조달</v>
       </c>
       <c r="G58" t="str">
         <v>제한경쟁</v>
       </c>
       <c r="H58" t="str">
-        <v>일반용전기설비 주소정보 표준화 및 온라인 사용전점검 개발 용역</v>
+        <v>부산서중학교 교사개축 전기, 정보통신, 소방공사 설계용역(계속비)</v>
       </c>
       <c r="I58" t="str">
-        <v>일반용역</v>
+        <v>기술용역</v>
       </c>
       <c r="J58">
-        <v>361400000</v>
+        <v>149000000</v>
       </c>
       <c r="K58" t="str">
-        <v>디지털점검부</v>
+        <v>시설지원과</v>
       </c>
       <c r="L58" t="str">
-        <v>강민구</v>
+        <v>천확용</v>
       </c>
       <c r="M58" t="str">
-        <v>063-716-2694</v>
+        <v>051-640-0383</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>2612</v>
+        <v>1755</v>
       </c>
       <c r="B59" t="str">
         <v>용역</v>
@@ -2770,7 +2773,7 @@
         <v>신규</v>
       </c>
       <c r="D59" t="str">
-        <v>국토교통부</v>
+        <v>질병관리청 국립보건연구원</v>
       </c>
       <c r="E59" t="str">
         <v>2024년 05월</v>
@@ -2779,30 +2782,30 @@
         <v>자체조달</v>
       </c>
       <c r="G59" t="str">
-        <v>수의계약</v>
+        <v>제한경쟁</v>
       </c>
       <c r="H59" t="str">
-        <v>교통약자 이동편의 정보관리시스템 구축사업</v>
+        <v>[정보화] 공공백신 종합정보시스템 2차년도 기능개선</v>
       </c>
       <c r="I59" t="str">
         <v>일반용역</v>
       </c>
       <c r="J59">
-        <v>3487000000</v>
+        <v>98000000</v>
       </c>
       <c r="K59" t="str">
-        <v>생활교통복지과</v>
+        <v>운영지원과</v>
       </c>
       <c r="L59" t="str">
-        <v>노운용</v>
+        <v>김정언</v>
       </c>
       <c r="M59" t="str">
-        <v>044-201-3805</v>
+        <v>043-719-8137</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>2620</v>
+        <v>1760</v>
       </c>
       <c r="B60" t="str">
         <v>용역</v>
@@ -2811,10 +2814,10 @@
         <v>신규</v>
       </c>
       <c r="D60" t="str">
-        <v>(재)경기도경제과학진흥원</v>
+        <v>한국농수산식품유통공사</v>
       </c>
       <c r="E60" t="str">
-        <v>2024년 05월</v>
+        <v>2024년 06월</v>
       </c>
       <c r="F60" t="str">
         <v>자체조달</v>
@@ -2823,27 +2826,27 @@
         <v>제한경쟁</v>
       </c>
       <c r="H60" t="str">
-        <v>경기도경제과학진흥원 해외 출장 대행 여행사 모집</v>
+        <v>2024년 농식품 수출국가 및 품목정보조사</v>
       </c>
       <c r="I60" t="str">
         <v>일반용역</v>
       </c>
       <c r="J60">
-        <v>600000000</v>
+        <v>150000000</v>
       </c>
       <c r="K60" t="str">
-        <v>재무회계팀</v>
+        <v>수출푸드테크정보부</v>
       </c>
       <c r="L60" t="str">
-        <v>이연희</v>
+        <v>김여경</v>
       </c>
       <c r="M60" t="str">
-        <v>031-259-6543</v>
+        <v>061-931-0874</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>2654</v>
+        <v>1763</v>
       </c>
       <c r="B61" t="str">
         <v>용역</v>
@@ -2852,7 +2855,7 @@
         <v>신규</v>
       </c>
       <c r="D61" t="str">
-        <v>국방기술진흥연구소</v>
+        <v>대구광역시</v>
       </c>
       <c r="E61" t="str">
         <v>2024년 05월</v>
@@ -2864,27 +2867,27 @@
         <v>제한경쟁</v>
       </c>
       <c r="H61" t="str">
-        <v>국방기술정보통합서비스(DTiMS) 4.0 기능 고도화 사업</v>
+        <v>군위군 3D 공간정보 신규제작 용역</v>
       </c>
       <c r="I61" t="str">
         <v>일반용역</v>
       </c>
       <c r="J61">
-        <v>945309000</v>
+        <v>399540000</v>
       </c>
       <c r="K61" t="str">
-        <v>지식정보관리팀</v>
+        <v>토지정보과</v>
       </c>
       <c r="L61" t="str">
-        <v>이민우</v>
+        <v>장선미</v>
       </c>
       <c r="M61" t="str">
-        <v>055-751-7436</v>
+        <v>053-803-3672</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>2677</v>
+        <v>1770</v>
       </c>
       <c r="B62" t="str">
         <v>용역</v>
@@ -2893,7 +2896,7 @@
         <v>신규</v>
       </c>
       <c r="D62" t="str">
-        <v>사단법인 저작권해외진흥협회</v>
+        <v>서원대학교</v>
       </c>
       <c r="E62" t="str">
         <v>2024년 05월</v>
@@ -2905,36 +2908,33 @@
         <v>제한경쟁</v>
       </c>
       <c r="H62" t="str">
-        <v>2024년 국내기술활용 해외 침해대응 특화사업</v>
+        <v>2024학년도 서원대학교 정보시스템 통합유지보수 용역 업체 선정</v>
       </c>
       <c r="I62" t="str">
         <v>일반용역</v>
       </c>
       <c r="J62">
-        <v>50000000</v>
+        <v>660000000</v>
       </c>
       <c r="K62" t="str">
-        <v>진흥사업팀</v>
+        <v>전산정보팀</v>
       </c>
       <c r="L62" t="str">
-        <v>유채영</v>
+        <v>배동준</v>
       </c>
       <c r="M62" t="str">
-        <v>02-2038-7014</v>
+        <v>043-299-8080</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>2705</v>
+        <v>1826</v>
       </c>
       <c r="B63" t="str">
         <v>용역</v>
       </c>
-      <c r="C63" t="str">
-        <v>신규</v>
-      </c>
       <c r="D63" t="str">
-        <v>사단법인 한국정보통신진흥협회</v>
+        <v>한국도로공사</v>
       </c>
       <c r="E63" t="str">
         <v>2024년 05월</v>
@@ -2943,30 +2943,30 @@
         <v>자체조달</v>
       </c>
       <c r="G63" t="str">
-        <v>일반경쟁</v>
+        <v>수의계약</v>
       </c>
       <c r="H63" t="str">
-        <v>형사사법정보시스템 통신이용자정보 통지 연계 기능 개발</v>
+        <v>상주지사 가로등 위치정보화 작업 용역</v>
       </c>
       <c r="I63" t="str">
         <v>일반용역</v>
       </c>
       <c r="J63">
-        <v>160000000</v>
+        <v>15000000</v>
       </c>
       <c r="K63" t="str">
-        <v>서비스지원팀</v>
+        <v>상주지사 도로안전팀</v>
       </c>
       <c r="L63" t="str">
-        <v>채창일</v>
+        <v>이성운</v>
       </c>
       <c r="M63" t="str">
-        <v>02-580-0712</v>
+        <v>054-711-6752</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>2710</v>
+        <v>1844</v>
       </c>
       <c r="B64" t="str">
         <v>용역</v>
@@ -2975,39 +2975,39 @@
         <v>신규</v>
       </c>
       <c r="D64" t="str">
-        <v>해양수산과학기술진흥원</v>
+        <v>사단법인 한국정보통신진흥협회</v>
       </c>
       <c r="E64" t="str">
-        <v>2024년 05월</v>
+        <v>2024년 06월</v>
       </c>
       <c r="F64" t="str">
         <v>자체조달</v>
       </c>
       <c r="G64" t="str">
-        <v>제한경쟁</v>
+        <v>일반경쟁</v>
       </c>
       <c r="H64" t="str">
-        <v>2024년 해양수산 수출기업 컨설팅 및 해외연계·지원 용역</v>
+        <v>정보통신기술자격 자격증 배송</v>
       </c>
       <c r="I64" t="str">
         <v>일반용역</v>
       </c>
       <c r="J64">
-        <v>50000000</v>
+        <v>60000000</v>
       </c>
       <c r="K64" t="str">
-        <v>산업정책실</v>
+        <v>디지털인재양성팀</v>
       </c>
       <c r="L64" t="str">
-        <v>박선영</v>
+        <v>조연희</v>
       </c>
       <c r="M64" t="str">
-        <v>02-3460-0352</v>
+        <v>02-580-0737</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>2729</v>
+        <v>1933</v>
       </c>
       <c r="B65" t="str">
         <v>용역</v>
@@ -3016,39 +3016,39 @@
         <v>신규</v>
       </c>
       <c r="D65" t="str">
-        <v>중앙대학교 산학협력단</v>
+        <v>한국에너지기술연구원</v>
       </c>
       <c r="E65" t="str">
-        <v>2024년 06월</v>
+        <v>2024년 05월</v>
       </c>
       <c r="F65" t="str">
         <v>자체조달</v>
       </c>
       <c r="G65" t="str">
-        <v>일반경쟁</v>
+        <v>제한경쟁</v>
       </c>
       <c r="H65" t="str">
-        <v>2024 국방AI 교육대학 군 특화 AI전문교육과정 해외 연수</v>
+        <v>2024년도 주요정보통신기반시설 취약점 분석·평가 사업</v>
       </c>
       <c r="I65" t="str">
         <v>일반용역</v>
       </c>
       <c r="J65">
-        <v>100200000</v>
+        <v>50000000</v>
       </c>
       <c r="K65" t="str">
-        <v>중앙대학교 산학협력단</v>
+        <v>정보보안팀</v>
       </c>
       <c r="L65" t="str">
-        <v>김세영</v>
+        <v>김순환</v>
       </c>
       <c r="M65" t="str">
-        <v>02-820-6860</v>
+        <v>042-860-3722</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>2754</v>
+        <v>1940</v>
       </c>
       <c r="B66" t="str">
         <v>용역</v>
@@ -3057,7 +3057,7 @@
         <v>신규</v>
       </c>
       <c r="D66" t="str">
-        <v>충청남도교육청 충청남도교육청진로융합교육원</v>
+        <v>경기도교육청 오산정보고등학교</v>
       </c>
       <c r="E66" t="str">
         <v>2024년 05월</v>
@@ -3069,39 +3069,36 @@
         <v>제한경쟁</v>
       </c>
       <c r="H66" t="str">
-        <v>[긴급]2024 충남 대입정보박람회 운영 용역</v>
+        <v>2024학년도 오산정보고등학교 2학년 현장체험학습(강원도) 위탁 용역</v>
       </c>
       <c r="I66" t="str">
         <v>일반용역</v>
       </c>
       <c r="J66">
-        <v>129000000</v>
+        <v>103430060</v>
       </c>
       <c r="K66" t="str">
-        <v>진로진학부</v>
+        <v>교육행정실</v>
       </c>
       <c r="L66" t="str">
-        <v>진로진학부</v>
+        <v>박성일</v>
       </c>
       <c r="M66" t="str">
-        <v>041-406-2652</v>
+        <v>031-370-5604</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>2771</v>
+        <v>1951</v>
       </c>
       <c r="B67" t="str">
         <v>용역</v>
       </c>
-      <c r="C67" t="str">
-        <v>신규</v>
-      </c>
       <c r="D67" t="str">
-        <v>전북대학교 산학협력단</v>
+        <v>한국생산기술연구원</v>
       </c>
       <c r="E67" t="str">
-        <v>2024년 06월</v>
+        <v>2024년 05월</v>
       </c>
       <c r="F67" t="str">
         <v>자체조달</v>
@@ -3110,27 +3107,18 @@
         <v>제한경쟁</v>
       </c>
       <c r="H67" t="str">
-        <v>2024년 이공학영재교육원 해외선진기관 견학</v>
+        <v>정보화전략계획서비스</v>
       </c>
       <c r="I67" t="str">
         <v>일반용역</v>
       </c>
       <c r="J67">
-        <v>207200000</v>
-      </c>
-      <c r="K67" t="str">
-        <v>전북대학교 산학협력단</v>
-      </c>
-      <c r="L67" t="str">
-        <v>한지혜</v>
-      </c>
-      <c r="M67" t="str">
-        <v>063-270-4455</v>
+        <v>83500000</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>2775</v>
+        <v>1996</v>
       </c>
       <c r="B68" t="str">
         <v>용역</v>
@@ -3139,7 +3127,7 @@
         <v>신규</v>
       </c>
       <c r="D68" t="str">
-        <v>한국원자력통제기술원</v>
+        <v>충청북도교육청</v>
       </c>
       <c r="E68" t="str">
         <v>2024년 05월</v>
@@ -3148,30 +3136,30 @@
         <v>자체조달</v>
       </c>
       <c r="G68" t="str">
-        <v>제한경쟁</v>
+        <v>수의계약</v>
       </c>
       <c r="H68" t="str">
-        <v>경영정보시스템 기능개선 용역</v>
+        <v>충청북도교육연구정보원 연결다리 보수공사 및 기타공사 설계용역</v>
       </c>
       <c r="I68" t="str">
-        <v>일반용역</v>
+        <v>기술용역</v>
       </c>
       <c r="J68">
-        <v>99288790</v>
+        <v>7592000</v>
       </c>
       <c r="K68" t="str">
-        <v>경영실</v>
+        <v>교육시설과</v>
       </c>
       <c r="L68" t="str">
-        <v>이동석</v>
+        <v>박성원</v>
       </c>
       <c r="M68" t="str">
-        <v>042-860-9716</v>
+        <v>043-290-2627</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>2800</v>
+        <v>15</v>
       </c>
       <c r="B69" t="str">
         <v>용역</v>
@@ -3180,39 +3168,39 @@
         <v>신규</v>
       </c>
       <c r="D69" t="str">
-        <v>한국의약품안전관리원</v>
+        <v>국방부 국군재정관리단</v>
       </c>
       <c r="E69" t="str">
-        <v>2024년 05월</v>
+        <v>2024년 06월</v>
       </c>
       <c r="F69" t="str">
         <v>자체조달</v>
       </c>
       <c r="G69" t="str">
-        <v>수의계약</v>
+        <v>제한경쟁</v>
       </c>
       <c r="H69" t="str">
-        <v>세계 마약퇴치의 날 기념식 해외인사 초청 대행 위탁 용역</v>
+        <v>24F211-A 부품단종 정보 획득용역</v>
       </c>
       <c r="I69" t="str">
         <v>일반용역</v>
       </c>
       <c r="J69">
-        <v>18000000</v>
+        <v>99970000</v>
       </c>
       <c r="K69" t="str">
-        <v>혁신경영팀</v>
+        <v>국군재정관리단 계약체 제1물자계약과</v>
       </c>
       <c r="L69" t="str">
-        <v>곽민수</v>
+        <v>이경희</v>
       </c>
       <c r="M69" t="str">
-        <v>02-2172-6810</v>
+        <v>042-616-4134</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>2811</v>
+        <v>24</v>
       </c>
       <c r="B70" t="str">
         <v>용역</v>
@@ -3221,7 +3209,7 @@
         <v>신규</v>
       </c>
       <c r="D70" t="str">
-        <v>한국전문대학교육협의회</v>
+        <v>국립암센터</v>
       </c>
       <c r="E70" t="str">
         <v>2024년 05월</v>
@@ -3233,36 +3221,33 @@
         <v>제한경쟁</v>
       </c>
       <c r="H70" t="str">
-        <v>2025학년도 지역별 전문대학 입학정보박람회 운영 대행</v>
+        <v>국가폐암검진 판독지원 및 질관리 정보시스템 고도화 및 유지보수</v>
       </c>
       <c r="I70" t="str">
         <v>일반용역</v>
       </c>
       <c r="J70">
-        <v>220000000</v>
+        <v>358250000</v>
       </c>
       <c r="K70" t="str">
-        <v>기획실</v>
+        <v>물류관리팀</v>
       </c>
       <c r="L70" t="str">
-        <v>권은주</v>
+        <v>전효정</v>
       </c>
       <c r="M70" t="str">
-        <v>02-3145-1206</v>
+        <v>031-920-0470</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>2815</v>
+        <v>53</v>
       </c>
       <c r="B71" t="str">
         <v>용역</v>
       </c>
-      <c r="C71" t="str">
-        <v>신규</v>
-      </c>
       <c r="D71" t="str">
-        <v>국토안전관리원</v>
+        <v>한국토지주택공사</v>
       </c>
       <c r="E71" t="str">
         <v>2024년 05월</v>
@@ -3271,30 +3256,27 @@
         <v>자체조달</v>
       </c>
       <c r="G71" t="str">
-        <v>제한경쟁</v>
+        <v>수의계약</v>
       </c>
       <c r="H71" t="str">
-        <v>2024년 지하안전정보시스템 기능개선 사업</v>
+        <v>로앤비 법률정보시스템 제공 용역</v>
       </c>
       <c r="I71" t="str">
         <v>일반용역</v>
       </c>
       <c r="J71">
-        <v>169600000</v>
+        <v>33790900</v>
       </c>
       <c r="K71" t="str">
-        <v>디지털기획운영실</v>
-      </c>
-      <c r="L71" t="str">
-        <v>문은지 과장</v>
+        <v>법무처</v>
       </c>
       <c r="M71" t="str">
-        <v>055-771-4989</v>
+        <v>0559225186</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>2874</v>
+        <v>127</v>
       </c>
       <c r="B72" t="str">
         <v>용역</v>
@@ -3303,7 +3285,7 @@
         <v>신규</v>
       </c>
       <c r="D72" t="str">
-        <v>국토안전관리원</v>
+        <v>경기도 평택시</v>
       </c>
       <c r="E72" t="str">
         <v>2024년 05월</v>
@@ -3312,30 +3294,30 @@
         <v>자체조달</v>
       </c>
       <c r="G72" t="str">
-        <v>제한경쟁</v>
+        <v>일반경쟁</v>
       </c>
       <c r="H72" t="str">
-        <v>2024년 시설물통합정보관리체계 기능개선 사업</v>
+        <v>2024년도 평택시 버스정보시스템(BIS) 구축사업(협상에 의한 계약)</v>
       </c>
       <c r="I72" t="str">
         <v>일반용역</v>
       </c>
       <c r="J72">
-        <v>276420000</v>
+        <v>999494600</v>
       </c>
       <c r="K72" t="str">
-        <v>디지털기획운영실</v>
+        <v>대중교통과</v>
       </c>
       <c r="L72" t="str">
-        <v>전요성 과장</v>
+        <v>류한상</v>
       </c>
       <c r="M72" t="str">
-        <v>055-771-4993</v>
+        <v>031-8024-4691</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>2881</v>
+        <v>154</v>
       </c>
       <c r="B73" t="str">
         <v>용역</v>
@@ -3344,7 +3326,7 @@
         <v>신규</v>
       </c>
       <c r="D73" t="str">
-        <v>한국농수산식품유통공사</v>
+        <v>한국과학기술원</v>
       </c>
       <c r="E73" t="str">
         <v>2024년 06월</v>
@@ -3353,30 +3335,30 @@
         <v>자체조달</v>
       </c>
       <c r="G73" t="str">
-        <v>제한경쟁</v>
+        <v>수의계약</v>
       </c>
       <c r="H73" t="str">
-        <v>농넷 데이터 품질관리 및 맞춤정보 생산 용역</v>
+        <v>영재키움 프로젝트 홈페이지 기능 개선 용역</v>
       </c>
       <c r="I73" t="str">
         <v>일반용역</v>
       </c>
       <c r="J73">
-        <v>470000000</v>
+        <v>30000000</v>
       </c>
       <c r="K73" t="str">
-        <v>빅데이터사업부</v>
+        <v>구매팀</v>
       </c>
       <c r="L73" t="str">
-        <v>한상근</v>
+        <v>이윤정</v>
       </c>
       <c r="M73" t="str">
-        <v>061-931-1359</v>
+        <v>042-350-2333</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>2919</v>
+        <v>157</v>
       </c>
       <c r="B74" t="str">
         <v>용역</v>
@@ -3385,39 +3367,39 @@
         <v>신규</v>
       </c>
       <c r="D74" t="str">
-        <v>전북특별자치도교육청 전북특별자치도순창교육지원청 동산초등학교</v>
+        <v>해양수산부 해양수산인재개발원</v>
       </c>
       <c r="E74" t="str">
-        <v>2024년 05월</v>
+        <v>2024년 06월</v>
       </c>
       <c r="F74" t="str">
-        <v>자체조달</v>
+        <v>중앙조달</v>
       </c>
       <c r="G74" t="str">
         <v>제한경쟁</v>
       </c>
       <c r="H74" t="str">
-        <v>2024학년도 동산·복흥초등학교 국제교류수업 연계 해외 현장체험학습 위탁용역</v>
+        <v>2024년 학사운영정보시스템 기능개선</v>
       </c>
       <c r="I74" t="str">
         <v>일반용역</v>
       </c>
       <c r="J74">
-        <v>90513440</v>
+        <v>135000000</v>
       </c>
       <c r="K74" t="str">
-        <v>행정실</v>
+        <v>교육운영과</v>
       </c>
       <c r="L74" t="str">
-        <v>서난영</v>
+        <v>이나은</v>
       </c>
       <c r="M74" t="str">
-        <v>063-652-7459</v>
+        <v>051-720-7793</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>2925</v>
+        <v>172</v>
       </c>
       <c r="B75" t="str">
         <v>용역</v>
@@ -3426,39 +3408,39 @@
         <v>신규</v>
       </c>
       <c r="D75" t="str">
-        <v>재단법인 포항테크노파크</v>
+        <v>한국자산관리공사</v>
       </c>
       <c r="E75" t="str">
-        <v>2024년 05월</v>
+        <v>2024년 06월</v>
       </c>
       <c r="F75" t="str">
-        <v>자체조달</v>
+        <v>중앙조달</v>
       </c>
       <c r="G75" t="str">
-        <v>제한경쟁</v>
+        <v>일반경쟁</v>
       </c>
       <c r="H75" t="str">
-        <v>경북지역 중소기업 정보보호 기초진단 및 전문교육 지원 용역</v>
+        <v>디지털 전환을 위한 중장기 정보화전략계획 및 정보보안 컨설팅</v>
       </c>
       <c r="I75" t="str">
-        <v>일반용역</v>
+        <v>기술용역</v>
       </c>
       <c r="J75">
-        <v>237534000</v>
+        <v>937000000</v>
       </c>
       <c r="K75" t="str">
-        <v>경북SW진흥본부</v>
+        <v>디지털시스템실</v>
       </c>
       <c r="L75" t="str">
-        <v>박정환</v>
+        <v>정민철</v>
       </c>
       <c r="M75" t="str">
-        <v>054-223-2183</v>
+        <v>051-794-3302</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>2971</v>
+        <v>186</v>
       </c>
       <c r="B76" t="str">
         <v>용역</v>
@@ -3467,7 +3449,7 @@
         <v>신규</v>
       </c>
       <c r="D76" t="str">
-        <v>국립중앙의료원</v>
+        <v>(재)대전일자리경제진흥원</v>
       </c>
       <c r="E76" t="str">
         <v>2024년 05월</v>
@@ -3476,30 +3458,30 @@
         <v>자체조달</v>
       </c>
       <c r="G76" t="str">
-        <v>제한경쟁</v>
+        <v>일반경쟁</v>
       </c>
       <c r="H76" t="str">
-        <v>(긴급)「차세대 응급의료정보시스템 구축을 위한 정보화전략계획(ISP)」 용역</v>
+        <v>2024 대전 공공구매 기업정보 플랫폼 유지관리 및 기능개선</v>
       </c>
       <c r="I76" t="str">
         <v>일반용역</v>
       </c>
       <c r="J76">
-        <v>220000000</v>
+        <v>44646324</v>
       </c>
       <c r="K76" t="str">
-        <v>응급의료정보화팀</v>
+        <v>통상지원팀</v>
       </c>
       <c r="L76" t="str">
-        <v>김종은</v>
+        <v>육지혜</v>
       </c>
       <c r="M76" t="str">
-        <v>02-6362-3472</v>
+        <v>042-380-3043</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>2994</v>
+        <v>199</v>
       </c>
       <c r="B77" t="str">
         <v>용역</v>
@@ -3508,7 +3490,7 @@
         <v>신규</v>
       </c>
       <c r="D77" t="str">
-        <v>한국여행업협회</v>
+        <v>대한장애인체육회</v>
       </c>
       <c r="E77" t="str">
         <v>2024년 05월</v>
@@ -3517,68 +3499,71 @@
         <v>자체조달</v>
       </c>
       <c r="G77" t="str">
-        <v>제한경쟁</v>
+        <v>일반경쟁</v>
       </c>
       <c r="H77" t="str">
-        <v>「중소여행사 신용카드정보보안기준 준수 지원서비스」 공급사 선정</v>
+        <v>차세대통합정보시스템 구축 감리</v>
       </c>
       <c r="I77" t="str">
         <v>일반용역</v>
       </c>
       <c r="J77">
-        <v>105000000</v>
+        <v>588000000</v>
       </c>
       <c r="K77" t="str">
-        <v>해외여행팀</v>
+        <v>경영지원부</v>
       </c>
       <c r="L77" t="str">
-        <v>최완아</v>
+        <v>윤은진</v>
       </c>
       <c r="M77" t="str">
-        <v>02-6200-3916</v>
+        <v>02-3434-4544</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>1012</v>
+        <v>216</v>
       </c>
       <c r="B78" t="str">
         <v>용역</v>
       </c>
+      <c r="C78" t="str">
+        <v>신규</v>
+      </c>
       <c r="D78" t="str">
-        <v>한국수자원공사</v>
+        <v>서울특별시교육청 아현산업정보학교</v>
       </c>
       <c r="E78" t="str">
-        <v>2024년 05월</v>
+        <v>2024년 06월</v>
       </c>
       <c r="F78" t="str">
         <v>자체조달</v>
       </c>
       <c r="G78" t="str">
-        <v>일반경쟁</v>
+        <v>수의계약</v>
       </c>
       <c r="H78" t="str">
-        <v>해외 투자사업 기준수익률 산정방식 개선 용역</v>
+        <v>아현산업정보학교 교직원 워크숍 전세버스 임대 용역</v>
       </c>
       <c r="I78" t="str">
         <v>일반용역</v>
       </c>
       <c r="J78">
-        <v>51139000</v>
+        <v>1364000</v>
       </c>
       <c r="K78" t="str">
-        <v>기획조정실</v>
+        <v>아현산업정보학교</v>
       </c>
       <c r="L78" t="str">
-        <v>엄태웅</v>
+        <v>문영미</v>
       </c>
       <c r="M78" t="str">
-        <v>042-629-2336</v>
+        <v>02-390-5803</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>1156</v>
+        <v>237</v>
       </c>
       <c r="B79" t="str">
         <v>용역</v>
@@ -3587,10 +3572,10 @@
         <v>신규</v>
       </c>
       <c r="D79" t="str">
-        <v>전북특별자치도교육청 전북특별자치도전주교육지원청 전주우림중학교</v>
+        <v>건설근로자공제회</v>
       </c>
       <c r="E79" t="str">
-        <v>2024년 06월</v>
+        <v>2024년 05월</v>
       </c>
       <c r="F79" t="str">
         <v>자체조달</v>
@@ -3599,39 +3584,36 @@
         <v>제한경쟁</v>
       </c>
       <c r="H79" t="str">
-        <v>2024학년도 전주우림중학교 국제교류수업 및 해외현장체험학습 위탁 용역</v>
+        <v>통합시스템 구축 감리 및 개인정보 영향평가</v>
       </c>
       <c r="I79" t="str">
         <v>일반용역</v>
       </c>
       <c r="J79">
-        <v>89980000</v>
+        <v>250000000</v>
       </c>
       <c r="K79" t="str">
-        <v>행정실</v>
+        <v>IT개선팀</v>
       </c>
       <c r="L79" t="str">
-        <v>박유하</v>
+        <v>유용선</v>
       </c>
       <c r="M79" t="str">
-        <v>063-220-4904</v>
+        <v>02-519-7712</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>1159</v>
+        <v>267</v>
       </c>
       <c r="B80" t="str">
         <v>용역</v>
       </c>
-      <c r="C80" t="str">
-        <v>신규</v>
-      </c>
       <c r="D80" t="str">
-        <v>문화체육관광부 국립중앙도서관</v>
+        <v>한국생산기술연구원</v>
       </c>
       <c r="E80" t="str">
-        <v>2024년 06월</v>
+        <v>2024년 05월</v>
       </c>
       <c r="F80" t="str">
         <v>자체조달</v>
@@ -3640,27 +3622,18 @@
         <v>제한경쟁</v>
       </c>
       <c r="H80" t="str">
-        <v>2024년 개인정보보호 컨설팅 사업</v>
+        <v>KITECH연구데이터플랫폼 구축 정보시스템마스터플랜(ISMP) 수립</v>
       </c>
       <c r="I80" t="str">
         <v>일반용역</v>
       </c>
       <c r="J80">
-        <v>70000000</v>
-      </c>
-      <c r="K80" t="str">
-        <v>정보기술기반과</v>
-      </c>
-      <c r="L80" t="str">
-        <v>김혜원</v>
-      </c>
-      <c r="M80" t="str">
-        <v>02-590-0569</v>
+        <v>180000000</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>1178</v>
+        <v>296</v>
       </c>
       <c r="B81" t="str">
         <v>용역</v>
@@ -3669,39 +3642,39 @@
         <v>신규</v>
       </c>
       <c r="D81" t="str">
-        <v>재단법인 광주정보.문화산업진흥원</v>
+        <v>한국생명공학연구원</v>
       </c>
       <c r="E81" t="str">
         <v>2024년 06월</v>
       </c>
       <c r="F81" t="str">
-        <v>자체조달</v>
+        <v>중앙조달</v>
       </c>
       <c r="G81" t="str">
-        <v>일반경쟁</v>
+        <v>제한경쟁</v>
       </c>
       <c r="H81" t="str">
-        <v>호남지역 정보보호 인력양성 교육 및 인식제고 세미나</v>
+        <v>2024년 국가연구안전관리본부 정보시스템(LABS, EDU) 고도화</v>
       </c>
       <c r="I81" t="str">
         <v>일반용역</v>
       </c>
       <c r="J81">
-        <v>190000000</v>
+        <v>235840000</v>
       </c>
       <c r="K81" t="str">
-        <v>SW진흥팀</v>
+        <v>구매자산실</v>
       </c>
       <c r="L81" t="str">
-        <v>금지윤</v>
+        <v>최규선</v>
       </c>
       <c r="M81" t="str">
-        <v>062-610-9563</v>
+        <v>042-860-4041</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>1190</v>
+        <v>349</v>
       </c>
       <c r="B82" t="str">
         <v>용역</v>
@@ -3710,39 +3683,39 @@
         <v>신규</v>
       </c>
       <c r="D82" t="str">
-        <v>재단법인 서울관광재단</v>
+        <v>한우자조금관리위원회</v>
       </c>
       <c r="E82" t="str">
-        <v>2024년 06월</v>
+        <v>2024년 05월</v>
       </c>
       <c r="F82" t="str">
         <v>자체조달</v>
       </c>
       <c r="G82" t="str">
-        <v>제한경쟁</v>
+        <v>일반경쟁</v>
       </c>
       <c r="H82" t="str">
-        <v>2024 해외관광박람회 서울 단독 홍보관 설치 및 운영</v>
+        <v>2024년 한우자조금 생산정보 모니터링 조사용역</v>
       </c>
       <c r="I82" t="str">
         <v>일반용역</v>
       </c>
       <c r="J82">
-        <v>314000000</v>
+        <v>60000000</v>
       </c>
       <c r="K82" t="str">
-        <v>글로벌관광산업팀</v>
+        <v>교육조사부</v>
       </c>
       <c r="L82" t="str">
-        <v>김윤영</v>
+        <v>이동주</v>
       </c>
       <c r="M82" t="str">
-        <v>02-3788-0890</v>
+        <v>02-522-3607</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>1214</v>
+        <v>368</v>
       </c>
       <c r="B83" t="str">
         <v>용역</v>
@@ -3751,39 +3724,39 @@
         <v>신규</v>
       </c>
       <c r="D83" t="str">
-        <v>외교부</v>
+        <v>도로교통공단</v>
       </c>
       <c r="E83" t="str">
-        <v>2024년 05월</v>
+        <v>2024년 06월</v>
       </c>
       <c r="F83" t="str">
         <v>자체조달</v>
       </c>
       <c r="G83" t="str">
-        <v>제한경쟁</v>
+        <v>수의계약</v>
       </c>
       <c r="H83" t="str">
-        <v>2024년 정보시스템 모의해킹 및 취약점 분석</v>
+        <v>2024년 도시교통정보센터 SW고도화 사업 감리 용역</v>
       </c>
       <c r="I83" t="str">
         <v>일반용역</v>
       </c>
       <c r="J83">
-        <v>45000000</v>
+        <v>40600000</v>
       </c>
       <c r="K83" t="str">
-        <v>외교정보보안담당관실</v>
+        <v>첨단교통연구처</v>
       </c>
       <c r="L83" t="str">
-        <v>류병규</v>
+        <v>정영대</v>
       </c>
       <c r="M83" t="str">
-        <v>02-2100-6877</v>
+        <v>02-3495-2072</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>1265</v>
+        <v>400</v>
       </c>
       <c r="B84" t="str">
         <v>용역</v>
@@ -3792,7 +3765,7 @@
         <v>신규</v>
       </c>
       <c r="D84" t="str">
-        <v>재단법인 식생활안전관리원</v>
+        <v>(주)이지메디컴</v>
       </c>
       <c r="E84" t="str">
         <v>2024년 06월</v>
@@ -3801,30 +3774,30 @@
         <v>자체조달</v>
       </c>
       <c r="G84" t="str">
-        <v>일반경쟁</v>
+        <v>제한경쟁</v>
       </c>
       <c r="H84" t="str">
-        <v>어린이 식품정보 취득 행태 및 학교 식생활 영양교육 실태 조사</v>
+        <v>[용역][국립소방병원] 통합의료정보시스템 구축사업(HIS 및 HIS연계솔루션 구축) 용역 제안요청서</v>
       </c>
       <c r="I84" t="str">
         <v>일반용역</v>
       </c>
       <c r="J84">
-        <v>95000000</v>
+        <v>0</v>
       </c>
       <c r="K84" t="str">
-        <v>식생활교육팀</v>
+        <v>약품&amp;MRO</v>
       </c>
       <c r="L84" t="str">
-        <v>김영아</v>
+        <v>이수정</v>
       </c>
       <c r="M84" t="str">
-        <v>043-238-9363</v>
+        <v>02-3016-7784</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>1301</v>
+        <v>408</v>
       </c>
       <c r="B85" t="str">
         <v>용역</v>
@@ -3833,48 +3806,45 @@
         <v>신규</v>
       </c>
       <c r="D85" t="str">
-        <v>배화여자대학교</v>
+        <v>한국청소년활동진흥원</v>
       </c>
       <c r="E85" t="str">
         <v>2024년 05월</v>
       </c>
       <c r="F85" t="str">
-        <v>자체조달</v>
+        <v>중앙조달</v>
       </c>
       <c r="G85" t="str">
         <v>제한경쟁</v>
       </c>
       <c r="H85" t="str">
-        <v>배화여자대학교 해외취업지원프로그램 운영기관 선정</v>
+        <v>2024년 청소년활동정보서비스 기능개선 사업</v>
       </c>
       <c r="I85" t="str">
         <v>일반용역</v>
       </c>
       <c r="J85">
-        <v>48000000</v>
+        <v>420000000</v>
       </c>
       <c r="K85" t="str">
-        <v>총무처</v>
+        <v>정보안전부</v>
       </c>
       <c r="L85" t="str">
-        <v>박병서</v>
+        <v>서승원</v>
       </c>
       <c r="M85" t="str">
-        <v>02-399-0893</v>
+        <v>02-6959-7139</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>1319</v>
+        <v>421</v>
       </c>
       <c r="B86" t="str">
         <v>용역</v>
       </c>
-      <c r="C86" t="str">
-        <v>신규</v>
-      </c>
       <c r="D86" t="str">
-        <v>한국원자력안전기술원</v>
+        <v>한국생산기술연구원</v>
       </c>
       <c r="E86" t="str">
         <v>2024년 05월</v>
@@ -3883,30 +3853,21 @@
         <v>자체조달</v>
       </c>
       <c r="G86" t="str">
-        <v>수의계약</v>
+        <v>제한경쟁</v>
       </c>
       <c r="H86" t="str">
-        <v>2024 원자력안전규제정보회의 관계기관 홍보관 운영</v>
+        <v>2024년 기업지원 해피클릭 홈페이지 유지보수 용역</v>
       </c>
       <c r="I86" t="str">
         <v>일반용역</v>
       </c>
       <c r="J86">
-        <v>26000000</v>
-      </c>
-      <c r="K86" t="str">
-        <v>구매자산실</v>
-      </c>
-      <c r="L86" t="str">
-        <v>강완서</v>
-      </c>
-      <c r="M86" t="str">
-        <v>042-868-0565</v>
+        <v>24973296</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>1394</v>
+        <v>474</v>
       </c>
       <c r="B87" t="str">
         <v>용역</v>
@@ -3915,7 +3876,7 @@
         <v>신규</v>
       </c>
       <c r="D87" t="str">
-        <v>경상남도 하동군</v>
+        <v>부산광역시교육청 부산광역시동래교육지원청</v>
       </c>
       <c r="E87" t="str">
         <v>2024년 05월</v>
@@ -3924,39 +3885,36 @@
         <v>자체조달</v>
       </c>
       <c r="G87" t="str">
-        <v>제한경쟁</v>
+        <v>수의계약</v>
       </c>
       <c r="H87" t="str">
-        <v>계항지구 풍수해생활권 종합정비사업 법정보호종 포획·이주 및 모니터링 용역</v>
+        <v>거학초등학교 그린스마트스쿨 리모델링 전기, 정보통신, 소방공사 설계용역</v>
       </c>
       <c r="I87" t="str">
         <v>기술용역</v>
       </c>
       <c r="J87">
-        <v>232145000</v>
+        <v>81099000</v>
       </c>
       <c r="K87" t="str">
-        <v>안전교통과</v>
+        <v>시설지원과</v>
       </c>
       <c r="L87" t="str">
-        <v>최용혁</v>
+        <v>김학태</v>
       </c>
       <c r="M87" t="str">
-        <v>055-880-2253</v>
+        <v>051-550-0234</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>1471</v>
+        <v>522</v>
       </c>
       <c r="B88" t="str">
         <v>용역</v>
       </c>
-      <c r="C88" t="str">
-        <v>신규</v>
-      </c>
       <c r="D88" t="str">
-        <v>국가유산청 국립문화유산연구원</v>
+        <v>한국수자원공사</v>
       </c>
       <c r="E88" t="str">
         <v>2024년 05월</v>
@@ -3965,30 +3923,30 @@
         <v>자체조달</v>
       </c>
       <c r="G88" t="str">
-        <v>제한경쟁</v>
+        <v>수의계약</v>
       </c>
       <c r="H88" t="str">
-        <v>국립문화유산연구원 디지털 연구정보 미래모델 탐색연구 용역</v>
+        <v>단양(정) 화상감시설비 제조구매설치 정보통신공사 감리용역</v>
       </c>
       <c r="I88" t="str">
-        <v>일반용역</v>
+        <v>기술용역</v>
       </c>
       <c r="J88">
-        <v>60000000</v>
+        <v>15100000</v>
       </c>
       <c r="K88" t="str">
-        <v>디지털문화유산연구정보팀</v>
+        <v>단양수도지사</v>
       </c>
       <c r="L88" t="str">
-        <v>이희준</v>
+        <v>오경식</v>
       </c>
       <c r="M88" t="str">
-        <v>042-860-9178</v>
+        <v>043-420-2333</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>1483</v>
+        <v>559</v>
       </c>
       <c r="B89" t="str">
         <v>용역</v>
@@ -3997,7 +3955,7 @@
         <v>신규</v>
       </c>
       <c r="D89" t="str">
-        <v>국회 국회예산정책처</v>
+        <v>기상청 국가기상위성센터</v>
       </c>
       <c r="E89" t="str">
         <v>2024년 05월</v>
@@ -4006,30 +3964,30 @@
         <v>자체조달</v>
       </c>
       <c r="G89" t="str">
-        <v>수의계약</v>
+        <v>제한경쟁</v>
       </c>
       <c r="H89" t="str">
-        <v>해외 사례 분석을 통한 국내 공공주택공급 정책의 개선방안 연구</v>
+        <v>기상위성정보 사용자 현장의견 수렴을 위한 시연회, 간담회 및 워크숍 개최</v>
       </c>
       <c r="I89" t="str">
         <v>일반용역</v>
       </c>
       <c r="J89">
-        <v>30000000</v>
+        <v>70000000</v>
       </c>
       <c r="K89" t="str">
-        <v>국회예산정책처 총무담당관실</v>
+        <v>위성기획과</v>
       </c>
       <c r="L89" t="str">
-        <v>장아련</v>
+        <v>박근선</v>
       </c>
       <c r="M89" t="str">
-        <v>02-6788-4615</v>
+        <v>070-7850-5708</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>1516</v>
+        <v>577</v>
       </c>
       <c r="B90" t="str">
         <v>용역</v>
@@ -4038,39 +3996,39 @@
         <v>신규</v>
       </c>
       <c r="D90" t="str">
-        <v>재단법인안양산업진흥원</v>
+        <v>새마을금고중앙회</v>
       </c>
       <c r="E90" t="str">
-        <v>2024년 05월</v>
+        <v>2024년 06월</v>
       </c>
       <c r="F90" t="str">
         <v>자체조달</v>
       </c>
       <c r="G90" t="str">
-        <v>제한경쟁</v>
+        <v>일반경쟁</v>
       </c>
       <c r="H90" t="str">
-        <v>2024년 해외시장개척단 파견 운영 용역</v>
+        <v>2024년 새마을금고 정보보호 강화 구축(재공고)</v>
       </c>
       <c r="I90" t="str">
         <v>일반용역</v>
       </c>
       <c r="J90">
-        <v>140000000</v>
+        <v>4407817370</v>
       </c>
       <c r="K90" t="str">
-        <v>기업육성부</v>
+        <v>총무계약부</v>
       </c>
       <c r="L90" t="str">
-        <v>안재민</v>
+        <v>이경아</v>
       </c>
       <c r="M90" t="str">
-        <v>031-8045-6725</v>
+        <v>02-2145-9052</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>1519</v>
+        <v>631</v>
       </c>
       <c r="B91" t="str">
         <v>용역</v>
@@ -4079,39 +4037,39 @@
         <v>신규</v>
       </c>
       <c r="D91" t="str">
-        <v>한국표준과학연구원</v>
+        <v>한국환경공단 대구경북환경본부</v>
       </c>
       <c r="E91" t="str">
-        <v>2024년 06월</v>
+        <v>2024년 05월</v>
       </c>
       <c r="F91" t="str">
         <v>자체조달</v>
       </c>
       <c r="G91" t="str">
-        <v>제한경쟁</v>
+        <v>수의계약</v>
       </c>
       <c r="H91" t="str">
-        <v>측정표준 연구성과 전주기 관리, 활용을 위한 정보시스템 구축</v>
+        <v>경산시 자원회수시설 증설 민간투자사업 정보통신공사 감리용역</v>
       </c>
       <c r="I91" t="str">
-        <v>일반용역</v>
+        <v>기술용역</v>
       </c>
       <c r="J91">
-        <v>100000000</v>
+        <v>67866000</v>
       </c>
       <c r="K91" t="str">
-        <v>구매자산실</v>
+        <v>대구경북환경본부 환경시설관리처 시설사업1부</v>
       </c>
       <c r="L91" t="str">
-        <v>장재민</v>
+        <v>장홍훈</v>
       </c>
       <c r="M91" t="str">
-        <v>042-868-5536</v>
+        <v>053-856-4555</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>1538</v>
+        <v>660</v>
       </c>
       <c r="B92" t="str">
         <v>용역</v>
@@ -4120,39 +4078,39 @@
         <v>신규</v>
       </c>
       <c r="D92" t="str">
-        <v>식품의약품안전처</v>
+        <v>한국고용노동교육원</v>
       </c>
       <c r="E92" t="str">
-        <v>2024년 06월</v>
+        <v>2024년 05월</v>
       </c>
       <c r="F92" t="str">
-        <v>자체조달</v>
+        <v>중앙조달</v>
       </c>
       <c r="G92" t="str">
         <v>제한경쟁</v>
       </c>
       <c r="H92" t="str">
-        <v>2024년도 수입식품통합정보시스템 고도화 감리</v>
+        <v>2024년 정보시스템 인프라 통합 유지보수 용역</v>
       </c>
       <c r="I92" t="str">
-        <v>기술용역</v>
+        <v>일반용역</v>
       </c>
       <c r="J92">
-        <v>30000000</v>
+        <v>215000000</v>
       </c>
       <c r="K92" t="str">
-        <v>디지털수입안전기획팀</v>
+        <v>경영지원팀</v>
       </c>
       <c r="L92" t="str">
-        <v>정진수</v>
+        <v>조용우</v>
       </c>
       <c r="M92" t="str">
-        <v>043-719-6175</v>
+        <v>031-760-7872</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>1654</v>
+        <v>700</v>
       </c>
       <c r="B93" t="str">
         <v>용역</v>
@@ -4161,7 +4119,7 @@
         <v>신규</v>
       </c>
       <c r="D93" t="str">
-        <v>부산광역시교육청 부산광역시남부교육지원청</v>
+        <v>한국건강증진개발원</v>
       </c>
       <c r="E93" t="str">
         <v>2024년 05월</v>
@@ -4173,27 +4131,27 @@
         <v>제한경쟁</v>
       </c>
       <c r="H93" t="str">
-        <v>부산서중학교 교사개축 전기, 정보통신, 소방공사 설계용역(계속비)</v>
+        <v>대국민 건강지표 및 건강정보 전달체계 마련</v>
       </c>
       <c r="I93" t="str">
-        <v>기술용역</v>
+        <v>일반용역</v>
       </c>
       <c r="J93">
-        <v>149000000</v>
+        <v>45000000</v>
       </c>
       <c r="K93" t="str">
-        <v>시설지원과</v>
+        <v>연구통계팀</v>
       </c>
       <c r="L93" t="str">
-        <v>천확용</v>
+        <v>유은정</v>
       </c>
       <c r="M93" t="str">
-        <v>051-640-0383</v>
+        <v>02-3781-3544</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>1755</v>
+        <v>701</v>
       </c>
       <c r="B94" t="str">
         <v>용역</v>
@@ -4202,10 +4160,10 @@
         <v>신규</v>
       </c>
       <c r="D94" t="str">
-        <v>질병관리청 국립보건연구원</v>
+        <v>국립공원공단</v>
       </c>
       <c r="E94" t="str">
-        <v>2024년 05월</v>
+        <v>2024년 06월</v>
       </c>
       <c r="F94" t="str">
         <v>자체조달</v>
@@ -4214,27 +4172,27 @@
         <v>제한경쟁</v>
       </c>
       <c r="H94" t="str">
-        <v>[정보화] 공공백신 종합정보시스템 2차년도 기능개선</v>
+        <v>국립공원 탐방정보앱 개편</v>
       </c>
       <c r="I94" t="str">
         <v>일반용역</v>
       </c>
       <c r="J94">
-        <v>98000000</v>
+        <v>270000000</v>
       </c>
       <c r="K94" t="str">
-        <v>운영지원과</v>
+        <v>정보융합실</v>
       </c>
       <c r="L94" t="str">
-        <v>김정언</v>
+        <v>진소현</v>
       </c>
       <c r="M94" t="str">
-        <v>043-719-8137</v>
+        <v>033-769-9427</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>1759</v>
+        <v>725</v>
       </c>
       <c r="B95" t="str">
         <v>용역</v>
@@ -4243,80 +4201,77 @@
         <v>신규</v>
       </c>
       <c r="D95" t="str">
-        <v>대전광역시교육청 대전도시과학고등학교</v>
+        <v>재단법인 대구경북디자인진흥원</v>
       </c>
       <c r="E95" t="str">
-        <v>2024년 05월</v>
+        <v>2024년 06월</v>
       </c>
       <c r="F95" t="str">
         <v>자체조달</v>
       </c>
       <c r="G95" t="str">
-        <v>제한경쟁</v>
+        <v>일반경쟁</v>
       </c>
       <c r="H95" t="str">
-        <v>대전도시과학고등학교 해외 직무역량향상 캠프 위탁용역 입찰 재공고</v>
+        <v>트렌드 동향 정보 자료 수집원 확보 및 메가/PEST 트렌드 개발 용역</v>
       </c>
       <c r="I95" t="str">
         <v>일반용역</v>
       </c>
       <c r="J95">
-        <v>36399780</v>
+        <v>360500000</v>
       </c>
       <c r="K95" t="str">
-        <v>산학협력부</v>
+        <v>산업기반팀</v>
       </c>
       <c r="L95" t="str">
-        <v>윤경훈</v>
+        <v>손명균</v>
       </c>
       <c r="M95" t="str">
-        <v>042-540-2137</v>
+        <v>053-740-0075</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>1760</v>
+        <v>770</v>
       </c>
       <c r="B96" t="str">
         <v>용역</v>
       </c>
-      <c r="C96" t="str">
-        <v>신규</v>
-      </c>
       <c r="D96" t="str">
-        <v>한국농수산식품유통공사</v>
+        <v>한국도로공사</v>
       </c>
       <c r="E96" t="str">
-        <v>2024년 06월</v>
+        <v>2024년 05월</v>
       </c>
       <c r="F96" t="str">
         <v>자체조달</v>
       </c>
       <c r="G96" t="str">
-        <v>제한경쟁</v>
+        <v>수의계약</v>
       </c>
       <c r="H96" t="str">
-        <v>2024년 농식품 수출국가 및 품목정보조사</v>
+        <v>진천지사 가로등 위치정보화 작업 용역</v>
       </c>
       <c r="I96" t="str">
-        <v>일반용역</v>
+        <v>기술용역</v>
       </c>
       <c r="J96">
-        <v>150000000</v>
+        <v>21000000</v>
       </c>
       <c r="K96" t="str">
-        <v>수출푸드테크정보부</v>
+        <v>진천지사 도로안전팀</v>
       </c>
       <c r="L96" t="str">
-        <v>김여경</v>
+        <v>문경진</v>
       </c>
       <c r="M96" t="str">
-        <v>061-931-0874</v>
+        <v>043-721-6252</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>1763</v>
+        <v>807</v>
       </c>
       <c r="B97" t="str">
         <v>용역</v>
@@ -4325,7 +4280,7 @@
         <v>신규</v>
       </c>
       <c r="D97" t="str">
-        <v>대구광역시</v>
+        <v>부산광역시</v>
       </c>
       <c r="E97" t="str">
         <v>2024년 05월</v>
@@ -4334,30 +4289,30 @@
         <v>자체조달</v>
       </c>
       <c r="G97" t="str">
-        <v>제한경쟁</v>
+        <v>수의계약</v>
       </c>
       <c r="H97" t="str">
-        <v>군위군 3D 공간정보 신규제작 용역</v>
+        <v>2025년 전국(장애인)체전 홈페이지 구축용역</v>
       </c>
       <c r="I97" t="str">
         <v>일반용역</v>
       </c>
       <c r="J97">
-        <v>399540000</v>
+        <v>50000000</v>
       </c>
       <c r="K97" t="str">
-        <v>토지정보과</v>
+        <v>전국체전기획단</v>
       </c>
       <c r="L97" t="str">
-        <v>장선미</v>
+        <v>손인구</v>
       </c>
       <c r="M97" t="str">
-        <v>053-803-3672</v>
+        <v>051-888-6704</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>1770</v>
+        <v>932</v>
       </c>
       <c r="B98" t="str">
         <v>용역</v>
@@ -4366,7 +4321,7 @@
         <v>신규</v>
       </c>
       <c r="D98" t="str">
-        <v>서원대학교</v>
+        <v>국가유산청 국립문화유산연구원</v>
       </c>
       <c r="E98" t="str">
         <v>2024년 05월</v>
@@ -4378,27 +4333,27 @@
         <v>제한경쟁</v>
       </c>
       <c r="H98" t="str">
-        <v>2024학년도 서원대학교 정보시스템 통합유지보수 용역 업체 선정</v>
+        <v>국립문화유산연구원 정보시스템 클라우드 이관 관리</v>
       </c>
       <c r="I98" t="str">
         <v>일반용역</v>
       </c>
       <c r="J98">
-        <v>660000000</v>
+        <v>95200000</v>
       </c>
       <c r="K98" t="str">
-        <v>전산정보팀</v>
+        <v>디지털문화유산연구정보팀</v>
       </c>
       <c r="L98" t="str">
-        <v>배동준</v>
+        <v>권정훈</v>
       </c>
       <c r="M98" t="str">
-        <v>043-299-8080</v>
+        <v>042-860-9165</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>1786</v>
+        <v>933</v>
       </c>
       <c r="B99" t="str">
         <v>용역</v>
@@ -4407,7 +4362,7 @@
         <v>신규</v>
       </c>
       <c r="D99" t="str">
-        <v>광복회</v>
+        <v>한국지질자원연구원</v>
       </c>
       <c r="E99" t="str">
         <v>2024년 05월</v>
@@ -4416,39 +4371,36 @@
         <v>자체조달</v>
       </c>
       <c r="G99" t="str">
-        <v>제한경쟁</v>
+        <v>수의계약</v>
       </c>
       <c r="H99" t="str">
-        <v>광복회 해외 독립운동 역사교육 (독일)</v>
+        <v>지진지반응답 공간정보/부지분류지도 긴급수요대응 프로그램 개발 용역</v>
       </c>
       <c r="I99" t="str">
         <v>일반용역</v>
       </c>
       <c r="J99">
-        <v>70000000</v>
+        <v>44000000</v>
       </c>
       <c r="K99" t="str">
-        <v>대외협력국</v>
+        <v>구매자산실</v>
       </c>
       <c r="L99" t="str">
-        <v>임소희</v>
+        <v>양갑준</v>
       </c>
       <c r="M99" t="str">
-        <v>02-780-0816</v>
+        <v>042-868-3757</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>1790</v>
+        <v>941</v>
       </c>
       <c r="B100" t="str">
         <v>용역</v>
       </c>
-      <c r="C100" t="str">
-        <v>신규</v>
-      </c>
       <c r="D100" t="str">
-        <v>군산간호대학교산학협력단</v>
+        <v>한국지역난방공사</v>
       </c>
       <c r="E100" t="str">
         <v>2024년 05월</v>
@@ -4457,36 +4409,39 @@
         <v>자체조달</v>
       </c>
       <c r="G100" t="str">
-        <v>일반경쟁</v>
+        <v>제한경쟁</v>
       </c>
       <c r="H100" t="str">
-        <v>2024년 해외 현장학습 및 전공 연수</v>
+        <v>정보보안시스템 운영·유지보수 용역</v>
       </c>
       <c r="I100" t="str">
         <v>일반용역</v>
       </c>
       <c r="J100">
-        <v>62000000</v>
+        <v>2104028000</v>
       </c>
       <c r="K100" t="str">
-        <v>기획처</v>
+        <v>사이버보안센터</v>
       </c>
       <c r="L100" t="str">
-        <v>김영진</v>
+        <v>이창욱</v>
       </c>
       <c r="M100" t="str">
-        <v>063-450-3922</v>
+        <v>031-8018-6435</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>1826</v>
+        <v>943</v>
       </c>
       <c r="B101" t="str">
         <v>용역</v>
       </c>
+      <c r="C101" t="str">
+        <v>신규</v>
+      </c>
       <c r="D101" t="str">
-        <v>한국도로공사</v>
+        <v>한국농수산식품유통공사 농수산식품유통교육원</v>
       </c>
       <c r="E101" t="str">
         <v>2024년 05월</v>
@@ -4495,30 +4450,30 @@
         <v>자체조달</v>
       </c>
       <c r="G101" t="str">
-        <v>수의계약</v>
+        <v>제한경쟁</v>
       </c>
       <c r="H101" t="str">
-        <v>상주지사 가로등 위치정보화 작업 용역</v>
+        <v>2024년 교육정보시스템 위탁운영 용역</v>
       </c>
       <c r="I101" t="str">
         <v>일반용역</v>
       </c>
       <c r="J101">
-        <v>15000000</v>
+        <v>600000000</v>
       </c>
       <c r="K101" t="str">
-        <v>상주지사 도로안전팀</v>
+        <v>교육지원부</v>
       </c>
       <c r="L101" t="str">
-        <v>이성운</v>
+        <v>이동호</v>
       </c>
       <c r="M101" t="str">
-        <v>054-711-6752</v>
+        <v>010-9505-0288</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>1844</v>
+        <v>962</v>
       </c>
       <c r="B102" t="str">
         <v>용역</v>
@@ -4527,2126 +4482,39 @@
         <v>신규</v>
       </c>
       <c r="D102" t="str">
-        <v>사단법인 한국정보통신진흥협회</v>
+        <v>해양수산부 국립해양조사원</v>
       </c>
       <c r="E102" t="str">
-        <v>2024년 06월</v>
+        <v>2024년 05월</v>
       </c>
       <c r="F102" t="str">
         <v>자체조달</v>
       </c>
       <c r="G102" t="str">
-        <v>일반경쟁</v>
+        <v>제한경쟁</v>
       </c>
       <c r="H102" t="str">
-        <v>정보통신기술자격 자격증 배송</v>
+        <v>2024년 종합해양정보시스템 전환 감리</v>
       </c>
       <c r="I102" t="str">
         <v>일반용역</v>
       </c>
       <c r="J102">
-        <v>60000000</v>
+        <v>30000000</v>
       </c>
       <c r="K102" t="str">
-        <v>디지털인재양성팀</v>
+        <v>국립해양조사원 운영지원과</v>
       </c>
       <c r="L102" t="str">
-        <v>조연희</v>
+        <v>김건일</v>
       </c>
       <c r="M102" t="str">
-        <v>02-580-0737</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="str">
-        <v>1847</v>
-      </c>
-      <c r="B103" t="str">
-        <v>용역</v>
-      </c>
-      <c r="C103" t="str">
-        <v>신규</v>
-      </c>
-      <c r="D103" t="str">
-        <v>충청남도교육청 금산하이텍고등학교</v>
-      </c>
-      <c r="E103" t="str">
-        <v>2024년 05월</v>
-      </c>
-      <c r="F103" t="str">
-        <v>자체조달</v>
-      </c>
-      <c r="G103" t="str">
-        <v>제한경쟁</v>
-      </c>
-      <c r="H103" t="str">
-        <v>2024학년도 금산하이텍고등학교 세계문화유산 해외탐방(수학여행) 위탁용역</v>
-      </c>
-      <c r="I103" t="str">
-        <v>일반용역</v>
-      </c>
-      <c r="J103">
-        <v>87718000</v>
-      </c>
-      <c r="K103" t="str">
-        <v>금산하이텍고등학</v>
-      </c>
-      <c r="L103" t="str">
-        <v>이은숙</v>
-      </c>
-      <c r="M103" t="str">
-        <v>041-752-4376</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="str">
-        <v>1848</v>
-      </c>
-      <c r="B104" t="str">
-        <v>용역</v>
-      </c>
-      <c r="C104" t="str">
-        <v>신규</v>
-      </c>
-      <c r="D104" t="str">
-        <v>제주대학교 산학협력단</v>
-      </c>
-      <c r="E104" t="str">
-        <v>2024년 05월</v>
-      </c>
-      <c r="F104" t="str">
-        <v>자체조달</v>
-      </c>
-      <c r="G104" t="str">
-        <v>제한경쟁</v>
-      </c>
-      <c r="H104" t="str">
-        <v>큐브위성 및 위성임무운영 교육 프로그램 해외연수 위탁대행 용역</v>
-      </c>
-      <c r="I104" t="str">
-        <v>일반용역</v>
-      </c>
-      <c r="J104">
-        <v>99000000</v>
-      </c>
-      <c r="K104" t="str">
-        <v>제주대학교 산학협력단</v>
-      </c>
-      <c r="L104" t="str">
-        <v>현성준</v>
-      </c>
-      <c r="M104" t="str">
-        <v>064-754-2417</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="str">
-        <v>1933</v>
-      </c>
-      <c r="B105" t="str">
-        <v>용역</v>
-      </c>
-      <c r="C105" t="str">
-        <v>신규</v>
-      </c>
-      <c r="D105" t="str">
-        <v>한국에너지기술연구원</v>
-      </c>
-      <c r="E105" t="str">
-        <v>2024년 05월</v>
-      </c>
-      <c r="F105" t="str">
-        <v>자체조달</v>
-      </c>
-      <c r="G105" t="str">
-        <v>제한경쟁</v>
-      </c>
-      <c r="H105" t="str">
-        <v>2024년도 주요정보통신기반시설 취약점 분석·평가 사업</v>
-      </c>
-      <c r="I105" t="str">
-        <v>일반용역</v>
-      </c>
-      <c r="J105">
-        <v>50000000</v>
-      </c>
-      <c r="K105" t="str">
-        <v>정보보안팀</v>
-      </c>
-      <c r="L105" t="str">
-        <v>김순환</v>
-      </c>
-      <c r="M105" t="str">
-        <v>042-860-3722</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="str">
-        <v>1940</v>
-      </c>
-      <c r="B106" t="str">
-        <v>용역</v>
-      </c>
-      <c r="C106" t="str">
-        <v>신규</v>
-      </c>
-      <c r="D106" t="str">
-        <v>경기도교육청 오산정보고등학교</v>
-      </c>
-      <c r="E106" t="str">
-        <v>2024년 05월</v>
-      </c>
-      <c r="F106" t="str">
-        <v>자체조달</v>
-      </c>
-      <c r="G106" t="str">
-        <v>제한경쟁</v>
-      </c>
-      <c r="H106" t="str">
-        <v>2024학년도 오산정보고등학교 2학년 현장체험학습(강원도) 위탁 용역</v>
-      </c>
-      <c r="I106" t="str">
-        <v>일반용역</v>
-      </c>
-      <c r="J106">
-        <v>103430060</v>
-      </c>
-      <c r="K106" t="str">
-        <v>교육행정실</v>
-      </c>
-      <c r="L106" t="str">
-        <v>박성일</v>
-      </c>
-      <c r="M106" t="str">
-        <v>031-370-5604</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="str">
-        <v>1951</v>
-      </c>
-      <c r="B107" t="str">
-        <v>용역</v>
-      </c>
-      <c r="D107" t="str">
-        <v>한국생산기술연구원</v>
-      </c>
-      <c r="E107" t="str">
-        <v>2024년 05월</v>
-      </c>
-      <c r="F107" t="str">
-        <v>자체조달</v>
-      </c>
-      <c r="G107" t="str">
-        <v>제한경쟁</v>
-      </c>
-      <c r="H107" t="str">
-        <v>정보화전략계획서비스</v>
-      </c>
-      <c r="I107" t="str">
-        <v>일반용역</v>
-      </c>
-      <c r="J107">
-        <v>83500000</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="str">
-        <v>1996</v>
-      </c>
-      <c r="B108" t="str">
-        <v>용역</v>
-      </c>
-      <c r="C108" t="str">
-        <v>신규</v>
-      </c>
-      <c r="D108" t="str">
-        <v>충청북도교육청</v>
-      </c>
-      <c r="E108" t="str">
-        <v>2024년 05월</v>
-      </c>
-      <c r="F108" t="str">
-        <v>자체조달</v>
-      </c>
-      <c r="G108" t="str">
-        <v>수의계약</v>
-      </c>
-      <c r="H108" t="str">
-        <v>충청북도교육연구정보원 연결다리 보수공사 및 기타공사 설계용역</v>
-      </c>
-      <c r="I108" t="str">
-        <v>기술용역</v>
-      </c>
-      <c r="J108">
-        <v>7592000</v>
-      </c>
-      <c r="K108" t="str">
-        <v>교육시설과</v>
-      </c>
-      <c r="L108" t="str">
-        <v>박성원</v>
-      </c>
-      <c r="M108" t="str">
-        <v>043-290-2627</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="str">
-        <v>15</v>
-      </c>
-      <c r="B109" t="str">
-        <v>용역</v>
-      </c>
-      <c r="C109" t="str">
-        <v>신규</v>
-      </c>
-      <c r="D109" t="str">
-        <v>국방부 국군재정관리단</v>
-      </c>
-      <c r="E109" t="str">
-        <v>2024년 06월</v>
-      </c>
-      <c r="F109" t="str">
-        <v>자체조달</v>
-      </c>
-      <c r="G109" t="str">
-        <v>제한경쟁</v>
-      </c>
-      <c r="H109" t="str">
-        <v>24F211-A 부품단종 정보 획득용역</v>
-      </c>
-      <c r="I109" t="str">
-        <v>일반용역</v>
-      </c>
-      <c r="J109">
-        <v>99970000</v>
-      </c>
-      <c r="K109" t="str">
-        <v>국군재정관리단 계약체 제1물자계약과</v>
-      </c>
-      <c r="L109" t="str">
-        <v>이경희</v>
-      </c>
-      <c r="M109" t="str">
-        <v>042-616-4134</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="str">
-        <v>24</v>
-      </c>
-      <c r="B110" t="str">
-        <v>용역</v>
-      </c>
-      <c r="C110" t="str">
-        <v>신규</v>
-      </c>
-      <c r="D110" t="str">
-        <v>국립암센터</v>
-      </c>
-      <c r="E110" t="str">
-        <v>2024년 05월</v>
-      </c>
-      <c r="F110" t="str">
-        <v>자체조달</v>
-      </c>
-      <c r="G110" t="str">
-        <v>제한경쟁</v>
-      </c>
-      <c r="H110" t="str">
-        <v>국가폐암검진 판독지원 및 질관리 정보시스템 고도화 및 유지보수</v>
-      </c>
-      <c r="I110" t="str">
-        <v>일반용역</v>
-      </c>
-      <c r="J110">
-        <v>358250000</v>
-      </c>
-      <c r="K110" t="str">
-        <v>물류관리팀</v>
-      </c>
-      <c r="L110" t="str">
-        <v>전효정</v>
-      </c>
-      <c r="M110" t="str">
-        <v>031-920-0470</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="str">
-        <v>31</v>
-      </c>
-      <c r="B111" t="str">
-        <v>용역</v>
-      </c>
-      <c r="D111" t="str">
-        <v>한국수력원자력주식회사</v>
-      </c>
-      <c r="E111" t="str">
-        <v>2024년 06월</v>
-      </c>
-      <c r="F111" t="str">
-        <v>자체조달</v>
-      </c>
-      <c r="G111" t="str">
-        <v>일반경쟁</v>
-      </c>
-      <c r="H111" t="str">
-        <v>해외사업 동력 강화를 위한 해외지사(사무소) 운영 개선 용역</v>
-      </c>
-      <c r="I111" t="str">
-        <v>일반용역</v>
-      </c>
-      <c r="J111">
-        <v>350690000</v>
-      </c>
-      <c r="L111" t="str">
-        <v>하은주</v>
-      </c>
-      <c r="M111" t="str">
-        <v>054-704-7612</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="str">
-        <v>53</v>
-      </c>
-      <c r="B112" t="str">
-        <v>용역</v>
-      </c>
-      <c r="D112" t="str">
-        <v>한국토지주택공사</v>
-      </c>
-      <c r="E112" t="str">
-        <v>2024년 05월</v>
-      </c>
-      <c r="F112" t="str">
-        <v>자체조달</v>
-      </c>
-      <c r="G112" t="str">
-        <v>수의계약</v>
-      </c>
-      <c r="H112" t="str">
-        <v>로앤비 법률정보시스템 제공 용역</v>
-      </c>
-      <c r="I112" t="str">
-        <v>일반용역</v>
-      </c>
-      <c r="J112">
-        <v>33790900</v>
-      </c>
-      <c r="K112" t="str">
-        <v>법무처</v>
-      </c>
-      <c r="M112" t="str">
-        <v>0559225186</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="str">
-        <v>124</v>
-      </c>
-      <c r="B113" t="str">
-        <v>용역</v>
-      </c>
-      <c r="C113" t="str">
-        <v>신규</v>
-      </c>
-      <c r="D113" t="str">
-        <v>서울신용보증재단</v>
-      </c>
-      <c r="E113" t="str">
-        <v>2024년 05월</v>
-      </c>
-      <c r="F113" t="str">
-        <v>자체조달</v>
-      </c>
-      <c r="G113" t="str">
-        <v>제한경쟁</v>
-      </c>
-      <c r="H113" t="str">
-        <v>2024년 재단 주관 해외연수 용역</v>
-      </c>
-      <c r="I113" t="str">
-        <v>일반용역</v>
-      </c>
-      <c r="J113">
-        <v>138123000</v>
-      </c>
-      <c r="K113" t="str">
-        <v>인사부 인재양성팀</v>
-      </c>
-      <c r="L113" t="str">
-        <v>김준엽</v>
-      </c>
-      <c r="M113" t="str">
-        <v>02-2174-5130</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="str">
-        <v>127</v>
-      </c>
-      <c r="B114" t="str">
-        <v>용역</v>
-      </c>
-      <c r="C114" t="str">
-        <v>신규</v>
-      </c>
-      <c r="D114" t="str">
-        <v>경기도 평택시</v>
-      </c>
-      <c r="E114" t="str">
-        <v>2024년 05월</v>
-      </c>
-      <c r="F114" t="str">
-        <v>자체조달</v>
-      </c>
-      <c r="G114" t="str">
-        <v>일반경쟁</v>
-      </c>
-      <c r="H114" t="str">
-        <v>2024년도 평택시 버스정보시스템(BIS) 구축사업(협상에 의한 계약)</v>
-      </c>
-      <c r="I114" t="str">
-        <v>일반용역</v>
-      </c>
-      <c r="J114">
-        <v>999494600</v>
-      </c>
-      <c r="K114" t="str">
-        <v>대중교통과</v>
-      </c>
-      <c r="L114" t="str">
-        <v>류한상</v>
-      </c>
-      <c r="M114" t="str">
-        <v>031-8024-4691</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="str">
-        <v>148</v>
-      </c>
-      <c r="B115" t="str">
-        <v>용역</v>
-      </c>
-      <c r="C115" t="str">
-        <v>신규</v>
-      </c>
-      <c r="D115" t="str">
-        <v>한국항공우주연구원</v>
-      </c>
-      <c r="E115" t="str">
-        <v>2024년 06월</v>
-      </c>
-      <c r="F115" t="str">
-        <v>자체조달</v>
-      </c>
-      <c r="G115" t="str">
-        <v>제한경쟁</v>
-      </c>
-      <c r="H115" t="str">
-        <v>해외 구매물품 국내외 운송 및 수출입 통관 대행 용역</v>
-      </c>
-      <c r="I115" t="str">
-        <v>일반용역</v>
-      </c>
-      <c r="J115">
-        <v>7030292</v>
-      </c>
-      <c r="K115" t="str">
-        <v>해외계약실</v>
-      </c>
-      <c r="L115" t="str">
-        <v>서유민</v>
-      </c>
-      <c r="M115" t="str">
-        <v>042-860-2615</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="str">
-        <v>157</v>
-      </c>
-      <c r="B116" t="str">
-        <v>용역</v>
-      </c>
-      <c r="C116" t="str">
-        <v>신규</v>
-      </c>
-      <c r="D116" t="str">
-        <v>해양수산부 해양수산인재개발원</v>
-      </c>
-      <c r="E116" t="str">
-        <v>2024년 06월</v>
-      </c>
-      <c r="F116" t="str">
-        <v>중앙조달</v>
-      </c>
-      <c r="G116" t="str">
-        <v>제한경쟁</v>
-      </c>
-      <c r="H116" t="str">
-        <v>2024년 학사운영정보시스템 기능개선</v>
-      </c>
-      <c r="I116" t="str">
-        <v>일반용역</v>
-      </c>
-      <c r="J116">
-        <v>135000000</v>
-      </c>
-      <c r="K116" t="str">
-        <v>교육운영과</v>
-      </c>
-      <c r="L116" t="str">
-        <v>이나은</v>
-      </c>
-      <c r="M116" t="str">
-        <v>051-720-7793</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="str">
-        <v>172</v>
-      </c>
-      <c r="B117" t="str">
-        <v>용역</v>
-      </c>
-      <c r="C117" t="str">
-        <v>신규</v>
-      </c>
-      <c r="D117" t="str">
-        <v>한국자산관리공사</v>
-      </c>
-      <c r="E117" t="str">
-        <v>2024년 06월</v>
-      </c>
-      <c r="F117" t="str">
-        <v>중앙조달</v>
-      </c>
-      <c r="G117" t="str">
-        <v>일반경쟁</v>
-      </c>
-      <c r="H117" t="str">
-        <v>디지털 전환을 위한 중장기 정보화전략계획 및 정보보안 컨설팅</v>
-      </c>
-      <c r="I117" t="str">
-        <v>기술용역</v>
-      </c>
-      <c r="J117">
-        <v>937000000</v>
-      </c>
-      <c r="K117" t="str">
-        <v>디지털시스템실</v>
-      </c>
-      <c r="L117" t="str">
-        <v>정민철</v>
-      </c>
-      <c r="M117" t="str">
-        <v>051-794-3302</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="str">
-        <v>186</v>
-      </c>
-      <c r="B118" t="str">
-        <v>용역</v>
-      </c>
-      <c r="C118" t="str">
-        <v>신규</v>
-      </c>
-      <c r="D118" t="str">
-        <v>(재)대전일자리경제진흥원</v>
-      </c>
-      <c r="E118" t="str">
-        <v>2024년 05월</v>
-      </c>
-      <c r="F118" t="str">
-        <v>자체조달</v>
-      </c>
-      <c r="G118" t="str">
-        <v>일반경쟁</v>
-      </c>
-      <c r="H118" t="str">
-        <v>2024 대전 공공구매 기업정보 플랫폼 유지관리 및 기능개선</v>
-      </c>
-      <c r="I118" t="str">
-        <v>일반용역</v>
-      </c>
-      <c r="J118">
-        <v>44646324</v>
-      </c>
-      <c r="K118" t="str">
-        <v>통상지원팀</v>
-      </c>
-      <c r="L118" t="str">
-        <v>육지혜</v>
-      </c>
-      <c r="M118" t="str">
-        <v>042-380-3043</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="str">
-        <v>199</v>
-      </c>
-      <c r="B119" t="str">
-        <v>용역</v>
-      </c>
-      <c r="C119" t="str">
-        <v>신규</v>
-      </c>
-      <c r="D119" t="str">
-        <v>대한장애인체육회</v>
-      </c>
-      <c r="E119" t="str">
-        <v>2024년 05월</v>
-      </c>
-      <c r="F119" t="str">
-        <v>자체조달</v>
-      </c>
-      <c r="G119" t="str">
-        <v>일반경쟁</v>
-      </c>
-      <c r="H119" t="str">
-        <v>차세대통합정보시스템 구축 감리</v>
-      </c>
-      <c r="I119" t="str">
-        <v>일반용역</v>
-      </c>
-      <c r="J119">
-        <v>588000000</v>
-      </c>
-      <c r="K119" t="str">
-        <v>경영지원부</v>
-      </c>
-      <c r="L119" t="str">
-        <v>윤은진</v>
-      </c>
-      <c r="M119" t="str">
-        <v>02-3434-4544</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="str">
-        <v>216</v>
-      </c>
-      <c r="B120" t="str">
-        <v>용역</v>
-      </c>
-      <c r="C120" t="str">
-        <v>신규</v>
-      </c>
-      <c r="D120" t="str">
-        <v>서울특별시교육청 아현산업정보학교</v>
-      </c>
-      <c r="E120" t="str">
-        <v>2024년 06월</v>
-      </c>
-      <c r="F120" t="str">
-        <v>자체조달</v>
-      </c>
-      <c r="G120" t="str">
-        <v>수의계약</v>
-      </c>
-      <c r="H120" t="str">
-        <v>아현산업정보학교 교직원 워크숍 전세버스 임대 용역</v>
-      </c>
-      <c r="I120" t="str">
-        <v>일반용역</v>
-      </c>
-      <c r="J120">
-        <v>1364000</v>
-      </c>
-      <c r="K120" t="str">
-        <v>아현산업정보학교</v>
-      </c>
-      <c r="L120" t="str">
-        <v>문영미</v>
-      </c>
-      <c r="M120" t="str">
-        <v>02-390-5803</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="str">
-        <v>237</v>
-      </c>
-      <c r="B121" t="str">
-        <v>용역</v>
-      </c>
-      <c r="C121" t="str">
-        <v>신규</v>
-      </c>
-      <c r="D121" t="str">
-        <v>건설근로자공제회</v>
-      </c>
-      <c r="E121" t="str">
-        <v>2024년 05월</v>
-      </c>
-      <c r="F121" t="str">
-        <v>자체조달</v>
-      </c>
-      <c r="G121" t="str">
-        <v>제한경쟁</v>
-      </c>
-      <c r="H121" t="str">
-        <v>통합시스템 구축 감리 및 개인정보 영향평가</v>
-      </c>
-      <c r="I121" t="str">
-        <v>일반용역</v>
-      </c>
-      <c r="J121">
-        <v>250000000</v>
-      </c>
-      <c r="K121" t="str">
-        <v>IT개선팀</v>
-      </c>
-      <c r="L121" t="str">
-        <v>유용선</v>
-      </c>
-      <c r="M121" t="str">
-        <v>02-519-7712</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="str">
-        <v>242</v>
-      </c>
-      <c r="B122" t="str">
-        <v>용역</v>
-      </c>
-      <c r="C122" t="str">
-        <v>신규</v>
-      </c>
-      <c r="D122" t="str">
-        <v>전북특별자치도교육청 전북특별자치도진안교육지원청 장승초등학교</v>
-      </c>
-      <c r="E122" t="str">
-        <v>2024년 06월</v>
-      </c>
-      <c r="F122" t="str">
-        <v>자체조달</v>
-      </c>
-      <c r="G122" t="str">
-        <v>제한경쟁</v>
-      </c>
-      <c r="H122" t="str">
-        <v>2024학년도 장승초등학교 국제교류수업 해외현장체험학습 위탁 용역</v>
-      </c>
-      <c r="I122" t="str">
-        <v>일반용역</v>
-      </c>
-      <c r="J122">
-        <v>90000000</v>
-      </c>
-      <c r="K122" t="str">
-        <v>행정실</v>
-      </c>
-      <c r="L122" t="str">
-        <v>박정연</v>
-      </c>
-      <c r="M122" t="str">
-        <v>063-433-2048</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="str">
-        <v>267</v>
-      </c>
-      <c r="B123" t="str">
-        <v>용역</v>
-      </c>
-      <c r="D123" t="str">
-        <v>한국생산기술연구원</v>
-      </c>
-      <c r="E123" t="str">
-        <v>2024년 05월</v>
-      </c>
-      <c r="F123" t="str">
-        <v>자체조달</v>
-      </c>
-      <c r="G123" t="str">
-        <v>제한경쟁</v>
-      </c>
-      <c r="H123" t="str">
-        <v>KITECH연구데이터플랫폼 구축 정보시스템마스터플랜(ISMP) 수립</v>
-      </c>
-      <c r="I123" t="str">
-        <v>일반용역</v>
-      </c>
-      <c r="J123">
-        <v>180000000</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="str">
-        <v>278</v>
-      </c>
-      <c r="B124" t="str">
-        <v>용역</v>
-      </c>
-      <c r="C124" t="str">
-        <v>신규</v>
-      </c>
-      <c r="D124" t="str">
-        <v>충청북도교육청 충주중산고등학교</v>
-      </c>
-      <c r="E124" t="str">
-        <v>2024년 06월</v>
-      </c>
-      <c r="F124" t="str">
-        <v>자체조달</v>
-      </c>
-      <c r="G124" t="str">
-        <v>제한경쟁</v>
-      </c>
-      <c r="H124" t="str">
-        <v>2024학년도 충주중산고등학교 글로벌 인재육성 해외연수 위탁용역 입찰 공고</v>
-      </c>
-      <c r="I124" t="str">
-        <v>일반용역</v>
-      </c>
-      <c r="J124">
-        <v>305700000</v>
-      </c>
-      <c r="K124" t="str">
-        <v>충주중산고등학교 행정실</v>
-      </c>
-      <c r="L124" t="str">
-        <v>김선희</v>
-      </c>
-      <c r="M124" t="str">
-        <v>043-851-2783</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="str">
-        <v>296</v>
-      </c>
-      <c r="B125" t="str">
-        <v>용역</v>
-      </c>
-      <c r="C125" t="str">
-        <v>신규</v>
-      </c>
-      <c r="D125" t="str">
-        <v>한국생명공학연구원</v>
-      </c>
-      <c r="E125" t="str">
-        <v>2024년 06월</v>
-      </c>
-      <c r="F125" t="str">
-        <v>중앙조달</v>
-      </c>
-      <c r="G125" t="str">
-        <v>제한경쟁</v>
-      </c>
-      <c r="H125" t="str">
-        <v>2024년 국가연구안전관리본부 정보시스템(LABS, EDU) 고도화</v>
-      </c>
-      <c r="I125" t="str">
-        <v>일반용역</v>
-      </c>
-      <c r="J125">
-        <v>235840000</v>
-      </c>
-      <c r="K125" t="str">
-        <v>구매자산실</v>
-      </c>
-      <c r="L125" t="str">
-        <v>최규선</v>
-      </c>
-      <c r="M125" t="str">
-        <v>042-860-4041</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="str">
-        <v>297</v>
-      </c>
-      <c r="B126" t="str">
-        <v>용역</v>
-      </c>
-      <c r="C126" t="str">
-        <v>신규</v>
-      </c>
-      <c r="D126" t="str">
-        <v>충청남도교육청 건양대학교병설건양고등학교</v>
-      </c>
-      <c r="E126" t="str">
-        <v>2024년 05월</v>
-      </c>
-      <c r="F126" t="str">
-        <v>자체조달</v>
-      </c>
-      <c r="G126" t="str">
-        <v>제한경쟁</v>
-      </c>
-      <c r="H126" t="str">
-        <v>2024학년도 건양고 미래인재 해외체험 2단계(가격규격동시) 입찰공고건</v>
-      </c>
-      <c r="I126" t="str">
-        <v>일반용역</v>
-      </c>
-      <c r="J126">
-        <v>161000000</v>
-      </c>
-      <c r="K126" t="str">
-        <v>행정실</v>
-      </c>
-      <c r="L126" t="str">
-        <v>서득수</v>
-      </c>
-      <c r="M126" t="str">
-        <v>041-741-8872</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="str">
-        <v>305</v>
-      </c>
-      <c r="B127" t="str">
-        <v>용역</v>
-      </c>
-      <c r="C127" t="str">
-        <v>신규</v>
-      </c>
-      <c r="D127" t="str">
-        <v>충청남도교육청 건양대학교병설건양고등학교</v>
-      </c>
-      <c r="E127" t="str">
-        <v>2024년 05월</v>
-      </c>
-      <c r="F127" t="str">
-        <v>중앙조달</v>
-      </c>
-      <c r="G127" t="str">
-        <v>제한경쟁</v>
-      </c>
-      <c r="H127" t="str">
-        <v>2024학년도 건양고 미래인재 해외체험 2단계(가격규격동시) 입찰공고건</v>
-      </c>
-      <c r="I127" t="str">
-        <v>일반용역</v>
-      </c>
-      <c r="J127">
-        <v>161000000</v>
-      </c>
-      <c r="K127" t="str">
-        <v>행정실</v>
-      </c>
-      <c r="L127" t="str">
-        <v>서득수</v>
-      </c>
-      <c r="M127" t="str">
-        <v>041-741-8872</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="str">
-        <v>322</v>
-      </c>
-      <c r="B128" t="str">
-        <v>용역</v>
-      </c>
-      <c r="C128" t="str">
-        <v>신규</v>
-      </c>
-      <c r="D128" t="str">
-        <v>경상남도교육청 경상남도창녕교육지원청</v>
-      </c>
-      <c r="E128" t="str">
-        <v>2024년 05월</v>
-      </c>
-      <c r="F128" t="str">
-        <v>자체조달</v>
-      </c>
-      <c r="G128" t="str">
-        <v>제한경쟁</v>
-      </c>
-      <c r="H128" t="str">
-        <v>2024. 창녕영재교육원 해외체험학습 용역</v>
-      </c>
-      <c r="I128" t="str">
-        <v>일반용역</v>
-      </c>
-      <c r="J128">
-        <v>91581900</v>
-      </c>
-      <c r="K128" t="str">
-        <v>평생체육담당</v>
-      </c>
-      <c r="L128" t="str">
-        <v>노화성</v>
-      </c>
-      <c r="M128" t="str">
-        <v>055-530-3541</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="str">
-        <v>349</v>
-      </c>
-      <c r="B129" t="str">
-        <v>용역</v>
-      </c>
-      <c r="C129" t="str">
-        <v>신규</v>
-      </c>
-      <c r="D129" t="str">
-        <v>한우자조금관리위원회</v>
-      </c>
-      <c r="E129" t="str">
-        <v>2024년 05월</v>
-      </c>
-      <c r="F129" t="str">
-        <v>자체조달</v>
-      </c>
-      <c r="G129" t="str">
-        <v>일반경쟁</v>
-      </c>
-      <c r="H129" t="str">
-        <v>2024년 한우자조금 생산정보 모니터링 조사용역</v>
-      </c>
-      <c r="I129" t="str">
-        <v>일반용역</v>
-      </c>
-      <c r="J129">
-        <v>60000000</v>
-      </c>
-      <c r="K129" t="str">
-        <v>교육조사부</v>
-      </c>
-      <c r="L129" t="str">
-        <v>이동주</v>
-      </c>
-      <c r="M129" t="str">
-        <v>02-522-3607</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="str">
-        <v>355</v>
-      </c>
-      <c r="B130" t="str">
-        <v>용역</v>
-      </c>
-      <c r="C130" t="str">
-        <v>신규</v>
-      </c>
-      <c r="D130" t="str">
-        <v>사단법인 한국사회복지사협회</v>
-      </c>
-      <c r="E130" t="str">
-        <v>2024년 06월</v>
-      </c>
-      <c r="F130" t="str">
-        <v>자체조달</v>
-      </c>
-      <c r="G130" t="str">
-        <v>제한경쟁</v>
-      </c>
-      <c r="H130" t="str">
-        <v>2024년 한국사회복지사협회 임원 해외연수</v>
-      </c>
-      <c r="I130" t="str">
-        <v>일반용역</v>
-      </c>
-      <c r="J130">
-        <v>62500000</v>
-      </c>
-      <c r="K130" t="str">
-        <v>운영지원본부</v>
-      </c>
-      <c r="L130" t="str">
-        <v>전선화</v>
-      </c>
-      <c r="M130" t="str">
-        <v>02-786-0190</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="str">
-        <v>368</v>
-      </c>
-      <c r="B131" t="str">
-        <v>용역</v>
-      </c>
-      <c r="C131" t="str">
-        <v>신규</v>
-      </c>
-      <c r="D131" t="str">
-        <v>도로교통공단</v>
-      </c>
-      <c r="E131" t="str">
-        <v>2024년 06월</v>
-      </c>
-      <c r="F131" t="str">
-        <v>자체조달</v>
-      </c>
-      <c r="G131" t="str">
-        <v>수의계약</v>
-      </c>
-      <c r="H131" t="str">
-        <v>2024년 도시교통정보센터 SW고도화 사업 감리 용역</v>
-      </c>
-      <c r="I131" t="str">
-        <v>일반용역</v>
-      </c>
-      <c r="J131">
-        <v>40600000</v>
-      </c>
-      <c r="K131" t="str">
-        <v>첨단교통연구처</v>
-      </c>
-      <c r="L131" t="str">
-        <v>정영대</v>
-      </c>
-      <c r="M131" t="str">
-        <v>02-3495-2072</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="str">
-        <v>400</v>
-      </c>
-      <c r="B132" t="str">
-        <v>용역</v>
-      </c>
-      <c r="C132" t="str">
-        <v>신규</v>
-      </c>
-      <c r="D132" t="str">
-        <v>(주)이지메디컴</v>
-      </c>
-      <c r="E132" t="str">
-        <v>2024년 06월</v>
-      </c>
-      <c r="F132" t="str">
-        <v>자체조달</v>
-      </c>
-      <c r="G132" t="str">
-        <v>제한경쟁</v>
-      </c>
-      <c r="H132" t="str">
-        <v>[용역][국립소방병원] 통합의료정보시스템 구축사업(HIS 및 HIS연계솔루션 구축) 용역 제안요청서</v>
-      </c>
-      <c r="I132" t="str">
-        <v>일반용역</v>
-      </c>
-      <c r="J132">
-        <v>0</v>
-      </c>
-      <c r="K132" t="str">
-        <v>약품&amp;MRO</v>
-      </c>
-      <c r="L132" t="str">
-        <v>이수정</v>
-      </c>
-      <c r="M132" t="str">
-        <v>02-3016-7784</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="str">
-        <v>408</v>
-      </c>
-      <c r="B133" t="str">
-        <v>용역</v>
-      </c>
-      <c r="C133" t="str">
-        <v>신규</v>
-      </c>
-      <c r="D133" t="str">
-        <v>한국청소년활동진흥원</v>
-      </c>
-      <c r="E133" t="str">
-        <v>2024년 05월</v>
-      </c>
-      <c r="F133" t="str">
-        <v>중앙조달</v>
-      </c>
-      <c r="G133" t="str">
-        <v>제한경쟁</v>
-      </c>
-      <c r="H133" t="str">
-        <v>2024년 청소년활동정보서비스 기능개선 사업</v>
-      </c>
-      <c r="I133" t="str">
-        <v>일반용역</v>
-      </c>
-      <c r="J133">
-        <v>420000000</v>
-      </c>
-      <c r="K133" t="str">
-        <v>정보안전부</v>
-      </c>
-      <c r="L133" t="str">
-        <v>서승원</v>
-      </c>
-      <c r="M133" t="str">
-        <v>02-6959-7139</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="str">
-        <v>439</v>
-      </c>
-      <c r="B134" t="str">
-        <v>용역</v>
-      </c>
-      <c r="C134" t="str">
-        <v>신규</v>
-      </c>
-      <c r="D134" t="str">
-        <v>(재)제주평생교육장학진흥원</v>
-      </c>
-      <c r="E134" t="str">
-        <v>2024년 06월</v>
-      </c>
-      <c r="F134" t="str">
-        <v>자체조달</v>
-      </c>
-      <c r="G134" t="str">
-        <v>제한경쟁</v>
-      </c>
-      <c r="H134" t="str">
-        <v>2024년「제주청년해외연수」용역</v>
-      </c>
-      <c r="I134" t="str">
-        <v>일반용역</v>
-      </c>
-      <c r="J134">
-        <v>120000000</v>
-      </c>
-      <c r="K134" t="str">
-        <v>경영기획부</v>
-      </c>
-      <c r="L134" t="str">
-        <v>고성준</v>
-      </c>
-      <c r="M134" t="str">
-        <v>064-726-9972</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="str">
-        <v>474</v>
-      </c>
-      <c r="B135" t="str">
-        <v>용역</v>
-      </c>
-      <c r="C135" t="str">
-        <v>신규</v>
-      </c>
-      <c r="D135" t="str">
-        <v>부산광역시교육청 부산광역시동래교육지원청</v>
-      </c>
-      <c r="E135" t="str">
-        <v>2024년 05월</v>
-      </c>
-      <c r="F135" t="str">
-        <v>자체조달</v>
-      </c>
-      <c r="G135" t="str">
-        <v>수의계약</v>
-      </c>
-      <c r="H135" t="str">
-        <v>거학초등학교 그린스마트스쿨 리모델링 전기, 정보통신, 소방공사 설계용역</v>
-      </c>
-      <c r="I135" t="str">
-        <v>기술용역</v>
-      </c>
-      <c r="J135">
-        <v>81099000</v>
-      </c>
-      <c r="K135" t="str">
-        <v>시설지원과</v>
-      </c>
-      <c r="L135" t="str">
-        <v>김학태</v>
-      </c>
-      <c r="M135" t="str">
-        <v>051-550-0234</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="str">
-        <v>522</v>
-      </c>
-      <c r="B136" t="str">
-        <v>용역</v>
-      </c>
-      <c r="D136" t="str">
-        <v>한국수자원공사</v>
-      </c>
-      <c r="E136" t="str">
-        <v>2024년 05월</v>
-      </c>
-      <c r="F136" t="str">
-        <v>자체조달</v>
-      </c>
-      <c r="G136" t="str">
-        <v>수의계약</v>
-      </c>
-      <c r="H136" t="str">
-        <v>단양(정) 화상감시설비 제조구매설치 정보통신공사 감리용역</v>
-      </c>
-      <c r="I136" t="str">
-        <v>기술용역</v>
-      </c>
-      <c r="J136">
-        <v>15100000</v>
-      </c>
-      <c r="K136" t="str">
-        <v>단양수도지사</v>
-      </c>
-      <c r="L136" t="str">
-        <v>오경식</v>
-      </c>
-      <c r="M136" t="str">
-        <v>043-420-2333</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="str">
-        <v>559</v>
-      </c>
-      <c r="B137" t="str">
-        <v>용역</v>
-      </c>
-      <c r="C137" t="str">
-        <v>신규</v>
-      </c>
-      <c r="D137" t="str">
-        <v>기상청 국가기상위성센터</v>
-      </c>
-      <c r="E137" t="str">
-        <v>2024년 05월</v>
-      </c>
-      <c r="F137" t="str">
-        <v>자체조달</v>
-      </c>
-      <c r="G137" t="str">
-        <v>제한경쟁</v>
-      </c>
-      <c r="H137" t="str">
-        <v>기상위성정보 사용자 현장의견 수렴을 위한 시연회, 간담회 및 워크숍 개최</v>
-      </c>
-      <c r="I137" t="str">
-        <v>일반용역</v>
-      </c>
-      <c r="J137">
-        <v>70000000</v>
-      </c>
-      <c r="K137" t="str">
-        <v>위성기획과</v>
-      </c>
-      <c r="L137" t="str">
-        <v>박근선</v>
-      </c>
-      <c r="M137" t="str">
-        <v>070-7850-5708</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="str">
-        <v>577</v>
-      </c>
-      <c r="B138" t="str">
-        <v>용역</v>
-      </c>
-      <c r="C138" t="str">
-        <v>신규</v>
-      </c>
-      <c r="D138" t="str">
-        <v>새마을금고중앙회</v>
-      </c>
-      <c r="E138" t="str">
-        <v>2024년 06월</v>
-      </c>
-      <c r="F138" t="str">
-        <v>자체조달</v>
-      </c>
-      <c r="G138" t="str">
-        <v>일반경쟁</v>
-      </c>
-      <c r="H138" t="str">
-        <v>2024년 새마을금고 정보보호 강화 구축(재공고)</v>
-      </c>
-      <c r="I138" t="str">
-        <v>일반용역</v>
-      </c>
-      <c r="J138">
-        <v>4407817370</v>
-      </c>
-      <c r="K138" t="str">
-        <v>총무계약부</v>
-      </c>
-      <c r="L138" t="str">
-        <v>이경아</v>
-      </c>
-      <c r="M138" t="str">
-        <v>02-2145-9052</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="str">
-        <v>631</v>
-      </c>
-      <c r="B139" t="str">
-        <v>용역</v>
-      </c>
-      <c r="C139" t="str">
-        <v>신규</v>
-      </c>
-      <c r="D139" t="str">
-        <v>한국환경공단 대구경북환경본부</v>
-      </c>
-      <c r="E139" t="str">
-        <v>2024년 05월</v>
-      </c>
-      <c r="F139" t="str">
-        <v>자체조달</v>
-      </c>
-      <c r="G139" t="str">
-        <v>수의계약</v>
-      </c>
-      <c r="H139" t="str">
-        <v>경산시 자원회수시설 증설 민간투자사업 정보통신공사 감리용역</v>
-      </c>
-      <c r="I139" t="str">
-        <v>기술용역</v>
-      </c>
-      <c r="J139">
-        <v>67866000</v>
-      </c>
-      <c r="K139" t="str">
-        <v>대구경북환경본부 환경시설관리처 시설사업1부</v>
-      </c>
-      <c r="L139" t="str">
-        <v>장홍훈</v>
-      </c>
-      <c r="M139" t="str">
-        <v>053-856-4555</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="str">
-        <v>650</v>
-      </c>
-      <c r="B140" t="str">
-        <v>용역</v>
-      </c>
-      <c r="C140" t="str">
-        <v>신규</v>
-      </c>
-      <c r="D140" t="str">
-        <v>한국무역협회</v>
-      </c>
-      <c r="E140" t="str">
-        <v>2024년 06월</v>
-      </c>
-      <c r="F140" t="str">
-        <v>자체조달</v>
-      </c>
-      <c r="G140" t="str">
-        <v>일반경쟁</v>
-      </c>
-      <c r="H140" t="str">
-        <v>2024 부천 해외바이어 수출상담회</v>
-      </c>
-      <c r="I140" t="str">
-        <v>일반용역</v>
-      </c>
-      <c r="J140">
-        <v>80000000</v>
-      </c>
-      <c r="K140" t="str">
-        <v>경기북부지역본부</v>
-      </c>
-      <c r="L140" t="str">
-        <v>손창우</v>
-      </c>
-      <c r="M140" t="str">
-        <v>031-995-6166</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="str">
-        <v>657</v>
-      </c>
-      <c r="B141" t="str">
-        <v>용역</v>
-      </c>
-      <c r="C141" t="str">
-        <v>신규</v>
-      </c>
-      <c r="D141" t="str">
-        <v>대구광역시교육청 대구외국어고등학교</v>
-      </c>
-      <c r="E141" t="str">
-        <v>2024년 06월</v>
-      </c>
-      <c r="F141" t="str">
-        <v>자체조달</v>
-      </c>
-      <c r="G141" t="str">
-        <v>제한경쟁</v>
-      </c>
-      <c r="H141" t="str">
-        <v>2024학년도 해외문화탐구활동(영국,스페인) 항공권 구매 및 기타용역(긴급)</v>
-      </c>
-      <c r="I141" t="str">
-        <v>일반용역</v>
-      </c>
-      <c r="J141">
-        <v>113357600</v>
-      </c>
-      <c r="K141" t="str">
-        <v>행정실</v>
-      </c>
-      <c r="L141" t="str">
-        <v>이동규</v>
-      </c>
-      <c r="M141" t="str">
-        <v>053-231-1702</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="str">
-        <v>660</v>
-      </c>
-      <c r="B142" t="str">
-        <v>용역</v>
-      </c>
-      <c r="C142" t="str">
-        <v>신규</v>
-      </c>
-      <c r="D142" t="str">
-        <v>한국고용노동교육원</v>
-      </c>
-      <c r="E142" t="str">
-        <v>2024년 05월</v>
-      </c>
-      <c r="F142" t="str">
-        <v>중앙조달</v>
-      </c>
-      <c r="G142" t="str">
-        <v>제한경쟁</v>
-      </c>
-      <c r="H142" t="str">
-        <v>2024년 정보시스템 인프라 통합 유지보수 용역</v>
-      </c>
-      <c r="I142" t="str">
-        <v>일반용역</v>
-      </c>
-      <c r="J142">
-        <v>215000000</v>
-      </c>
-      <c r="K142" t="str">
-        <v>경영지원팀</v>
-      </c>
-      <c r="L142" t="str">
-        <v>조용우</v>
-      </c>
-      <c r="M142" t="str">
-        <v>031-760-7872</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="str">
-        <v>700</v>
-      </c>
-      <c r="B143" t="str">
-        <v>용역</v>
-      </c>
-      <c r="C143" t="str">
-        <v>신규</v>
-      </c>
-      <c r="D143" t="str">
-        <v>한국건강증진개발원</v>
-      </c>
-      <c r="E143" t="str">
-        <v>2024년 05월</v>
-      </c>
-      <c r="F143" t="str">
-        <v>자체조달</v>
-      </c>
-      <c r="G143" t="str">
-        <v>제한경쟁</v>
-      </c>
-      <c r="H143" t="str">
-        <v>대국민 건강지표 및 건강정보 전달체계 마련</v>
-      </c>
-      <c r="I143" t="str">
-        <v>일반용역</v>
-      </c>
-      <c r="J143">
-        <v>45000000</v>
-      </c>
-      <c r="K143" t="str">
-        <v>연구통계팀</v>
-      </c>
-      <c r="L143" t="str">
-        <v>유은정</v>
-      </c>
-      <c r="M143" t="str">
-        <v>02-3781-3544</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="str">
-        <v>701</v>
-      </c>
-      <c r="B144" t="str">
-        <v>용역</v>
-      </c>
-      <c r="C144" t="str">
-        <v>신규</v>
-      </c>
-      <c r="D144" t="str">
-        <v>국립공원공단</v>
-      </c>
-      <c r="E144" t="str">
-        <v>2024년 06월</v>
-      </c>
-      <c r="F144" t="str">
-        <v>자체조달</v>
-      </c>
-      <c r="G144" t="str">
-        <v>제한경쟁</v>
-      </c>
-      <c r="H144" t="str">
-        <v>국립공원 탐방정보앱 개편</v>
-      </c>
-      <c r="I144" t="str">
-        <v>일반용역</v>
-      </c>
-      <c r="J144">
-        <v>270000000</v>
-      </c>
-      <c r="K144" t="str">
-        <v>정보융합실</v>
-      </c>
-      <c r="L144" t="str">
-        <v>진소현</v>
-      </c>
-      <c r="M144" t="str">
-        <v>033-769-9427</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="str">
-        <v>725</v>
-      </c>
-      <c r="B145" t="str">
-        <v>용역</v>
-      </c>
-      <c r="C145" t="str">
-        <v>신규</v>
-      </c>
-      <c r="D145" t="str">
-        <v>재단법인 대구경북디자인진흥원</v>
-      </c>
-      <c r="E145" t="str">
-        <v>2024년 06월</v>
-      </c>
-      <c r="F145" t="str">
-        <v>자체조달</v>
-      </c>
-      <c r="G145" t="str">
-        <v>일반경쟁</v>
-      </c>
-      <c r="H145" t="str">
-        <v>트렌드 동향 정보 자료 수집원 확보 및 메가/PEST 트렌드 개발 용역</v>
-      </c>
-      <c r="I145" t="str">
-        <v>일반용역</v>
-      </c>
-      <c r="J145">
-        <v>360500000</v>
-      </c>
-      <c r="K145" t="str">
-        <v>산업기반팀</v>
-      </c>
-      <c r="L145" t="str">
-        <v>손명균</v>
-      </c>
-      <c r="M145" t="str">
-        <v>053-740-0075</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="str">
-        <v>747</v>
-      </c>
-      <c r="B146" t="str">
-        <v>용역</v>
-      </c>
-      <c r="C146" t="str">
-        <v>신규</v>
-      </c>
-      <c r="D146" t="str">
-        <v>국회 국회예산정책처</v>
-      </c>
-      <c r="E146" t="str">
-        <v>2024년 05월</v>
-      </c>
-      <c r="F146" t="str">
-        <v>자체조달</v>
-      </c>
-      <c r="G146" t="str">
-        <v>수의계약</v>
-      </c>
-      <c r="H146" t="str">
-        <v>해외 사례 분석을 통한 국내 공공주택공급 정책의 개선방안 연구</v>
-      </c>
-      <c r="I146" t="str">
-        <v>일반용역</v>
-      </c>
-      <c r="J146">
-        <v>30000000</v>
-      </c>
-      <c r="K146" t="str">
-        <v>국회예산정책처 총무담당관실</v>
-      </c>
-      <c r="L146" t="str">
-        <v>장아련</v>
-      </c>
-      <c r="M146" t="str">
-        <v>02-6788-4615</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="str">
-        <v>770</v>
-      </c>
-      <c r="B147" t="str">
-        <v>용역</v>
-      </c>
-      <c r="D147" t="str">
-        <v>한국도로공사</v>
-      </c>
-      <c r="E147" t="str">
-        <v>2024년 05월</v>
-      </c>
-      <c r="F147" t="str">
-        <v>자체조달</v>
-      </c>
-      <c r="G147" t="str">
-        <v>수의계약</v>
-      </c>
-      <c r="H147" t="str">
-        <v>진천지사 가로등 위치정보화 작업 용역</v>
-      </c>
-      <c r="I147" t="str">
-        <v>기술용역</v>
-      </c>
-      <c r="J147">
-        <v>21000000</v>
-      </c>
-      <c r="K147" t="str">
-        <v>진천지사 도로안전팀</v>
-      </c>
-      <c r="L147" t="str">
-        <v>문경진</v>
-      </c>
-      <c r="M147" t="str">
-        <v>043-721-6252</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="str">
-        <v>804</v>
-      </c>
-      <c r="B148" t="str">
-        <v>용역</v>
-      </c>
-      <c r="C148" t="str">
-        <v>신규</v>
-      </c>
-      <c r="D148" t="str">
-        <v>한국연구재단</v>
-      </c>
-      <c r="E148" t="str">
-        <v>2024년 06월</v>
-      </c>
-      <c r="F148" t="str">
-        <v>중앙조달</v>
-      </c>
-      <c r="G148" t="str">
-        <v>일반경쟁</v>
-      </c>
-      <c r="H148" t="str">
-        <v>2024년 해외 국가 R&amp;D 투자현황 자료수집·분석 용역</v>
-      </c>
-      <c r="I148" t="str">
-        <v>일반용역</v>
-      </c>
-      <c r="J148">
-        <v>276300000</v>
-      </c>
-      <c r="K148" t="str">
-        <v>학술데이터분석팀</v>
-      </c>
-      <c r="L148" t="str">
-        <v>정종근</v>
-      </c>
-      <c r="M148" t="str">
-        <v>042-869-6682</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="str">
-        <v>932</v>
-      </c>
-      <c r="B149" t="str">
-        <v>용역</v>
-      </c>
-      <c r="C149" t="str">
-        <v>신규</v>
-      </c>
-      <c r="D149" t="str">
-        <v>국가유산청 국립문화유산연구원</v>
-      </c>
-      <c r="E149" t="str">
-        <v>2024년 05월</v>
-      </c>
-      <c r="F149" t="str">
-        <v>자체조달</v>
-      </c>
-      <c r="G149" t="str">
-        <v>제한경쟁</v>
-      </c>
-      <c r="H149" t="str">
-        <v>국립문화유산연구원 정보시스템 클라우드 이관 관리</v>
-      </c>
-      <c r="I149" t="str">
-        <v>일반용역</v>
-      </c>
-      <c r="J149">
-        <v>95200000</v>
-      </c>
-      <c r="K149" t="str">
-        <v>디지털문화유산연구정보팀</v>
-      </c>
-      <c r="L149" t="str">
-        <v>권정훈</v>
-      </c>
-      <c r="M149" t="str">
-        <v>042-860-9165</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="str">
-        <v>933</v>
-      </c>
-      <c r="B150" t="str">
-        <v>용역</v>
-      </c>
-      <c r="C150" t="str">
-        <v>신규</v>
-      </c>
-      <c r="D150" t="str">
-        <v>한국지질자원연구원</v>
-      </c>
-      <c r="E150" t="str">
-        <v>2024년 05월</v>
-      </c>
-      <c r="F150" t="str">
-        <v>자체조달</v>
-      </c>
-      <c r="G150" t="str">
-        <v>수의계약</v>
-      </c>
-      <c r="H150" t="str">
-        <v>지진지반응답 공간정보/부지분류지도 긴급수요대응 프로그램 개발 용역</v>
-      </c>
-      <c r="I150" t="str">
-        <v>일반용역</v>
-      </c>
-      <c r="J150">
-        <v>44000000</v>
-      </c>
-      <c r="K150" t="str">
-        <v>구매자산실</v>
-      </c>
-      <c r="L150" t="str">
-        <v>양갑준</v>
-      </c>
-      <c r="M150" t="str">
-        <v>042-868-3757</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="str">
-        <v>941</v>
-      </c>
-      <c r="B151" t="str">
-        <v>용역</v>
-      </c>
-      <c r="D151" t="str">
-        <v>한국지역난방공사</v>
-      </c>
-      <c r="E151" t="str">
-        <v>2024년 05월</v>
-      </c>
-      <c r="F151" t="str">
-        <v>자체조달</v>
-      </c>
-      <c r="G151" t="str">
-        <v>제한경쟁</v>
-      </c>
-      <c r="H151" t="str">
-        <v>정보보안시스템 운영·유지보수 용역</v>
-      </c>
-      <c r="I151" t="str">
-        <v>일반용역</v>
-      </c>
-      <c r="J151">
-        <v>2104028000</v>
-      </c>
-      <c r="K151" t="str">
-        <v>사이버보안센터</v>
-      </c>
-      <c r="L151" t="str">
-        <v>이창욱</v>
-      </c>
-      <c r="M151" t="str">
-        <v>031-8018-6435</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="str">
-        <v>943</v>
-      </c>
-      <c r="B152" t="str">
-        <v>용역</v>
-      </c>
-      <c r="C152" t="str">
-        <v>신규</v>
-      </c>
-      <c r="D152" t="str">
-        <v>한국농수산식품유통공사 농수산식품유통교육원</v>
-      </c>
-      <c r="E152" t="str">
-        <v>2024년 05월</v>
-      </c>
-      <c r="F152" t="str">
-        <v>자체조달</v>
-      </c>
-      <c r="G152" t="str">
-        <v>제한경쟁</v>
-      </c>
-      <c r="H152" t="str">
-        <v>2024년 교육정보시스템 위탁운영 용역</v>
-      </c>
-      <c r="I152" t="str">
-        <v>일반용역</v>
-      </c>
-      <c r="J152">
-        <v>600000000</v>
-      </c>
-      <c r="K152" t="str">
-        <v>교육지원부</v>
-      </c>
-      <c r="L152" t="str">
-        <v>이동호</v>
-      </c>
-      <c r="M152" t="str">
-        <v>010-9505-0288</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="str">
-        <v>962</v>
-      </c>
-      <c r="B153" t="str">
-        <v>용역</v>
-      </c>
-      <c r="C153" t="str">
-        <v>신규</v>
-      </c>
-      <c r="D153" t="str">
-        <v>해양수산부 국립해양조사원</v>
-      </c>
-      <c r="E153" t="str">
-        <v>2024년 05월</v>
-      </c>
-      <c r="F153" t="str">
-        <v>자체조달</v>
-      </c>
-      <c r="G153" t="str">
-        <v>제한경쟁</v>
-      </c>
-      <c r="H153" t="str">
-        <v>2024년 종합해양정보시스템 전환 감리</v>
-      </c>
-      <c r="I153" t="str">
-        <v>일반용역</v>
-      </c>
-      <c r="J153">
-        <v>30000000</v>
-      </c>
-      <c r="K153" t="str">
-        <v>국립해양조사원 운영지원과</v>
-      </c>
-      <c r="L153" t="str">
-        <v>김건일</v>
-      </c>
-      <c r="M153" t="str">
         <v>051-400-4377</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="str">
-        <v>974</v>
-      </c>
-      <c r="B154" t="str">
-        <v>용역</v>
-      </c>
-      <c r="C154" t="str">
-        <v>신규</v>
-      </c>
-      <c r="D154" t="str">
-        <v>부산여자대학 산학협력단</v>
-      </c>
-      <c r="E154" t="str">
-        <v>2024년 05월</v>
-      </c>
-      <c r="F154" t="str">
-        <v>자체조달</v>
-      </c>
-      <c r="G154" t="str">
-        <v>제한경쟁</v>
-      </c>
-      <c r="H154" t="str">
-        <v>비대면 글로벌 교육모델 운영을 위한 해외교류 프로그램 운영 위탁</v>
-      </c>
-      <c r="I154" t="str">
-        <v>일반용역</v>
-      </c>
-      <c r="J154">
-        <v>33000000</v>
-      </c>
-      <c r="K154" t="str">
-        <v>사무처</v>
-      </c>
-      <c r="L154" t="str">
-        <v>유석호</v>
-      </c>
-      <c r="M154" t="str">
-        <v>051-850-3070</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:M154"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:M102"/>
   </ignoredErrors>
 </worksheet>
 </file>